--- a/volatility/src/xls/09_AUDUSD.xlsx
+++ b/volatility/src/xls/09_AUDUSD.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,10 +525,10 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="2">
-        <v>108.5</v>
+        <v>108.7</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1">
@@ -558,22 +558,22 @@
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>15406</v>
+        <v>38444</v>
       </c>
       <c r="E6" s="5">
-        <v>112.9</v>
+        <v>68.7</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>1.133</v>
+        <v>0.69100000000000006</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.145</v>
+        <v>0.70300000000000007</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.121</v>
+        <v>0.67900000000000005</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>1.125</v>
+        <v>0.68299999999999994</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.113</v>
+        <v>0.67099999999999993</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.137</v>
+        <v>0.69499999999999995</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -620,11 +620,13 @@
       <c r="G11" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5447,6 +5449,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>

--- a/volatility/src/xls/09_AUDUSD.xlsx
+++ b/volatility/src/xls/09_AUDUSD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="240" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -528,7 +528,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="2">
-        <v>108.7</v>
+        <v>107.4</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1">
@@ -558,22 +558,22 @@
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>38444</v>
+        <v>38909</v>
       </c>
       <c r="E6" s="5">
-        <v>68.7</v>
+        <v>69.3</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>0.69100000000000006</v>
+        <v>0.69700000000000006</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>0.70300000000000007</v>
+        <v>0.70900000000000007</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>0.67900000000000005</v>
+        <v>0.68500000000000005</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>0.68299999999999994</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>0.67099999999999993</v>
+        <v>0.67699999999999994</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>0.69499999999999995</v>
+        <v>0.70099999999999996</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -620,13 +620,11 @@
       <c r="G11" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -640,7 +638,7 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9.83203125" defaultRowHeight="21" customHeight="1"/>
@@ -669,7 +667,7 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>1.3800000000000034</v>
+        <v>1.0610000000000008</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
@@ -681,23 +679,23 @@
         <v>9</v>
       </c>
       <c r="B2" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C2">
-        <v>0.69979000000000002</v>
+        <v>0.68676000000000004</v>
       </c>
       <c r="D2">
-        <v>0.69991000000000003</v>
+        <v>0.69377</v>
       </c>
       <c r="E2">
-        <v>0.68611</v>
+        <v>0.68315999999999999</v>
       </c>
       <c r="F2">
-        <v>0.68706</v>
+        <v>0.69255999999999995</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>0.94799999999999329</v>
+        <v>1.3800000000000034</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -705,23 +703,23 @@
         <v>9</v>
       </c>
       <c r="B3" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C3">
-        <v>0.69281000000000004</v>
+        <v>0.69979000000000002</v>
       </c>
       <c r="D3">
-        <v>0.70218999999999998</v>
+        <v>0.69991000000000003</v>
       </c>
       <c r="E3">
-        <v>0.69271000000000005</v>
+        <v>0.68611</v>
       </c>
       <c r="F3">
-        <v>0.69962999999999997</v>
+        <v>0.68706</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>0.45399999999999885</v>
+        <v>0.94799999999999329</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -729,23 +727,23 @@
         <v>9</v>
       </c>
       <c r="B4" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C4">
-        <v>0.69232000000000005</v>
+        <v>0.69281000000000004</v>
       </c>
       <c r="D4">
-        <v>0.69440000000000002</v>
+        <v>0.70218999999999998</v>
       </c>
       <c r="E4">
-        <v>0.68986000000000003</v>
+        <v>0.69271000000000005</v>
       </c>
       <c r="F4">
-        <v>0.69325999999999999</v>
+        <v>0.69962999999999997</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.69799999999999862</v>
+        <v>0.45399999999999885</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -753,23 +751,23 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C5">
-        <v>0.68964999999999999</v>
+        <v>0.69232000000000005</v>
       </c>
       <c r="D5">
-        <v>0.69345000000000001</v>
+        <v>0.69440000000000002</v>
       </c>
       <c r="E5">
-        <v>0.68647000000000002</v>
+        <v>0.68986000000000003</v>
       </c>
       <c r="F5">
-        <v>0.69269000000000003</v>
+        <v>0.69325999999999999</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1.3430000000000053</v>
+        <v>0.69799999999999862</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -777,23 +775,23 @@
         <v>9</v>
       </c>
       <c r="B6" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C6">
-        <v>0.69913999999999998</v>
+        <v>0.68964999999999999</v>
       </c>
       <c r="D6">
-        <v>0.69974000000000003</v>
+        <v>0.69345000000000001</v>
       </c>
       <c r="E6">
-        <v>0.68630999999999998</v>
+        <v>0.68647000000000002</v>
       </c>
       <c r="F6">
-        <v>0.68650999999999995</v>
+        <v>0.69269000000000003</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.8539999999999992</v>
+        <v>1.3430000000000053</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -801,23 +799,23 @@
         <v>9</v>
       </c>
       <c r="B7" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C7">
-        <v>0.69798000000000004</v>
+        <v>0.69913999999999998</v>
       </c>
       <c r="D7">
-        <v>0.70474000000000003</v>
+        <v>0.69974000000000003</v>
       </c>
       <c r="E7">
-        <v>0.69620000000000004</v>
+        <v>0.68630999999999998</v>
       </c>
       <c r="F7">
-        <v>0.69994000000000001</v>
+        <v>0.68650999999999995</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.84400000000000031</v>
+        <v>0.8539999999999992</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -825,23 +823,23 @@
         <v>9</v>
       </c>
       <c r="B8" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C8">
-        <v>0.70367999999999997</v>
+        <v>0.69798000000000004</v>
       </c>
       <c r="D8">
-        <v>0.70676000000000005</v>
+        <v>0.70474000000000003</v>
       </c>
       <c r="E8">
-        <v>0.69832000000000005</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="F8">
-        <v>0.70223999999999998</v>
+        <v>0.69994000000000001</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>1.6300000000000092</v>
+        <v>0.84400000000000031</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -849,23 +847,23 @@
         <v>9</v>
       </c>
       <c r="B9" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C9">
-        <v>0.71440000000000003</v>
+        <v>0.70367999999999997</v>
       </c>
       <c r="D9">
-        <v>0.71503000000000005</v>
+        <v>0.70676000000000005</v>
       </c>
       <c r="E9">
-        <v>0.69872999999999996</v>
+        <v>0.69832000000000005</v>
       </c>
       <c r="F9">
-        <v>0.70418000000000003</v>
+        <v>0.70223999999999998</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.69200000000000372</v>
+        <v>1.6300000000000092</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -873,23 +871,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C10">
-        <v>0.71711999999999998</v>
+        <v>0.71440000000000003</v>
       </c>
       <c r="D10">
-        <v>0.72050000000000003</v>
+        <v>0.71503000000000005</v>
       </c>
       <c r="E10">
-        <v>0.71357999999999999</v>
+        <v>0.69872999999999996</v>
       </c>
       <c r="F10">
-        <v>0.71480999999999995</v>
+        <v>0.70418000000000003</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1.0479999999999934</v>
+        <v>0.69200000000000372</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -897,23 +895,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C11">
-        <v>0.71016000000000001</v>
+        <v>0.71711999999999998</v>
       </c>
       <c r="D11">
-        <v>0.71914999999999996</v>
+        <v>0.72050000000000003</v>
       </c>
       <c r="E11">
-        <v>0.70867000000000002</v>
+        <v>0.71357999999999999</v>
       </c>
       <c r="F11">
-        <v>0.71701000000000004</v>
+        <v>0.71480999999999995</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.79200000000000381</v>
+        <v>1.0479999999999934</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -921,23 +919,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C12">
-        <v>0.71055000000000001</v>
+        <v>0.71016000000000001</v>
       </c>
       <c r="D12">
-        <v>0.71311000000000002</v>
+        <v>0.71914999999999996</v>
       </c>
       <c r="E12">
-        <v>0.70518999999999998</v>
+        <v>0.70867000000000002</v>
       </c>
       <c r="F12">
-        <v>0.71021000000000001</v>
+        <v>0.71701000000000004</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.83900000000000086</v>
+        <v>0.79200000000000381</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -945,23 +943,23 @@
         <v>9</v>
       </c>
       <c r="B13" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C13">
-        <v>0.70757000000000003</v>
+        <v>0.71055000000000001</v>
       </c>
       <c r="D13">
-        <v>0.71467999999999998</v>
+        <v>0.71311000000000002</v>
       </c>
       <c r="E13">
-        <v>0.70628999999999997</v>
+        <v>0.70518999999999998</v>
       </c>
       <c r="F13">
-        <v>0.70972000000000002</v>
+        <v>0.71021000000000001</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1.1149999999999993</v>
+        <v>0.83900000000000086</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -969,23 +967,23 @@
         <v>9</v>
       </c>
       <c r="B14" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C14">
-        <v>0.70792999999999995</v>
+        <v>0.70757000000000003</v>
       </c>
       <c r="D14">
-        <v>0.71674000000000004</v>
+        <v>0.71467999999999998</v>
       </c>
       <c r="E14">
-        <v>0.70559000000000005</v>
+        <v>0.70628999999999997</v>
       </c>
       <c r="F14">
-        <v>0.70772999999999997</v>
+        <v>0.70972000000000002</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.71100000000000607</v>
+        <v>1.1149999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -993,23 +991,23 @@
         <v>9</v>
       </c>
       <c r="B15" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C15">
-        <v>0.70304999999999995</v>
+        <v>0.70792999999999995</v>
       </c>
       <c r="D15">
-        <v>0.70969000000000004</v>
+        <v>0.71674000000000004</v>
       </c>
       <c r="E15">
-        <v>0.70257999999999998</v>
+        <v>0.70559000000000005</v>
       </c>
       <c r="F15">
-        <v>0.70826</v>
+        <v>0.70772999999999997</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1.0440000000000005</v>
+        <v>0.71100000000000607</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1017,23 +1015,23 @@
         <v>9</v>
       </c>
       <c r="B16" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C16">
-        <v>0.71057000000000003</v>
+        <v>0.70304999999999995</v>
       </c>
       <c r="D16">
-        <v>0.71067000000000002</v>
+        <v>0.70969000000000004</v>
       </c>
       <c r="E16">
-        <v>0.70023000000000002</v>
+        <v>0.70257999999999998</v>
       </c>
       <c r="F16">
-        <v>0.70435999999999999</v>
+        <v>0.70826</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>1.2929999999999997</v>
+        <v>1.0440000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1041,23 +1039,23 @@
         <v>9</v>
       </c>
       <c r="B17" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C17">
-        <v>0.71321999999999997</v>
+        <v>0.71057000000000003</v>
       </c>
       <c r="D17">
-        <v>0.71980999999999995</v>
+        <v>0.71067000000000002</v>
       </c>
       <c r="E17">
-        <v>0.70687999999999995</v>
+        <v>0.70023000000000002</v>
       </c>
       <c r="F17">
-        <v>0.70755999999999997</v>
+        <v>0.70435999999999999</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1.3679999999999914</v>
+        <v>1.2929999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1065,23 +1063,23 @@
         <v>9</v>
       </c>
       <c r="B18" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C18">
-        <v>0.71292999999999995</v>
+        <v>0.71321999999999997</v>
       </c>
       <c r="D18">
-        <v>0.72058999999999995</v>
+        <v>0.71980999999999995</v>
       </c>
       <c r="E18">
-        <v>0.70691000000000004</v>
+        <v>0.70687999999999995</v>
       </c>
       <c r="F18">
-        <v>0.71287</v>
+        <v>0.70755999999999997</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>0.94299999999999384</v>
+        <v>1.3679999999999914</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1089,23 +1087,23 @@
         <v>9</v>
       </c>
       <c r="B19" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C19">
-        <v>0.70831</v>
+        <v>0.71292999999999995</v>
       </c>
       <c r="D19">
-        <v>0.71475999999999995</v>
+        <v>0.72058999999999995</v>
       </c>
       <c r="E19">
-        <v>0.70533000000000001</v>
+        <v>0.70691000000000004</v>
       </c>
       <c r="F19">
-        <v>0.71382000000000001</v>
+        <v>0.71287</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>2.0410000000000039</v>
+        <v>0.94299999999999384</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1113,23 +1111,23 @@
         <v>9</v>
       </c>
       <c r="B20" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C20">
-        <v>0.72418000000000005</v>
+        <v>0.70831</v>
       </c>
       <c r="D20">
-        <v>0.72638000000000003</v>
+        <v>0.71475999999999995</v>
       </c>
       <c r="E20">
-        <v>0.70596999999999999</v>
+        <v>0.70533000000000001</v>
       </c>
       <c r="F20">
-        <v>0.70865999999999996</v>
+        <v>0.71382000000000001</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>1.5719999999999956</v>
+        <v>2.0410000000000039</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1137,23 +1135,23 @@
         <v>9</v>
       </c>
       <c r="B21" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C21">
-        <v>0.71721000000000001</v>
+        <v>0.72418000000000005</v>
       </c>
       <c r="D21">
-        <v>0.72943999999999998</v>
+        <v>0.72638000000000003</v>
       </c>
       <c r="E21">
-        <v>0.71372000000000002</v>
+        <v>0.70596999999999999</v>
       </c>
       <c r="F21">
-        <v>0.72489000000000003</v>
+        <v>0.70865999999999996</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1.0929999999999995</v>
+        <v>1.5719999999999956</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1161,23 +1159,23 @@
         <v>9</v>
       </c>
       <c r="B22" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C22">
-        <v>0.71614</v>
+        <v>0.71721000000000001</v>
       </c>
       <c r="D22">
-        <v>0.71845000000000003</v>
+        <v>0.72943999999999998</v>
       </c>
       <c r="E22">
-        <v>0.70752000000000004</v>
+        <v>0.71372000000000002</v>
       </c>
       <c r="F22">
-        <v>0.71814999999999996</v>
+        <v>0.72489000000000003</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>0.78799999999999981</v>
+        <v>1.0929999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1185,23 +1183,23 @@
         <v>9</v>
       </c>
       <c r="B23" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C23">
-        <v>0.72089000000000003</v>
+        <v>0.71614</v>
       </c>
       <c r="D23">
-        <v>0.72248999999999997</v>
+        <v>0.71845000000000003</v>
       </c>
       <c r="E23">
-        <v>0.71460999999999997</v>
+        <v>0.70752000000000004</v>
       </c>
       <c r="F23">
-        <v>0.71660000000000001</v>
+        <v>0.71814999999999996</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>1.2780000000000014</v>
+        <v>0.78799999999999981</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1209,23 +1207,23 @@
         <v>9</v>
       </c>
       <c r="B24" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C24">
-        <v>0.71108000000000005</v>
+        <v>0.72089000000000003</v>
       </c>
       <c r="D24">
-        <v>0.72345000000000004</v>
+        <v>0.72248999999999997</v>
       </c>
       <c r="E24">
-        <v>0.71067000000000002</v>
+        <v>0.71460999999999997</v>
       </c>
       <c r="F24">
-        <v>0.72116999999999998</v>
+        <v>0.71660000000000001</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>3.734000000000004</v>
+        <v>1.2780000000000014</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1233,23 +1231,23 @@
         <v>9</v>
       </c>
       <c r="B25" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C25">
-        <v>0.70359000000000005</v>
+        <v>0.71108000000000005</v>
       </c>
       <c r="D25">
-        <v>0.71238000000000001</v>
+        <v>0.72345000000000004</v>
       </c>
       <c r="E25">
-        <v>0.67503999999999997</v>
+        <v>0.71067000000000002</v>
       </c>
       <c r="F25">
-        <v>0.71194000000000002</v>
+        <v>0.72116999999999998</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0.60999999999999943</v>
+        <v>3.734000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1257,23 +1255,23 @@
         <v>9</v>
       </c>
       <c r="B26" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C26">
         <v>0.70359000000000005</v>
       </c>
       <c r="D26">
-        <v>0.7077</v>
+        <v>0.71238000000000001</v>
       </c>
       <c r="E26">
-        <v>0.7016</v>
+        <v>0.67503999999999997</v>
       </c>
       <c r="F26">
-        <v>0.70396000000000003</v>
+        <v>0.71194000000000002</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>1.6859999999999986</v>
+        <v>0.60999999999999943</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1281,23 +1279,23 @@
         <v>9</v>
       </c>
       <c r="B27" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C27">
-        <v>0.71697999999999995</v>
+        <v>0.70359000000000005</v>
       </c>
       <c r="D27">
-        <v>0.72026999999999997</v>
+        <v>0.7077</v>
       </c>
       <c r="E27">
-        <v>0.70340999999999998</v>
+        <v>0.7016</v>
       </c>
       <c r="F27">
-        <v>0.70391999999999999</v>
+        <v>0.70396000000000003</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>0.95399999999999929</v>
+        <v>1.6859999999999986</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1305,23 +1303,23 @@
         <v>9</v>
       </c>
       <c r="B28" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C28">
-        <v>0.71816999999999998</v>
+        <v>0.71697999999999995</v>
       </c>
       <c r="D28">
-        <v>0.72458</v>
+        <v>0.72026999999999997</v>
       </c>
       <c r="E28">
-        <v>0.71504000000000001</v>
+        <v>0.70340999999999998</v>
       </c>
       <c r="F28">
-        <v>0.71777999999999997</v>
+        <v>0.70391999999999999</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>2.018999999999993</v>
+        <v>0.95399999999999929</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1329,23 +1327,23 @@
         <v>9</v>
       </c>
       <c r="B29" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C29">
-        <v>0.73736999999999997</v>
+        <v>0.71816999999999998</v>
       </c>
       <c r="D29">
-        <v>0.73926999999999998</v>
+        <v>0.72458</v>
       </c>
       <c r="E29">
-        <v>0.71908000000000005</v>
+        <v>0.71504000000000001</v>
       </c>
       <c r="F29">
-        <v>0.71986000000000006</v>
+        <v>0.71777999999999997</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>1.4449999999999963</v>
+        <v>2.018999999999993</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1353,23 +1351,23 @@
         <v>9</v>
       </c>
       <c r="B30" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C30">
-        <v>0.72255000000000003</v>
+        <v>0.73736999999999997</v>
       </c>
       <c r="D30">
-        <v>0.73433999999999999</v>
+        <v>0.73926999999999998</v>
       </c>
       <c r="E30">
-        <v>0.71989000000000003</v>
+        <v>0.71908000000000005</v>
       </c>
       <c r="F30">
-        <v>0.73070999999999997</v>
+        <v>0.71986000000000006</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>1.2639999999999985</v>
+        <v>1.4449999999999963</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1377,23 +1375,23 @@
         <v>9</v>
       </c>
       <c r="B31" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C31">
-        <v>0.73046</v>
+        <v>0.72255000000000003</v>
       </c>
       <c r="D31">
-        <v>0.73248000000000002</v>
+        <v>0.73433999999999999</v>
       </c>
       <c r="E31">
-        <v>0.71984000000000004</v>
+        <v>0.71989000000000003</v>
       </c>
       <c r="F31">
-        <v>0.72258999999999995</v>
+        <v>0.73070999999999997</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1.7119999999999913</v>
+        <v>1.2639999999999985</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1401,23 +1399,23 @@
         <v>9</v>
       </c>
       <c r="B32" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C32">
-        <v>0.72155000000000002</v>
+        <v>0.73046</v>
       </c>
       <c r="D32">
-        <v>0.73346999999999996</v>
+        <v>0.73248000000000002</v>
       </c>
       <c r="E32">
-        <v>0.71635000000000004</v>
+        <v>0.71984000000000004</v>
       </c>
       <c r="F32">
-        <v>0.73336000000000001</v>
+        <v>0.72258999999999995</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>1.2010000000000076</v>
+        <v>1.7119999999999913</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1425,23 +1423,23 @@
         <v>9</v>
       </c>
       <c r="B33" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C33">
-        <v>0.71879999999999999</v>
+        <v>0.72155000000000002</v>
       </c>
       <c r="D33">
-        <v>0.73018000000000005</v>
+        <v>0.73346999999999996</v>
       </c>
       <c r="E33">
-        <v>0.71816999999999998</v>
+        <v>0.71635000000000004</v>
       </c>
       <c r="F33">
-        <v>0.72272999999999998</v>
+        <v>0.73336000000000001</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>2.0820000000000061</v>
+        <v>1.2010000000000076</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1449,23 +1447,23 @@
         <v>9</v>
       </c>
       <c r="B34" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C34">
-        <v>0.7087</v>
+        <v>0.71879999999999999</v>
       </c>
       <c r="D34">
-        <v>0.72577000000000003</v>
+        <v>0.73018000000000005</v>
       </c>
       <c r="E34">
-        <v>0.70494999999999997</v>
+        <v>0.71816999999999998</v>
       </c>
       <c r="F34">
-        <v>0.71972000000000003</v>
+        <v>0.72272999999999998</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>1.0419999999999985</v>
+        <v>2.0820000000000061</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1473,23 +1471,23 @@
         <v>9</v>
       </c>
       <c r="B35" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C35">
-        <v>0.71181000000000005</v>
+        <v>0.7087</v>
       </c>
       <c r="D35">
-        <v>0.71243999999999996</v>
+        <v>0.72577000000000003</v>
       </c>
       <c r="E35">
-        <v>0.70201999999999998</v>
+        <v>0.70494999999999997</v>
       </c>
       <c r="F35">
-        <v>0.70901999999999998</v>
+        <v>0.71972000000000003</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>0.70500000000000007</v>
+        <v>1.0419999999999985</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1497,23 +1495,23 @@
         <v>9</v>
       </c>
       <c r="B36" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C36">
-        <v>0.71050000000000002</v>
+        <v>0.71181000000000005</v>
       </c>
       <c r="D36">
-        <v>0.71587999999999996</v>
+        <v>0.71243999999999996</v>
       </c>
       <c r="E36">
-        <v>0.70882999999999996</v>
+        <v>0.70201999999999998</v>
       </c>
       <c r="F36">
-        <v>0.71170999999999995</v>
+        <v>0.70901999999999998</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>0.98699999999999344</v>
+        <v>0.70500000000000007</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1521,23 +1519,23 @@
         <v>9</v>
       </c>
       <c r="B37" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C37">
-        <v>0.70494999999999997</v>
+        <v>0.71050000000000002</v>
       </c>
       <c r="D37">
-        <v>0.71389999999999998</v>
+        <v>0.71587999999999996</v>
       </c>
       <c r="E37">
-        <v>0.70403000000000004</v>
+        <v>0.70882999999999996</v>
       </c>
       <c r="F37">
-        <v>0.71130000000000004</v>
+        <v>0.71170999999999995</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>1.9580000000000042</v>
+        <v>0.98699999999999344</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1545,23 +1543,23 @@
         <v>9</v>
       </c>
       <c r="B38" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C38">
-        <v>0.72180999999999995</v>
+        <v>0.70494999999999997</v>
       </c>
       <c r="D38">
-        <v>0.72374000000000005</v>
+        <v>0.71389999999999998</v>
       </c>
       <c r="E38">
-        <v>0.70416000000000001</v>
+        <v>0.70403000000000004</v>
       </c>
       <c r="F38">
-        <v>0.70518000000000003</v>
+        <v>0.71130000000000004</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>1.1440000000000006</v>
+        <v>1.9580000000000042</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1569,23 +1567,23 @@
         <v>9</v>
       </c>
       <c r="B39" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C39">
-        <v>0.72621000000000002</v>
+        <v>0.72180999999999995</v>
       </c>
       <c r="D39">
-        <v>0.73146</v>
+        <v>0.72374000000000005</v>
       </c>
       <c r="E39">
-        <v>0.72001999999999999</v>
+        <v>0.70416000000000001</v>
       </c>
       <c r="F39">
-        <v>0.72192999999999996</v>
+        <v>0.70518000000000003</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>1.6199999999999992</v>
+        <v>1.1440000000000006</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1593,23 +1591,23 @@
         <v>9</v>
       </c>
       <c r="B40" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C40">
-        <v>0.71494999999999997</v>
+        <v>0.72621000000000002</v>
       </c>
       <c r="D40">
-        <v>0.73031000000000001</v>
+        <v>0.73146</v>
       </c>
       <c r="E40">
-        <v>0.71411000000000002</v>
+        <v>0.72001999999999999</v>
       </c>
       <c r="F40">
-        <v>0.72850000000000004</v>
+        <v>0.72192999999999996</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>1.4399999999999968</v>
+        <v>1.6199999999999992</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1617,23 +1615,23 @@
         <v>9</v>
       </c>
       <c r="B41" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C41">
-        <v>0.70992999999999995</v>
+        <v>0.71494999999999997</v>
       </c>
       <c r="D41">
-        <v>0.72284999999999999</v>
+        <v>0.73031000000000001</v>
       </c>
       <c r="E41">
-        <v>0.70845000000000002</v>
+        <v>0.71411000000000002</v>
       </c>
       <c r="F41">
-        <v>0.71540999999999999</v>
+        <v>0.72850000000000004</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>1.368999999999998</v>
+        <v>1.4399999999999968</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1641,23 +1639,23 @@
         <v>9</v>
       </c>
       <c r="B42" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C42">
-        <v>0.71862000000000004</v>
+        <v>0.70992999999999995</v>
       </c>
       <c r="D42">
-        <v>0.72348000000000001</v>
+        <v>0.72284999999999999</v>
       </c>
       <c r="E42">
-        <v>0.70979000000000003</v>
+        <v>0.70845000000000002</v>
       </c>
       <c r="F42">
-        <v>0.71075999999999995</v>
+        <v>0.71540999999999999</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>1.8650000000000055</v>
+        <v>1.368999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1665,23 +1663,23 @@
         <v>9</v>
       </c>
       <c r="B43" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C43">
-        <v>0.73275000000000001</v>
+        <v>0.71862000000000004</v>
       </c>
       <c r="D43">
-        <v>0.73616000000000004</v>
+        <v>0.72348000000000001</v>
       </c>
       <c r="E43">
-        <v>0.71750999999999998</v>
+        <v>0.70979000000000003</v>
       </c>
       <c r="F43">
-        <v>0.71931</v>
+        <v>0.71075999999999995</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>1.4390000000000014</v>
+        <v>1.8650000000000055</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1689,23 +1687,23 @@
         <v>9</v>
       </c>
       <c r="B44" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C44">
-        <v>0.73082000000000003</v>
+        <v>0.73275000000000001</v>
       </c>
       <c r="D44">
-        <v>0.73809999999999998</v>
+        <v>0.73616000000000004</v>
       </c>
       <c r="E44">
-        <v>0.72370999999999996</v>
+        <v>0.71750999999999998</v>
       </c>
       <c r="F44">
-        <v>0.73248000000000002</v>
+        <v>0.71931</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>1.1700000000000044</v>
+        <v>1.4390000000000014</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1713,23 +1711,23 @@
         <v>9</v>
       </c>
       <c r="B45" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C45">
-        <v>0.72799999999999998</v>
+        <v>0.73082000000000003</v>
       </c>
       <c r="D45">
-        <v>0.73187000000000002</v>
+        <v>0.73809999999999998</v>
       </c>
       <c r="E45">
-        <v>0.72016999999999998</v>
+        <v>0.72370999999999996</v>
       </c>
       <c r="F45">
-        <v>0.73141</v>
+        <v>0.73248000000000002</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>1.7249999999999988</v>
+        <v>1.1700000000000044</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1737,23 +1735,23 @@
         <v>9</v>
       </c>
       <c r="B46" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C46">
-        <v>0.73936000000000002</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="D46">
-        <v>0.74524000000000001</v>
+        <v>0.73187000000000002</v>
       </c>
       <c r="E46">
-        <v>0.72799000000000003</v>
+        <v>0.72016999999999998</v>
       </c>
       <c r="F46">
-        <v>0.73001000000000005</v>
+        <v>0.73141</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>0.9240000000000026</v>
+        <v>1.7249999999999988</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1761,23 +1759,23 @@
         <v>9</v>
       </c>
       <c r="B47" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C47">
-        <v>0.73978999999999995</v>
+        <v>0.73936000000000002</v>
       </c>
       <c r="D47">
-        <v>0.74399000000000004</v>
+        <v>0.74524000000000001</v>
       </c>
       <c r="E47">
-        <v>0.73475000000000001</v>
+        <v>0.72799000000000003</v>
       </c>
       <c r="F47">
-        <v>0.73962000000000006</v>
+        <v>0.73001000000000005</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>1.0469999999999979</v>
+        <v>0.9240000000000026</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1785,23 +1783,23 @@
         <v>9</v>
       </c>
       <c r="B48" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C48">
-        <v>0.74175999999999997</v>
+        <v>0.73978999999999995</v>
       </c>
       <c r="D48">
-        <v>0.74634999999999996</v>
+        <v>0.74399000000000004</v>
       </c>
       <c r="E48">
-        <v>0.73587999999999998</v>
+        <v>0.73475000000000001</v>
       </c>
       <c r="F48">
-        <v>0.74021999999999999</v>
+        <v>0.73962000000000006</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>1.2449999999999961</v>
+        <v>1.0469999999999979</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1809,23 +1807,23 @@
         <v>9</v>
       </c>
       <c r="B49" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C49">
-        <v>0.74111000000000005</v>
+        <v>0.74175999999999997</v>
       </c>
       <c r="D49">
-        <v>0.74417</v>
+        <v>0.74634999999999996</v>
       </c>
       <c r="E49">
-        <v>0.73172000000000004</v>
+        <v>0.73587999999999998</v>
       </c>
       <c r="F49">
-        <v>0.74197999999999997</v>
+        <v>0.74021999999999999</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>1.2539999999999996</v>
+        <v>1.2449999999999961</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1833,23 +1831,23 @@
         <v>9</v>
       </c>
       <c r="B50" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C50">
-        <v>0.74280000000000002</v>
+        <v>0.74111000000000005</v>
       </c>
       <c r="D50">
-        <v>0.74831000000000003</v>
+        <v>0.74417</v>
       </c>
       <c r="E50">
-        <v>0.73577000000000004</v>
+        <v>0.73172000000000004</v>
       </c>
       <c r="F50">
         <v>0.74197999999999997</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.3360000000000039</v>
+        <v>1.2539999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1857,23 +1855,23 @@
         <v>9</v>
       </c>
       <c r="B51" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C51">
-        <v>0.73938999999999999</v>
+        <v>0.74280000000000002</v>
       </c>
       <c r="D51">
-        <v>0.74434</v>
+        <v>0.74831000000000003</v>
       </c>
       <c r="E51">
-        <v>0.73097999999999996</v>
+        <v>0.73577000000000004</v>
       </c>
       <c r="F51">
-        <v>0.74307000000000001</v>
+        <v>0.74197999999999997</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.1919999999999931</v>
+        <v>1.3360000000000039</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1881,23 +1879,23 @@
         <v>9</v>
       </c>
       <c r="B52" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C52">
-        <v>0.74367000000000005</v>
+        <v>0.73938999999999999</v>
       </c>
       <c r="D52">
-        <v>0.74417999999999995</v>
+        <v>0.74434</v>
       </c>
       <c r="E52">
-        <v>0.73226000000000002</v>
+        <v>0.73097999999999996</v>
       </c>
       <c r="F52">
-        <v>0.74077000000000004</v>
+        <v>0.74307000000000001</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>1.0889999999999955</v>
+        <v>1.1919999999999931</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1905,23 +1903,23 @@
         <v>9</v>
       </c>
       <c r="B53" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C53">
-        <v>0.74378</v>
+        <v>0.74367000000000005</v>
       </c>
       <c r="D53">
-        <v>0.74536999999999998</v>
+        <v>0.74417999999999995</v>
       </c>
       <c r="E53">
-        <v>0.73448000000000002</v>
+        <v>0.73226000000000002</v>
       </c>
       <c r="F53">
-        <v>0.74373</v>
+        <v>0.74077000000000004</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>1.8119999999999914</v>
+        <v>1.0889999999999955</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1929,23 +1927,23 @@
         <v>9</v>
       </c>
       <c r="B54" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C54">
-        <v>0.75914999999999999</v>
+        <v>0.74378</v>
       </c>
       <c r="D54">
-        <v>0.76227999999999996</v>
+        <v>0.74536999999999998</v>
       </c>
       <c r="E54">
-        <v>0.74416000000000004</v>
+        <v>0.73448000000000002</v>
       </c>
       <c r="F54">
-        <v>0.74424000000000001</v>
+        <v>0.74373</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>1.1619999999999964</v>
+        <v>1.8119999999999914</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1953,23 +1951,23 @@
         <v>9</v>
       </c>
       <c r="B55" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C55">
-        <v>0.75661999999999996</v>
+        <v>0.75914999999999999</v>
       </c>
       <c r="D55">
-        <v>0.76758999999999999</v>
+        <v>0.76227999999999996</v>
       </c>
       <c r="E55">
-        <v>0.75597000000000003</v>
+        <v>0.74416000000000004</v>
       </c>
       <c r="F55">
-        <v>0.75985000000000003</v>
+        <v>0.74424000000000001</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>1.1689999999999978</v>
+        <v>1.1619999999999964</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1977,23 +1975,23 @@
         <v>9</v>
       </c>
       <c r="B56" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C56">
-        <v>0.75566999999999995</v>
+        <v>0.75661999999999996</v>
       </c>
       <c r="D56">
-        <v>0.75922999999999996</v>
+        <v>0.76758999999999999</v>
       </c>
       <c r="E56">
-        <v>0.74753999999999998</v>
+        <v>0.75597000000000003</v>
       </c>
       <c r="F56">
-        <v>0.75712000000000002</v>
+        <v>0.75985000000000003</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>1.0239999999999916</v>
+        <v>1.1689999999999978</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -2001,23 +1999,23 @@
         <v>9</v>
       </c>
       <c r="B57" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C57">
-        <v>0.75210999999999995</v>
+        <v>0.75566999999999995</v>
       </c>
       <c r="D57">
-        <v>0.76044999999999996</v>
+        <v>0.75922999999999996</v>
       </c>
       <c r="E57">
-        <v>0.75021000000000004</v>
+        <v>0.74753999999999998</v>
       </c>
       <c r="F57">
-        <v>0.75509999999999999</v>
+        <v>0.75712000000000002</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>1.1800000000000033</v>
+        <v>1.0239999999999916</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2025,23 +2023,23 @@
         <v>9</v>
       </c>
       <c r="B58" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C58">
-        <v>0.75395000000000001</v>
+        <v>0.75210999999999995</v>
       </c>
       <c r="D58">
-        <v>0.75644</v>
+        <v>0.76044999999999996</v>
       </c>
       <c r="E58">
-        <v>0.74463999999999997</v>
+        <v>0.75021000000000004</v>
       </c>
       <c r="F58">
-        <v>0.75117999999999996</v>
+        <v>0.75509999999999999</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>1.5430000000000055</v>
+        <v>1.1800000000000033</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2049,23 +2047,23 @@
         <v>9</v>
       </c>
       <c r="B59" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C59">
-        <v>0.75322</v>
+        <v>0.75395000000000001</v>
       </c>
       <c r="D59">
-        <v>0.75660000000000005</v>
+        <v>0.75644</v>
       </c>
       <c r="E59">
-        <v>0.74117</v>
+        <v>0.74463999999999997</v>
       </c>
       <c r="F59">
-        <v>0.75443000000000005</v>
+        <v>0.75117999999999996</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>1.0970000000000035</v>
+        <v>1.5430000000000055</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2073,23 +2071,23 @@
         <v>9</v>
       </c>
       <c r="B60" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C60">
-        <v>0.75724999999999998</v>
+        <v>0.75322</v>
       </c>
       <c r="D60">
-        <v>0.75814000000000004</v>
+        <v>0.75660000000000005</v>
       </c>
       <c r="E60">
-        <v>0.74717</v>
+        <v>0.74117</v>
       </c>
       <c r="F60">
-        <v>0.75346999999999997</v>
+        <v>0.75443000000000005</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>1.5050000000000008</v>
+        <v>1.0970000000000035</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2097,23 +2095,23 @@
         <v>9</v>
       </c>
       <c r="B61" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C61">
-        <v>0.76668000000000003</v>
+        <v>0.75724999999999998</v>
       </c>
       <c r="D61">
-        <v>0.76817999999999997</v>
+        <v>0.75814000000000004</v>
       </c>
       <c r="E61">
-        <v>0.75312999999999997</v>
+        <v>0.74717</v>
       </c>
       <c r="F61">
-        <v>0.75782000000000005</v>
+        <v>0.75346999999999997</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>1.5759999999999996</v>
+        <v>1.5050000000000008</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2121,23 +2119,23 @@
         <v>9</v>
       </c>
       <c r="B62" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C62">
-        <v>0.77617000000000003</v>
+        <v>0.76668000000000003</v>
       </c>
       <c r="D62">
-        <v>0.78120999999999996</v>
+        <v>0.76817999999999997</v>
       </c>
       <c r="E62">
-        <v>0.76544999999999996</v>
+        <v>0.75312999999999997</v>
       </c>
       <c r="F62">
-        <v>0.76690999999999998</v>
+        <v>0.75782000000000005</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>1.5769999999999951</v>
+        <v>1.5759999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2145,23 +2143,23 @@
         <v>9</v>
       </c>
       <c r="B63" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C63">
-        <v>0.76658000000000004</v>
+        <v>0.77617000000000003</v>
       </c>
       <c r="D63">
-        <v>0.78090999999999999</v>
+        <v>0.78120999999999996</v>
       </c>
       <c r="E63">
-        <v>0.76514000000000004</v>
+        <v>0.76544999999999996</v>
       </c>
       <c r="F63">
-        <v>0.77644000000000002</v>
+        <v>0.76690999999999998</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>0.76699999999999546</v>
+        <v>1.5769999999999951</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2169,23 +2167,23 @@
         <v>9</v>
       </c>
       <c r="B64" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C64">
-        <v>0.76854</v>
+        <v>0.76658000000000004</v>
       </c>
       <c r="D64">
-        <v>0.77256999999999998</v>
+        <v>0.78090999999999999</v>
       </c>
       <c r="E64">
-        <v>0.76490000000000002</v>
+        <v>0.76514000000000004</v>
       </c>
       <c r="F64">
-        <v>0.76749999999999996</v>
+        <v>0.77644000000000002</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>1.1480000000000046</v>
+        <v>0.76699999999999546</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2193,23 +2191,23 @@
         <v>9</v>
       </c>
       <c r="B65" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C65">
-        <v>0.76971999999999996</v>
+        <v>0.76854</v>
       </c>
       <c r="D65">
-        <v>0.77568000000000004</v>
+        <v>0.77256999999999998</v>
       </c>
       <c r="E65">
-        <v>0.76419999999999999</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="F65">
-        <v>0.76831000000000005</v>
+        <v>0.76749999999999996</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>1.1390000000000011</v>
+        <v>1.1480000000000046</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2217,23 +2215,23 @@
         <v>9</v>
       </c>
       <c r="B66" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C66">
-        <v>0.77088000000000001</v>
+        <v>0.76971999999999996</v>
       </c>
       <c r="D66">
-        <v>0.77854999999999996</v>
+        <v>0.77568000000000004</v>
       </c>
       <c r="E66">
-        <v>0.76715999999999995</v>
+        <v>0.76419999999999999</v>
       </c>
       <c r="F66">
-        <v>0.76983999999999997</v>
+        <v>0.76831000000000005</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>2.0649999999999946</v>
+        <v>1.1390000000000011</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2241,23 +2239,23 @@
         <v>9</v>
       </c>
       <c r="B67" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C67">
-        <v>0.78442000000000001</v>
+        <v>0.77088000000000001</v>
       </c>
       <c r="D67">
-        <v>0.79157</v>
+        <v>0.77854999999999996</v>
       </c>
       <c r="E67">
-        <v>0.77092000000000005</v>
+        <v>0.76715999999999995</v>
       </c>
       <c r="F67">
-        <v>0.77102999999999999</v>
+        <v>0.76983999999999997</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>1.2809999999999988</v>
+        <v>2.0649999999999946</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2265,23 +2263,23 @@
         <v>9</v>
       </c>
       <c r="B68" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C68">
-        <v>0.77600999999999998</v>
+        <v>0.78442000000000001</v>
       </c>
       <c r="D68">
-        <v>0.78530999999999995</v>
+        <v>0.79157</v>
       </c>
       <c r="E68">
-        <v>0.77249999999999996</v>
+        <v>0.77092000000000005</v>
       </c>
       <c r="F68">
-        <v>0.78483999999999998</v>
+        <v>0.77102999999999999</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>1.8080000000000096</v>
+        <v>1.2809999999999988</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2289,23 +2287,23 @@
         <v>9</v>
       </c>
       <c r="B69" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C69">
-        <v>0.78373999999999999</v>
+        <v>0.77600999999999998</v>
       </c>
       <c r="D69">
-        <v>0.78924000000000005</v>
+        <v>0.78530999999999995</v>
       </c>
       <c r="E69">
-        <v>0.77115999999999996</v>
+        <v>0.77249999999999996</v>
       </c>
       <c r="F69">
-        <v>0.77608999999999995</v>
+        <v>0.78483999999999998</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>1.4490000000000003</v>
+        <v>1.8080000000000096</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2313,23 +2311,23 @@
         <v>9</v>
       </c>
       <c r="B70" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C70">
-        <v>0.79037999999999997</v>
+        <v>0.78373999999999999</v>
       </c>
       <c r="D70">
-        <v>0.79346000000000005</v>
+        <v>0.78924000000000005</v>
       </c>
       <c r="E70">
-        <v>0.77897000000000005</v>
+        <v>0.77115999999999996</v>
       </c>
       <c r="F70">
-        <v>0.78359000000000001</v>
+        <v>0.77608999999999995</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>2.1550000000000069</v>
+        <v>1.4490000000000003</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2337,23 +2335,23 @@
         <v>9</v>
       </c>
       <c r="B71" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C71">
-        <v>0.78105999999999998</v>
+        <v>0.79037999999999997</v>
       </c>
       <c r="D71">
-        <v>0.79878000000000005</v>
+        <v>0.79346000000000005</v>
       </c>
       <c r="E71">
-        <v>0.77722999999999998</v>
+        <v>0.77897000000000005</v>
       </c>
       <c r="F71">
-        <v>0.79117000000000004</v>
+        <v>0.78359000000000001</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>1.9510000000000027</v>
+        <v>2.1550000000000069</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2361,23 +2359,23 @@
         <v>9</v>
       </c>
       <c r="B72" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C72">
-        <v>0.79079999999999995</v>
+        <v>0.78105999999999998</v>
       </c>
       <c r="D72">
-        <v>0.79532000000000003</v>
+        <v>0.79878000000000005</v>
       </c>
       <c r="E72">
-        <v>0.77581</v>
+        <v>0.77722999999999998</v>
       </c>
       <c r="F72">
-        <v>0.78142999999999996</v>
+        <v>0.79117000000000004</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>1.9830000000000014</v>
+        <v>1.9510000000000027</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2385,23 +2383,23 @@
         <v>9</v>
       </c>
       <c r="B73" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C73">
-        <v>0.80986000000000002</v>
+        <v>0.79079999999999995</v>
       </c>
       <c r="D73">
-        <v>0.81174000000000002</v>
+        <v>0.79532000000000003</v>
       </c>
       <c r="E73">
-        <v>0.79191</v>
+        <v>0.77581</v>
       </c>
       <c r="F73">
-        <v>0.79237000000000002</v>
+        <v>0.78142999999999996</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>1.794999999999991</v>
+        <v>1.9830000000000014</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2409,23 +2407,23 @@
         <v>9</v>
       </c>
       <c r="B74" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C74">
-        <v>0.79961000000000004</v>
+        <v>0.80986000000000002</v>
       </c>
       <c r="D74">
-        <v>0.81350999999999996</v>
+        <v>0.81174000000000002</v>
       </c>
       <c r="E74">
-        <v>0.79556000000000004</v>
+        <v>0.79191</v>
       </c>
       <c r="F74">
-        <v>0.81098000000000003</v>
+        <v>0.79237000000000002</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>1.3870000000000049</v>
+        <v>1.794999999999991</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2433,23 +2431,23 @@
         <v>9</v>
       </c>
       <c r="B75" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C75">
-        <v>0.78988999999999998</v>
+        <v>0.79961000000000004</v>
       </c>
       <c r="D75">
-        <v>0.80376000000000003</v>
+        <v>0.81350999999999996</v>
       </c>
       <c r="E75">
-        <v>0.78988999999999998</v>
+        <v>0.79556000000000004</v>
       </c>
       <c r="F75">
-        <v>0.79944999999999999</v>
+        <v>0.81098000000000003</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>1.1749999999999927</v>
+        <v>1.3870000000000049</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2457,23 +2455,23 @@
         <v>9</v>
       </c>
       <c r="B76" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C76">
-        <v>0.78576000000000001</v>
+        <v>0.78988999999999998</v>
       </c>
       <c r="D76">
-        <v>0.79240999999999995</v>
+        <v>0.80376000000000003</v>
       </c>
       <c r="E76">
-        <v>0.78066000000000002</v>
+        <v>0.78988999999999998</v>
       </c>
       <c r="F76">
-        <v>0.79151000000000005</v>
+        <v>0.79944999999999999</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>0.80100000000000726</v>
+        <v>1.1749999999999927</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2481,23 +2479,23 @@
         <v>9</v>
       </c>
       <c r="B77" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C77">
-        <v>0.77966999999999997</v>
+        <v>0.78576000000000001</v>
       </c>
       <c r="D77">
-        <v>0.78739000000000003</v>
+        <v>0.79240999999999995</v>
       </c>
       <c r="E77">
-        <v>0.77937999999999996</v>
+        <v>0.78066000000000002</v>
       </c>
       <c r="F77">
-        <v>0.78617999999999999</v>
+        <v>0.79151000000000005</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>1.2270000000000003</v>
+        <v>0.80100000000000726</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2505,23 +2503,23 @@
         <v>9</v>
       </c>
       <c r="B78" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C78">
-        <v>0.77019000000000004</v>
+        <v>0.77966999999999997</v>
       </c>
       <c r="D78">
-        <v>0.78241000000000005</v>
+        <v>0.78739000000000003</v>
       </c>
       <c r="E78">
-        <v>0.77014000000000005</v>
+        <v>0.77937999999999996</v>
       </c>
       <c r="F78">
-        <v>0.78025999999999995</v>
+        <v>0.78617999999999999</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>0.79900000000000526</v>
+        <v>1.2270000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2529,23 +2527,23 @@
         <v>9</v>
       </c>
       <c r="B79" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C79">
-        <v>0.76400999999999997</v>
+        <v>0.77019000000000004</v>
       </c>
       <c r="D79">
-        <v>0.77198</v>
+        <v>0.78241000000000005</v>
       </c>
       <c r="E79">
-        <v>0.76398999999999995</v>
+        <v>0.77014000000000005</v>
       </c>
       <c r="F79">
-        <v>0.77134999999999998</v>
+        <v>0.78025999999999995</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>1.9560000000000022</v>
+        <v>0.79900000000000526</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2553,23 +2551,23 @@
         <v>9</v>
       </c>
       <c r="B80" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C80">
-        <v>0.75051000000000001</v>
+        <v>0.76400999999999997</v>
       </c>
       <c r="D80">
-        <v>0.76939000000000002</v>
+        <v>0.77198</v>
       </c>
       <c r="E80">
-        <v>0.74983</v>
+        <v>0.76398999999999995</v>
       </c>
       <c r="F80">
-        <v>0.76431000000000004</v>
+        <v>0.77134999999999998</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>1.5249999999999986</v>
+        <v>1.9560000000000022</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2577,23 +2575,23 @@
         <v>9</v>
       </c>
       <c r="B81" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C81">
-        <v>0.75904000000000005</v>
+        <v>0.75051000000000001</v>
       </c>
       <c r="D81">
-        <v>0.76529999999999998</v>
+        <v>0.76939000000000002</v>
       </c>
       <c r="E81">
-        <v>0.75004999999999999</v>
+        <v>0.74983</v>
       </c>
       <c r="F81">
-        <v>0.75075999999999998</v>
+        <v>0.76431000000000004</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>0.9319999999999995</v>
+        <v>1.5249999999999986</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2601,23 +2599,23 @@
         <v>9</v>
       </c>
       <c r="B82" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C82">
-        <v>0.76114000000000004</v>
+        <v>0.75904000000000005</v>
       </c>
       <c r="D82">
-        <v>0.76439000000000001</v>
+        <v>0.76529999999999998</v>
       </c>
       <c r="E82">
-        <v>0.75507000000000002</v>
+        <v>0.75004999999999999</v>
       </c>
       <c r="F82">
-        <v>0.76085999999999998</v>
+        <v>0.75075999999999998</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>1.0660000000000003</v>
+        <v>0.9319999999999995</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2625,23 +2623,23 @@
         <v>9</v>
       </c>
       <c r="B83" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C83">
-        <v>0.75614999999999999</v>
+        <v>0.76114000000000004</v>
       </c>
       <c r="D83">
-        <v>0.76378000000000001</v>
+        <v>0.76439000000000001</v>
       </c>
       <c r="E83">
-        <v>0.75312000000000001</v>
+        <v>0.75507000000000002</v>
       </c>
       <c r="F83">
-        <v>0.76176999999999995</v>
+        <v>0.76085999999999998</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>1.2980000000000103</v>
+        <v>1.0660000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2649,23 +2647,23 @@
         <v>9</v>
       </c>
       <c r="B84" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C84">
-        <v>0.76487000000000005</v>
+        <v>0.75614999999999999</v>
       </c>
       <c r="D84">
-        <v>0.76648000000000005</v>
+        <v>0.76378000000000001</v>
       </c>
       <c r="E84">
-        <v>0.75349999999999995</v>
+        <v>0.75312000000000001</v>
       </c>
       <c r="F84">
-        <v>0.75634000000000001</v>
+        <v>0.76176999999999995</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>0.73299999999999477</v>
+        <v>1.2980000000000103</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2673,23 +2671,23 @@
         <v>9</v>
       </c>
       <c r="B85" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C85">
-        <v>0.76444999999999996</v>
+        <v>0.76487000000000005</v>
       </c>
       <c r="D85">
-        <v>0.76998</v>
+        <v>0.76648000000000005</v>
       </c>
       <c r="E85">
-        <v>0.76265000000000005</v>
+        <v>0.75349999999999995</v>
       </c>
       <c r="F85">
-        <v>0.76597999999999999</v>
+        <v>0.75634000000000001</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>0.90500000000000025</v>
+        <v>0.73299999999999477</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2697,23 +2695,23 @@
         <v>9</v>
       </c>
       <c r="B86" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C86">
-        <v>0.76675000000000004</v>
+        <v>0.76444999999999996</v>
       </c>
       <c r="D86">
-        <v>0.77288999999999997</v>
+        <v>0.76998</v>
       </c>
       <c r="E86">
-        <v>0.76383999999999996</v>
+        <v>0.76265000000000005</v>
       </c>
       <c r="F86">
-        <v>0.76482000000000006</v>
+        <v>0.76597999999999999</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>2.0939999999999959</v>
+        <v>0.90500000000000025</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2721,23 +2719,23 @@
         <v>9</v>
       </c>
       <c r="B87" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C87">
-        <v>0.78090000000000004</v>
+        <v>0.76675000000000004</v>
       </c>
       <c r="D87">
-        <v>0.78337000000000001</v>
+        <v>0.77288999999999997</v>
       </c>
       <c r="E87">
-        <v>0.76243000000000005</v>
+        <v>0.76383999999999996</v>
       </c>
       <c r="F87">
-        <v>0.76749000000000001</v>
+        <v>0.76482000000000006</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>0.81299999999999706</v>
+        <v>2.0939999999999959</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2745,23 +2743,23 @@
         <v>9</v>
       </c>
       <c r="B88" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C88">
-        <v>0.78793000000000002</v>
+        <v>0.78090000000000004</v>
       </c>
       <c r="D88">
-        <v>0.78888000000000003</v>
+        <v>0.78337000000000001</v>
       </c>
       <c r="E88">
-        <v>0.78075000000000006</v>
+        <v>0.76243000000000005</v>
       </c>
       <c r="F88">
-        <v>0.78151999999999999</v>
+        <v>0.76749000000000001</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>1.4969999999999928</v>
+        <v>0.81299999999999706</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2769,23 +2767,23 @@
         <v>9</v>
       </c>
       <c r="B89" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C89">
-        <v>0.77712000000000003</v>
+        <v>0.78793000000000002</v>
       </c>
       <c r="D89">
-        <v>0.78964999999999996</v>
+        <v>0.78888000000000003</v>
       </c>
       <c r="E89">
-        <v>0.77468000000000004</v>
+        <v>0.78075000000000006</v>
       </c>
       <c r="F89">
-        <v>0.78856999999999999</v>
+        <v>0.78151999999999999</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>1.4209999999999945</v>
+        <v>1.4969999999999928</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2793,23 +2791,23 @@
         <v>9</v>
       </c>
       <c r="B90" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C90">
-        <v>0.78303</v>
+        <v>0.77712000000000003</v>
       </c>
       <c r="D90">
-        <v>0.78742999999999996</v>
+        <v>0.78964999999999996</v>
       </c>
       <c r="E90">
-        <v>0.77322000000000002</v>
+        <v>0.77468000000000004</v>
       </c>
       <c r="F90">
-        <v>0.77722999999999998</v>
+        <v>0.78856999999999999</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>1.7419999999999991</v>
+        <v>1.4209999999999945</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2817,23 +2815,23 @@
         <v>9</v>
       </c>
       <c r="B91" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C91">
-        <v>0.79491999999999996</v>
+        <v>0.78303</v>
       </c>
       <c r="D91">
-        <v>0.79727999999999999</v>
+        <v>0.78742999999999996</v>
       </c>
       <c r="E91">
-        <v>0.77986</v>
+        <v>0.77322000000000002</v>
       </c>
       <c r="F91">
-        <v>0.78373999999999999</v>
+        <v>0.77722999999999998</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>1.9460000000000033</v>
+        <v>1.7419999999999991</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2841,23 +2839,23 @@
         <v>9</v>
       </c>
       <c r="B92" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C92">
-        <v>0.79918999999999996</v>
+        <v>0.79491999999999996</v>
       </c>
       <c r="D92">
-        <v>0.81020999999999999</v>
+        <v>0.79727999999999999</v>
       </c>
       <c r="E92">
-        <v>0.79074999999999995</v>
+        <v>0.77986</v>
       </c>
       <c r="F92">
-        <v>0.79579999999999995</v>
+        <v>0.78373999999999999</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>1.0240000000000027</v>
+        <v>1.9460000000000033</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2865,23 +2863,23 @@
         <v>9</v>
       </c>
       <c r="B93" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C93">
-        <v>0.80506</v>
+        <v>0.79918999999999996</v>
       </c>
       <c r="D93">
-        <v>0.80576000000000003</v>
+        <v>0.81020999999999999</v>
       </c>
       <c r="E93">
-        <v>0.79552</v>
+        <v>0.79074999999999995</v>
       </c>
       <c r="F93">
-        <v>0.80006999999999995</v>
+        <v>0.79579999999999995</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>1.8490000000000006</v>
+        <v>1.0240000000000027</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2889,23 +2887,23 @@
         <v>9</v>
       </c>
       <c r="B94" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C94">
-        <v>0.79459999999999997</v>
+        <v>0.80506</v>
       </c>
       <c r="D94">
-        <v>0.81242000000000003</v>
+        <v>0.80576000000000003</v>
       </c>
       <c r="E94">
-        <v>0.79393000000000002</v>
+        <v>0.79552</v>
       </c>
       <c r="F94">
-        <v>0.80552999999999997</v>
+        <v>0.80006999999999995</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>1.2620000000000076</v>
+        <v>1.8490000000000006</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2913,23 +2911,23 @@
         <v>9</v>
       </c>
       <c r="B95" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C95">
-        <v>0.79290000000000005</v>
+        <v>0.79459999999999997</v>
       </c>
       <c r="D95">
-        <v>0.79949000000000003</v>
+        <v>0.81242000000000003</v>
       </c>
       <c r="E95">
-        <v>0.78686999999999996</v>
+        <v>0.79393000000000002</v>
       </c>
       <c r="F95">
-        <v>0.79657999999999995</v>
+        <v>0.80552999999999997</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>0.878000000000001</v>
+        <v>1.2620000000000076</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2937,23 +2935,23 @@
         <v>9</v>
       </c>
       <c r="B96" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C96">
-        <v>0.79227000000000003</v>
+        <v>0.79290000000000005</v>
       </c>
       <c r="D96">
-        <v>0.79535999999999996</v>
+        <v>0.79949000000000003</v>
       </c>
       <c r="E96">
-        <v>0.78657999999999995</v>
+        <v>0.78686999999999996</v>
       </c>
       <c r="F96">
-        <v>0.79344999999999999</v>
+        <v>0.79657999999999995</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>1.5479999999999938</v>
+        <v>0.878000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2961,23 +2959,23 @@
         <v>9</v>
       </c>
       <c r="B97" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C97">
-        <v>0.78866000000000003</v>
+        <v>0.79227000000000003</v>
       </c>
       <c r="D97">
-        <v>0.79618999999999995</v>
+        <v>0.79535999999999996</v>
       </c>
       <c r="E97">
-        <v>0.78071000000000002</v>
+        <v>0.78657999999999995</v>
       </c>
       <c r="F97">
-        <v>0.79315000000000002</v>
+        <v>0.79344999999999999</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>1.0929999999999995</v>
+        <v>1.5479999999999938</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2985,23 +2983,23 @@
         <v>9</v>
       </c>
       <c r="B98" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C98">
-        <v>0.79239000000000004</v>
+        <v>0.78866000000000003</v>
       </c>
       <c r="D98">
-        <v>0.79476999999999998</v>
+        <v>0.79618999999999995</v>
       </c>
       <c r="E98">
-        <v>0.78383999999999998</v>
+        <v>0.78071000000000002</v>
       </c>
       <c r="F98">
-        <v>0.78922000000000003</v>
+        <v>0.79315000000000002</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>1.5159999999999951</v>
+        <v>1.0929999999999995</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3009,23 +3007,23 @@
         <v>9</v>
       </c>
       <c r="B99" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C99">
-        <v>0.79784999999999995</v>
+        <v>0.79239000000000004</v>
       </c>
       <c r="D99">
-        <v>0.80420999999999998</v>
+        <v>0.79476999999999998</v>
       </c>
       <c r="E99">
-        <v>0.78905000000000003</v>
+        <v>0.78383999999999998</v>
       </c>
       <c r="F99">
-        <v>0.79290000000000005</v>
+        <v>0.78922000000000003</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>1.8769999999999953</v>
+        <v>1.5159999999999951</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3033,23 +3031,23 @@
         <v>9</v>
       </c>
       <c r="B100" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C100">
-        <v>0.79066999999999998</v>
+        <v>0.79784999999999995</v>
       </c>
       <c r="D100">
-        <v>0.80647999999999997</v>
+        <v>0.80420999999999998</v>
       </c>
       <c r="E100">
-        <v>0.78771000000000002</v>
+        <v>0.78905000000000003</v>
       </c>
       <c r="F100">
-        <v>0.79871999999999999</v>
+        <v>0.79290000000000005</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>2.0009999999999972</v>
+        <v>1.8769999999999953</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3057,23 +3055,23 @@
         <v>9</v>
       </c>
       <c r="B101" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C101">
-        <v>0.78200000000000003</v>
+        <v>0.79066999999999998</v>
       </c>
       <c r="D101">
-        <v>0.79857</v>
+        <v>0.80647999999999997</v>
       </c>
       <c r="E101">
-        <v>0.77856000000000003</v>
+        <v>0.78771000000000002</v>
       </c>
       <c r="F101">
-        <v>0.79171999999999998</v>
+        <v>0.79871999999999999</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>2.4769999999999959</v>
+        <v>2.0009999999999972</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3081,23 +3079,23 @@
         <v>9</v>
       </c>
       <c r="B102" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C102">
-        <v>0.75924000000000003</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="D102">
-        <v>0.78332999999999997</v>
+        <v>0.79857</v>
       </c>
       <c r="E102">
-        <v>0.75856000000000001</v>
+        <v>0.77856000000000003</v>
       </c>
       <c r="F102">
-        <v>0.78276999999999997</v>
+        <v>0.79171999999999998</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>1.2429999999999941</v>
+        <v>2.4769999999999959</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3105,23 +3103,23 @@
         <v>9</v>
       </c>
       <c r="B103" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C103">
-        <v>0.76751999999999998</v>
+        <v>0.75924000000000003</v>
       </c>
       <c r="D103">
-        <v>0.76946999999999999</v>
+        <v>0.78332999999999997</v>
       </c>
       <c r="E103">
-        <v>0.75704000000000005</v>
+        <v>0.75856000000000001</v>
       </c>
       <c r="F103">
-        <v>0.76002999999999998</v>
+        <v>0.78276999999999997</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>1.5199999999999991</v>
+        <v>1.2429999999999941</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3129,23 +3127,23 @@
         <v>9</v>
       </c>
       <c r="B104" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C104">
-        <v>0.75614000000000003</v>
+        <v>0.76751999999999998</v>
       </c>
       <c r="D104">
-        <v>0.77115999999999996</v>
+        <v>0.76946999999999999</v>
       </c>
       <c r="E104">
-        <v>0.75595999999999997</v>
+        <v>0.75704000000000005</v>
       </c>
       <c r="F104">
-        <v>0.76876999999999995</v>
+        <v>0.76002999999999998</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>0.9380000000000055</v>
+        <v>1.5199999999999991</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3153,23 +3151,23 @@
         <v>9</v>
       </c>
       <c r="B105" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C105">
-        <v>0.76168999999999998</v>
+        <v>0.75614000000000003</v>
       </c>
       <c r="D105">
-        <v>0.76282000000000005</v>
+        <v>0.77115999999999996</v>
       </c>
       <c r="E105">
-        <v>0.75344</v>
+        <v>0.75595999999999997</v>
       </c>
       <c r="F105">
-        <v>0.75687000000000004</v>
+        <v>0.76876999999999995</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>1.1369999999999991</v>
+        <v>0.9380000000000055</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3177,23 +3175,23 @@
         <v>9</v>
       </c>
       <c r="B106" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C106">
-        <v>0.75270999999999999</v>
+        <v>0.76168999999999998</v>
       </c>
       <c r="D106">
-        <v>0.76346999999999998</v>
+        <v>0.76282000000000005</v>
       </c>
       <c r="E106">
-        <v>0.75209999999999999</v>
+        <v>0.75344</v>
       </c>
       <c r="F106">
-        <v>0.76209000000000005</v>
+        <v>0.75687000000000004</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>1.4440000000000008</v>
+        <v>1.1369999999999991</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3201,23 +3199,23 @@
         <v>9</v>
       </c>
       <c r="B107" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C107">
-        <v>0.74268999999999996</v>
+        <v>0.75270999999999999</v>
       </c>
       <c r="D107">
-        <v>0.75658000000000003</v>
+        <v>0.76346999999999998</v>
       </c>
       <c r="E107">
-        <v>0.74214000000000002</v>
+        <v>0.75209999999999999</v>
       </c>
       <c r="F107">
-        <v>0.75295000000000001</v>
+        <v>0.76209000000000005</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>1.0660000000000003</v>
+        <v>1.4440000000000008</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3225,23 +3223,23 @@
         <v>9</v>
       </c>
       <c r="B108" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C108">
-        <v>0.74346000000000001</v>
+        <v>0.74268999999999996</v>
       </c>
       <c r="D108">
-        <v>0.74750000000000005</v>
+        <v>0.75658000000000003</v>
       </c>
       <c r="E108">
-        <v>0.73684000000000005</v>
+        <v>0.74214000000000002</v>
       </c>
       <c r="F108">
-        <v>0.74436999999999998</v>
+        <v>0.75295000000000001</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>0.95100000000000184</v>
+        <v>1.0660000000000003</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3249,23 +3247,23 @@
         <v>9</v>
       </c>
       <c r="B109" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C109">
-        <v>0.74422999999999995</v>
+        <v>0.74346000000000001</v>
       </c>
       <c r="D109">
-        <v>0.75163999999999997</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="E109">
-        <v>0.74212999999999996</v>
+        <v>0.73684000000000005</v>
       </c>
       <c r="F109">
-        <v>0.74441000000000002</v>
+        <v>0.74436999999999998</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>0.85000000000000631</v>
+        <v>0.95100000000000184</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3273,23 +3271,23 @@
         <v>9</v>
       </c>
       <c r="B110" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C110">
-        <v>0.73892999999999998</v>
+        <v>0.74422999999999995</v>
       </c>
       <c r="D110">
-        <v>0.74690000000000001</v>
+        <v>0.75163999999999997</v>
       </c>
       <c r="E110">
-        <v>0.73839999999999995</v>
+        <v>0.74212999999999996</v>
       </c>
       <c r="F110">
-        <v>0.74565000000000003</v>
+        <v>0.74441000000000002</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>0.95499999999999474</v>
+        <v>0.85000000000000631</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3297,23 +3295,23 @@
         <v>9</v>
       </c>
       <c r="B111" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C111">
-        <v>0.74063000000000001</v>
+        <v>0.73892999999999998</v>
       </c>
       <c r="D111">
-        <v>0.74236999999999997</v>
+        <v>0.74690000000000001</v>
       </c>
       <c r="E111">
-        <v>0.73282000000000003</v>
+        <v>0.73839999999999995</v>
       </c>
       <c r="F111">
-        <v>0.73889000000000005</v>
+        <v>0.74565000000000003</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>1.8850000000000033</v>
+        <v>0.95499999999999474</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3321,23 +3319,23 @@
         <v>9</v>
       </c>
       <c r="B112" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C112">
-        <v>0.74783999999999995</v>
+        <v>0.74063000000000001</v>
       </c>
       <c r="D112">
-        <v>0.75553000000000003</v>
+        <v>0.74236999999999997</v>
       </c>
       <c r="E112">
-        <v>0.73668</v>
+        <v>0.73282000000000003</v>
       </c>
       <c r="F112">
-        <v>0.74177000000000004</v>
+        <v>0.73889000000000005</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>1.4440000000000008</v>
+        <v>1.8850000000000033</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3345,23 +3343,23 @@
         <v>9</v>
       </c>
       <c r="B113" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C113">
-        <v>0.75627999999999995</v>
+        <v>0.74783999999999995</v>
       </c>
       <c r="D113">
-        <v>0.75836999999999999</v>
+        <v>0.75553000000000003</v>
       </c>
       <c r="E113">
-        <v>0.74392999999999998</v>
+        <v>0.73668</v>
       </c>
       <c r="F113">
-        <v>0.74875000000000003</v>
+        <v>0.74177000000000004</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>1.1960000000000082</v>
+        <v>1.4440000000000008</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3369,23 +3367,23 @@
         <v>9</v>
       </c>
       <c r="B114" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C114">
-        <v>0.75727</v>
+        <v>0.75627999999999995</v>
       </c>
       <c r="D114">
-        <v>0.76099000000000006</v>
+        <v>0.75836999999999999</v>
       </c>
       <c r="E114">
-        <v>0.74902999999999997</v>
+        <v>0.74392999999999998</v>
       </c>
       <c r="F114">
-        <v>0.75410999999999995</v>
+        <v>0.74875000000000003</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>1.2279999999999958</v>
+        <v>1.1960000000000082</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3393,23 +3391,23 @@
         <v>9</v>
       </c>
       <c r="B115" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C115">
-        <v>0.74934999999999996</v>
+        <v>0.75727</v>
       </c>
       <c r="D115">
-        <v>0.75949</v>
+        <v>0.76099000000000006</v>
       </c>
       <c r="E115">
-        <v>0.74721000000000004</v>
+        <v>0.74902999999999997</v>
       </c>
       <c r="F115">
-        <v>0.75749</v>
+        <v>0.75410999999999995</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>1.4639999999999986</v>
+        <v>1.2279999999999958</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3417,23 +3415,23 @@
         <v>9</v>
       </c>
       <c r="B116" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C116">
-        <v>0.76273000000000002</v>
+        <v>0.74934999999999996</v>
       </c>
       <c r="D116">
-        <v>0.76395999999999997</v>
+        <v>0.75949</v>
       </c>
       <c r="E116">
-        <v>0.74931999999999999</v>
+        <v>0.74721000000000004</v>
       </c>
       <c r="F116">
-        <v>0.75022</v>
+        <v>0.75749</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>0.92100000000000515</v>
+        <v>1.4639999999999986</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3441,23 +3439,23 @@
         <v>9</v>
       </c>
       <c r="B117" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C117">
-        <v>0.76283000000000001</v>
+        <v>0.76273000000000002</v>
       </c>
       <c r="D117">
-        <v>0.76787000000000005</v>
+        <v>0.76395999999999997</v>
       </c>
       <c r="E117">
-        <v>0.75866</v>
+        <v>0.74931999999999999</v>
       </c>
       <c r="F117">
-        <v>0.76324999999999998</v>
+        <v>0.75022</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>1.4569999999999972</v>
+        <v>0.92100000000000515</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3465,23 +3463,23 @@
         <v>9</v>
       </c>
       <c r="B118" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C118">
-        <v>0.76948000000000005</v>
+        <v>0.76283000000000001</v>
       </c>
       <c r="D118">
-        <v>0.77488999999999997</v>
+        <v>0.76787000000000005</v>
       </c>
       <c r="E118">
-        <v>0.76032</v>
+        <v>0.75866</v>
       </c>
       <c r="F118">
-        <v>0.76236999999999999</v>
+        <v>0.76324999999999998</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>1.8540000000000001</v>
+        <v>1.4569999999999972</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3489,23 +3487,23 @@
         <v>9</v>
       </c>
       <c r="B119" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C119">
-        <v>0.75424999999999998</v>
+        <v>0.76948000000000005</v>
       </c>
       <c r="D119">
-        <v>0.77185000000000004</v>
+        <v>0.77488999999999997</v>
       </c>
       <c r="E119">
-        <v>0.75331000000000004</v>
+        <v>0.76032</v>
       </c>
       <c r="F119">
-        <v>0.7702</v>
+        <v>0.76236999999999999</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>1.4140000000000041</v>
+        <v>1.8540000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3513,23 +3511,23 @@
         <v>9</v>
       </c>
       <c r="B120" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C120">
-        <v>0.75839000000000001</v>
+        <v>0.75424999999999998</v>
       </c>
       <c r="D120">
-        <v>0.76319999999999999</v>
+        <v>0.77185000000000004</v>
       </c>
       <c r="E120">
-        <v>0.74905999999999995</v>
+        <v>0.75331000000000004</v>
       </c>
       <c r="F120">
-        <v>0.75453999999999999</v>
+        <v>0.7702</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>1.6470000000000096</v>
+        <v>1.4140000000000041</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3537,23 +3535,23 @@
         <v>9</v>
       </c>
       <c r="B121" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C121">
-        <v>0.76766999999999996</v>
+        <v>0.75839000000000001</v>
       </c>
       <c r="D121">
-        <v>0.77070000000000005</v>
+        <v>0.76319999999999999</v>
       </c>
       <c r="E121">
-        <v>0.75422999999999996</v>
+        <v>0.74905999999999995</v>
       </c>
       <c r="F121">
-        <v>0.75915999999999995</v>
+        <v>0.75453999999999999</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>0.91099999999999515</v>
+        <v>1.6470000000000096</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3561,23 +3559,23 @@
         <v>9</v>
       </c>
       <c r="B122" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C122">
-        <v>0.76688000000000001</v>
+        <v>0.76766999999999996</v>
       </c>
       <c r="D122">
-        <v>0.77398999999999996</v>
+        <v>0.77070000000000005</v>
       </c>
       <c r="E122">
-        <v>0.76488</v>
+        <v>0.75422999999999996</v>
       </c>
       <c r="F122">
-        <v>0.76700000000000002</v>
+        <v>0.75915999999999995</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>1.1419999999999986</v>
+        <v>0.91099999999999515</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3585,23 +3583,23 @@
         <v>9</v>
       </c>
       <c r="B123" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C123">
-        <v>0.76758000000000004</v>
+        <v>0.76688000000000001</v>
       </c>
       <c r="D123">
-        <v>0.77315</v>
+        <v>0.77398999999999996</v>
       </c>
       <c r="E123">
-        <v>0.76173000000000002</v>
+        <v>0.76488</v>
       </c>
       <c r="F123">
-        <v>0.76671</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>0.82800000000000651</v>
+        <v>1.1419999999999986</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3609,23 +3607,23 @@
         <v>9</v>
       </c>
       <c r="B124" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C124">
-        <v>0.76717999999999997</v>
+        <v>0.76758000000000004</v>
       </c>
       <c r="D124">
-        <v>0.76880000000000004</v>
+        <v>0.77315</v>
       </c>
       <c r="E124">
-        <v>0.76051999999999997</v>
+        <v>0.76173000000000002</v>
       </c>
       <c r="F124">
-        <v>0.76724999999999999</v>
+        <v>0.76671</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>1.6839999999999966</v>
+        <v>0.82800000000000651</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3633,23 +3631,23 @@
         <v>9</v>
       </c>
       <c r="B125" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C125">
-        <v>0.75570999999999999</v>
+        <v>0.76717999999999997</v>
       </c>
       <c r="D125">
-        <v>0.76954</v>
+        <v>0.76880000000000004</v>
       </c>
       <c r="E125">
-        <v>0.75270000000000004</v>
+        <v>0.76051999999999997</v>
       </c>
       <c r="F125">
-        <v>0.76766000000000001</v>
+        <v>0.76724999999999999</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>0.97500000000000364</v>
+        <v>1.6839999999999966</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3657,23 +3655,23 @@
         <v>9</v>
       </c>
       <c r="B126" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C126">
-        <v>0.75461</v>
+        <v>0.75570999999999999</v>
       </c>
       <c r="D126">
-        <v>0.76082000000000005</v>
+        <v>0.76954</v>
       </c>
       <c r="E126">
-        <v>0.75107000000000002</v>
+        <v>0.75270000000000004</v>
       </c>
       <c r="F126">
-        <v>0.75451999999999997</v>
+        <v>0.76766000000000001</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>1.3070000000000026</v>
+        <v>0.97500000000000364</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3681,23 +3679,23 @@
         <v>9</v>
       </c>
       <c r="B127" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C127">
-        <v>0.74709999999999999</v>
+        <v>0.75461</v>
       </c>
       <c r="D127">
-        <v>0.75880999999999998</v>
+        <v>0.76082000000000005</v>
       </c>
       <c r="E127">
-        <v>0.74573999999999996</v>
+        <v>0.75107000000000002</v>
       </c>
       <c r="F127">
-        <v>0.75544</v>
+        <v>0.75451999999999997</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>2.3010000000000086</v>
+        <v>1.3070000000000026</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3705,23 +3703,23 @@
         <v>9</v>
       </c>
       <c r="B128" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C128">
-        <v>0.72916999999999998</v>
+        <v>0.74709999999999999</v>
       </c>
       <c r="D128">
-        <v>0.75177000000000005</v>
+        <v>0.75880999999999998</v>
       </c>
       <c r="E128">
-        <v>0.72875999999999996</v>
+        <v>0.74573999999999996</v>
       </c>
       <c r="F128">
-        <v>0.75016000000000005</v>
+        <v>0.75544</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>1.7930000000000001</v>
+        <v>2.3010000000000086</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3729,23 +3727,23 @@
         <v>9</v>
       </c>
       <c r="B129" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C129">
-        <v>0.7177</v>
+        <v>0.72916999999999998</v>
       </c>
       <c r="D129">
-        <v>0.73560999999999999</v>
+        <v>0.75177000000000005</v>
       </c>
       <c r="E129">
-        <v>0.71767999999999998</v>
+        <v>0.72875999999999996</v>
       </c>
       <c r="F129">
-        <v>0.72940000000000005</v>
+        <v>0.75016000000000005</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>0.94800000000000439</v>
+        <v>1.7930000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3753,23 +3751,23 @@
         <v>9</v>
       </c>
       <c r="B130" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C130">
-        <v>0.71531999999999996</v>
+        <v>0.7177</v>
       </c>
       <c r="D130">
-        <v>0.72460000000000002</v>
+        <v>0.73560999999999999</v>
       </c>
       <c r="E130">
-        <v>0.71511999999999998</v>
+        <v>0.71767999999999998</v>
       </c>
       <c r="F130">
-        <v>0.72065000000000001</v>
+        <v>0.72940000000000005</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>1.5290000000000026</v>
+        <v>0.94800000000000439</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3777,23 +3775,23 @@
         <v>9</v>
       </c>
       <c r="B131" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C131">
-        <v>0.72782999999999998</v>
+        <v>0.71531999999999996</v>
       </c>
       <c r="D131">
-        <v>0.73121999999999998</v>
+        <v>0.72460000000000002</v>
       </c>
       <c r="E131">
-        <v>0.71592999999999996</v>
+        <v>0.71511999999999998</v>
       </c>
       <c r="F131">
-        <v>0.71763999999999994</v>
+        <v>0.72065000000000001</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>2.5859999999999994</v>
+        <v>1.5290000000000026</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3801,23 +3799,23 @@
         <v>9</v>
       </c>
       <c r="B132" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C132">
-        <v>0.74422999999999995</v>
+        <v>0.72782999999999998</v>
       </c>
       <c r="D132">
-        <v>0.75239999999999996</v>
+        <v>0.73121999999999998</v>
       </c>
       <c r="E132">
-        <v>0.72653999999999996</v>
+        <v>0.71592999999999996</v>
       </c>
       <c r="F132">
-        <v>0.72962000000000005</v>
+        <v>0.71763999999999994</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>0.97300000000000164</v>
+        <v>2.5859999999999994</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3825,23 +3823,23 @@
         <v>9</v>
       </c>
       <c r="B133" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C133">
-        <v>0.74483999999999995</v>
+        <v>0.74422999999999995</v>
       </c>
       <c r="D133">
-        <v>0.75072000000000005</v>
+        <v>0.75239999999999996</v>
       </c>
       <c r="E133">
-        <v>0.74099000000000004</v>
+        <v>0.72653999999999996</v>
       </c>
       <c r="F133">
-        <v>0.74485999999999997</v>
+        <v>0.72962000000000005</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>1.2739999999999974</v>
+        <v>0.97300000000000164</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3849,23 +3847,23 @@
         <v>9</v>
       </c>
       <c r="B134" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C134">
-        <v>0.74397000000000002</v>
+        <v>0.74483999999999995</v>
       </c>
       <c r="D134">
-        <v>0.74968000000000001</v>
+        <v>0.75072000000000005</v>
       </c>
       <c r="E134">
-        <v>0.73694000000000004</v>
+        <v>0.74099000000000004</v>
       </c>
       <c r="F134">
-        <v>0.74577000000000004</v>
+        <v>0.74485999999999997</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>1.5720000000000067</v>
+        <v>1.2739999999999974</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3873,23 +3871,23 @@
         <v>9</v>
       </c>
       <c r="B135" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C135">
-        <v>0.73265000000000002</v>
+        <v>0.74397000000000002</v>
       </c>
       <c r="D135">
-        <v>0.74675000000000002</v>
+        <v>0.74968000000000001</v>
       </c>
       <c r="E135">
-        <v>0.73102999999999996</v>
+        <v>0.73694000000000004</v>
       </c>
       <c r="F135">
-        <v>0.74339</v>
+        <v>0.74577000000000004</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>2.5100000000000011</v>
+        <v>1.5720000000000067</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3897,23 +3895,23 @@
         <v>9</v>
       </c>
       <c r="B136" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C136">
-        <v>0.75412999999999997</v>
+        <v>0.73265000000000002</v>
       </c>
       <c r="D136">
-        <v>0.75805999999999996</v>
+        <v>0.74675000000000002</v>
       </c>
       <c r="E136">
-        <v>0.73295999999999994</v>
+        <v>0.73102999999999996</v>
       </c>
       <c r="F136">
-        <v>0.73390999999999995</v>
+        <v>0.74339</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>2.5270000000000015</v>
+        <v>2.5100000000000011</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3921,23 +3919,23 @@
         <v>9</v>
       </c>
       <c r="B137" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C137">
-        <v>0.76704000000000006</v>
+        <v>0.75412999999999997</v>
       </c>
       <c r="D137">
-        <v>0.77771999999999997</v>
+        <v>0.75805999999999996</v>
       </c>
       <c r="E137">
-        <v>0.75244999999999995</v>
+        <v>0.73295999999999994</v>
       </c>
       <c r="F137">
-        <v>0.75505999999999995</v>
+        <v>0.73390999999999995</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>1.1319999999999997</v>
+        <v>2.5270000000000015</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3945,23 +3943,23 @@
         <v>9</v>
       </c>
       <c r="B138" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C138">
-        <v>0.75932999999999995</v>
+        <v>0.76704000000000006</v>
       </c>
       <c r="D138">
-        <v>0.76956999999999998</v>
+        <v>0.77771999999999997</v>
       </c>
       <c r="E138">
-        <v>0.75824999999999998</v>
+        <v>0.75244999999999995</v>
       </c>
       <c r="F138">
-        <v>0.76776</v>
+        <v>0.75505999999999995</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>1.5449999999999964</v>
+        <v>1.1319999999999997</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3969,23 +3967,23 @@
         <v>9</v>
       </c>
       <c r="B139" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C139">
-        <v>0.76</v>
+        <v>0.75932999999999995</v>
       </c>
       <c r="D139">
-        <v>0.77081</v>
+        <v>0.76956999999999998</v>
       </c>
       <c r="E139">
-        <v>0.75536000000000003</v>
+        <v>0.75824999999999998</v>
       </c>
       <c r="F139">
-        <v>0.75963000000000003</v>
+        <v>0.76776</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>1.5339999999999909</v>
+        <v>1.5449999999999964</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3993,23 +3991,23 @@
         <v>9</v>
       </c>
       <c r="B140" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C140">
-        <v>0.76132</v>
+        <v>0.76</v>
       </c>
       <c r="D140">
-        <v>0.77337999999999996</v>
+        <v>0.77081</v>
       </c>
       <c r="E140">
-        <v>0.75804000000000005</v>
+        <v>0.75536000000000003</v>
       </c>
       <c r="F140">
-        <v>0.76032999999999995</v>
+        <v>0.75963000000000003</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>1.4100000000000001</v>
+        <v>1.5339999999999909</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4017,23 +4015,23 @@
         <v>9</v>
       </c>
       <c r="B141" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C141">
-        <v>0.75856000000000001</v>
+        <v>0.76132</v>
       </c>
       <c r="D141">
-        <v>0.76468000000000003</v>
+        <v>0.77337999999999996</v>
       </c>
       <c r="E141">
-        <v>0.75058000000000002</v>
+        <v>0.75804000000000005</v>
       </c>
       <c r="F141">
-        <v>0.76115999999999995</v>
+        <v>0.76032999999999995</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>1.3789999999999969</v>
+        <v>1.4100000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4041,23 +4039,23 @@
         <v>9</v>
       </c>
       <c r="B142" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C142">
-        <v>0.76563999999999999</v>
+        <v>0.75856000000000001</v>
       </c>
       <c r="D142">
-        <v>0.76902999999999999</v>
+        <v>0.76468000000000003</v>
       </c>
       <c r="E142">
-        <v>0.75524000000000002</v>
+        <v>0.75058000000000002</v>
       </c>
       <c r="F142">
-        <v>0.75838000000000005</v>
+        <v>0.76115999999999995</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>1.2029999999999985</v>
+        <v>1.3789999999999969</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4065,23 +4063,23 @@
         <v>9</v>
       </c>
       <c r="B143" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C143">
-        <v>0.76110999999999995</v>
+        <v>0.76563999999999999</v>
       </c>
       <c r="D143">
-        <v>0.77093</v>
+        <v>0.76902999999999999</v>
       </c>
       <c r="E143">
-        <v>0.75890000000000002</v>
+        <v>0.75524000000000002</v>
       </c>
       <c r="F143">
-        <v>0.76578999999999997</v>
+        <v>0.75838000000000005</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>1.9509999999999916</v>
+        <v>1.2029999999999985</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4089,23 +4087,23 @@
         <v>9</v>
       </c>
       <c r="B144" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C144">
-        <v>0.74789000000000005</v>
+        <v>0.76110999999999995</v>
       </c>
       <c r="D144">
-        <v>0.76739999999999997</v>
+        <v>0.77093</v>
       </c>
       <c r="E144">
-        <v>0.74789000000000005</v>
+        <v>0.75890000000000002</v>
       </c>
       <c r="F144">
-        <v>0.76232</v>
+        <v>0.76578999999999997</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>1.258999999999999</v>
+        <v>1.9509999999999916</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4113,23 +4111,23 @@
         <v>9</v>
       </c>
       <c r="B145" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C145">
-        <v>0.75371999999999995</v>
+        <v>0.74789000000000005</v>
       </c>
       <c r="D145">
-        <v>0.75670999999999999</v>
+        <v>0.76739999999999997</v>
       </c>
       <c r="E145">
-        <v>0.74412</v>
+        <v>0.74789000000000005</v>
       </c>
       <c r="F145">
-        <v>0.74914000000000003</v>
+        <v>0.76232</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>1.9469999999999987</v>
+        <v>1.258999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4137,23 +4135,23 @@
         <v>9</v>
       </c>
       <c r="B146" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C146">
-        <v>0.75682000000000005</v>
+        <v>0.75371999999999995</v>
       </c>
       <c r="D146">
-        <v>0.77315</v>
+        <v>0.75670999999999999</v>
       </c>
       <c r="E146">
-        <v>0.75368000000000002</v>
+        <v>0.74412</v>
       </c>
       <c r="F146">
-        <v>0.75392000000000003</v>
+        <v>0.74914000000000003</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>1.256999999999997</v>
+        <v>1.9469999999999987</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4161,23 +4159,23 @@
         <v>9</v>
       </c>
       <c r="B147" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C147">
-        <v>0.75485999999999998</v>
+        <v>0.75682000000000005</v>
       </c>
       <c r="D147">
-        <v>0.76149999999999995</v>
+        <v>0.77315</v>
       </c>
       <c r="E147">
-        <v>0.74892999999999998</v>
+        <v>0.75368000000000002</v>
       </c>
       <c r="F147">
-        <v>0.75678999999999996</v>
+        <v>0.75392000000000003</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>1.4009999999999967</v>
+        <v>1.256999999999997</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4185,23 +4183,23 @@
         <v>9</v>
       </c>
       <c r="B148" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C148">
-        <v>0.76068000000000002</v>
+        <v>0.75485999999999998</v>
       </c>
       <c r="D148">
-        <v>0.76905999999999997</v>
+        <v>0.76149999999999995</v>
       </c>
       <c r="E148">
-        <v>0.75505</v>
+        <v>0.74892999999999998</v>
       </c>
       <c r="F148">
-        <v>0.75619000000000003</v>
+        <v>0.75678999999999996</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>1.5029999999999988</v>
+        <v>1.4009999999999967</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4209,23 +4207,23 @@
         <v>9</v>
       </c>
       <c r="B149" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C149">
-        <v>0.76515999999999995</v>
+        <v>0.76068000000000002</v>
       </c>
       <c r="D149">
-        <v>0.77485999999999999</v>
+        <v>0.76905999999999997</v>
       </c>
       <c r="E149">
-        <v>0.75983000000000001</v>
+        <v>0.75505</v>
       </c>
       <c r="F149">
-        <v>0.76234000000000002</v>
+        <v>0.75619000000000003</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>1.5830000000000011</v>
+        <v>1.5029999999999988</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4233,23 +4231,23 @@
         <v>9</v>
       </c>
       <c r="B150" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C150">
-        <v>0.75995000000000001</v>
+        <v>0.76515999999999995</v>
       </c>
       <c r="D150">
-        <v>0.77551000000000003</v>
+        <v>0.77485999999999999</v>
       </c>
       <c r="E150">
-        <v>0.75968000000000002</v>
+        <v>0.75983000000000001</v>
       </c>
       <c r="F150">
-        <v>0.76476999999999995</v>
+        <v>0.76234000000000002</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>1.8299999999999983</v>
+        <v>1.5830000000000011</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4257,23 +4255,23 @@
         <v>9</v>
       </c>
       <c r="B151" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C151">
-        <v>0.75919999999999999</v>
+        <v>0.75995000000000001</v>
       </c>
       <c r="D151">
-        <v>0.76632999999999996</v>
+        <v>0.77551000000000003</v>
       </c>
       <c r="E151">
-        <v>0.74802999999999997</v>
+        <v>0.75968000000000002</v>
       </c>
       <c r="F151">
-        <v>0.76185000000000003</v>
+        <v>0.76476999999999995</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>1.9390000000000018</v>
+        <v>1.8299999999999983</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4281,23 +4279,23 @@
         <v>9</v>
       </c>
       <c r="B152" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C152">
-        <v>0.74589000000000005</v>
+        <v>0.75919999999999999</v>
       </c>
       <c r="D152">
-        <v>0.76095000000000002</v>
+        <v>0.76632999999999996</v>
       </c>
       <c r="E152">
-        <v>0.74156</v>
+        <v>0.74802999999999997</v>
       </c>
       <c r="F152">
-        <v>0.76034000000000002</v>
+        <v>0.76185000000000003</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>1.6380000000000061</v>
+        <v>1.9390000000000018</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4305,23 +4303,23 @@
         <v>9</v>
       </c>
       <c r="B153" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C153">
-        <v>0.75890000000000002</v>
+        <v>0.74589000000000005</v>
       </c>
       <c r="D153">
-        <v>0.76058000000000003</v>
+        <v>0.76095000000000002</v>
       </c>
       <c r="E153">
-        <v>0.74419999999999997</v>
+        <v>0.74156</v>
       </c>
       <c r="F153">
-        <v>0.74678</v>
+        <v>0.76034000000000002</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>1.5429999999999944</v>
+        <v>1.6380000000000061</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4329,23 +4327,23 @@
         <v>9</v>
       </c>
       <c r="B154" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C154">
-        <v>0.75563999999999998</v>
+        <v>0.75890000000000002</v>
       </c>
       <c r="D154">
-        <v>0.76754999999999995</v>
+        <v>0.76058000000000003</v>
       </c>
       <c r="E154">
-        <v>0.75212000000000001</v>
+        <v>0.74419999999999997</v>
       </c>
       <c r="F154">
-        <v>0.7571</v>
+        <v>0.74678</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>1.6240000000000032</v>
+        <v>1.5429999999999944</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4353,23 +4351,23 @@
         <v>9</v>
       </c>
       <c r="B155" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C155">
-        <v>0.74536999999999998</v>
+        <v>0.75563999999999998</v>
       </c>
       <c r="D155">
-        <v>0.75697000000000003</v>
+        <v>0.76754999999999995</v>
       </c>
       <c r="E155">
-        <v>0.74073</v>
+        <v>0.75212000000000001</v>
       </c>
       <c r="F155">
-        <v>0.75683</v>
+        <v>0.7571</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>1.7850000000000033</v>
+        <v>1.6240000000000032</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4377,23 +4375,23 @@
         <v>9</v>
       </c>
       <c r="B156" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C156">
-        <v>0.74158000000000002</v>
+        <v>0.74536999999999998</v>
       </c>
       <c r="D156">
-        <v>0.75021000000000004</v>
+        <v>0.75697000000000003</v>
       </c>
       <c r="E156">
-        <v>0.73236000000000001</v>
+        <v>0.74073</v>
       </c>
       <c r="F156">
-        <v>0.74922999999999995</v>
+        <v>0.75683</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>3.7110000000000087</v>
+        <v>1.7850000000000033</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4401,23 +4399,23 @@
         <v>9</v>
       </c>
       <c r="B157" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C157">
-        <v>0.74233000000000005</v>
+        <v>0.74158000000000002</v>
       </c>
       <c r="D157">
-        <v>0.76409000000000005</v>
+        <v>0.75021000000000004</v>
       </c>
       <c r="E157">
-        <v>0.72697999999999996</v>
+        <v>0.73236000000000001</v>
       </c>
       <c r="F157">
-        <v>0.74687999999999999</v>
+        <v>0.74922999999999995</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>1.6110000000000069</v>
+        <v>3.7110000000000087</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4425,23 +4423,23 @@
         <v>9</v>
       </c>
       <c r="B158" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C158">
-        <v>0.73658999999999997</v>
+        <v>0.74233000000000005</v>
       </c>
       <c r="D158">
-        <v>0.74455000000000005</v>
+        <v>0.76409000000000005</v>
       </c>
       <c r="E158">
-        <v>0.72843999999999998</v>
+        <v>0.72697999999999996</v>
       </c>
       <c r="F158">
-        <v>0.73928000000000005</v>
+        <v>0.74687999999999999</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>1.8920000000000048</v>
+        <v>1.6110000000000069</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4449,23 +4447,23 @@
         <v>9</v>
       </c>
       <c r="B159" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C159">
-        <v>0.73577999999999999</v>
+        <v>0.73658999999999997</v>
       </c>
       <c r="D159">
-        <v>0.75039</v>
+        <v>0.74455000000000005</v>
       </c>
       <c r="E159">
-        <v>0.73146999999999995</v>
+        <v>0.72843999999999998</v>
       </c>
       <c r="F159">
-        <v>0.7379</v>
+        <v>0.73928000000000005</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>2.1880000000000011</v>
+        <v>1.8920000000000048</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4473,23 +4471,23 @@
         <v>9</v>
       </c>
       <c r="B160" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C160">
-        <v>0.71752000000000005</v>
+        <v>0.73577999999999999</v>
       </c>
       <c r="D160">
-        <v>0.73670000000000002</v>
+        <v>0.75039</v>
       </c>
       <c r="E160">
-        <v>0.71482000000000001</v>
+        <v>0.73146999999999995</v>
       </c>
       <c r="F160">
-        <v>0.73660999999999999</v>
+        <v>0.7379</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>1.146999999999998</v>
+        <v>2.1880000000000011</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4497,23 +4495,23 @@
         <v>9</v>
       </c>
       <c r="B161" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C161">
-        <v>0.72241</v>
+        <v>0.71752000000000005</v>
       </c>
       <c r="D161">
-        <v>0.72589000000000004</v>
+        <v>0.73670000000000002</v>
       </c>
       <c r="E161">
-        <v>0.71442000000000005</v>
+        <v>0.71482000000000001</v>
       </c>
       <c r="F161">
-        <v>0.71877000000000002</v>
+        <v>0.73660999999999999</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>1.9020000000000037</v>
+        <v>1.146999999999998</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4521,23 +4519,23 @@
         <v>9</v>
       </c>
       <c r="B162" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C162">
-        <v>0.72543999999999997</v>
+        <v>0.72241</v>
       </c>
       <c r="D162">
-        <v>0.73655999999999999</v>
+        <v>0.72589000000000004</v>
       </c>
       <c r="E162">
-        <v>0.71753999999999996</v>
+        <v>0.71442000000000005</v>
       </c>
       <c r="F162">
-        <v>0.72240000000000004</v>
+        <v>0.71877000000000002</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>1.4800000000000035</v>
+        <v>1.9020000000000037</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4545,23 +4543,23 @@
         <v>9</v>
       </c>
       <c r="B163" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C163">
-        <v>0.73597999999999997</v>
+        <v>0.72543999999999997</v>
       </c>
       <c r="D163">
-        <v>0.74012</v>
+        <v>0.73655999999999999</v>
       </c>
       <c r="E163">
-        <v>0.72531999999999996</v>
+        <v>0.71753999999999996</v>
       </c>
       <c r="F163">
-        <v>0.72672000000000003</v>
+        <v>0.72240000000000004</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>3.781000000000001</v>
+        <v>1.4800000000000035</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4569,23 +4567,23 @@
         <v>9</v>
       </c>
       <c r="B164" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C164">
-        <v>0.76029000000000002</v>
+        <v>0.73597999999999997</v>
       </c>
       <c r="D164">
-        <v>0.77149999999999996</v>
+        <v>0.74012</v>
       </c>
       <c r="E164">
-        <v>0.73368999999999995</v>
+        <v>0.72531999999999996</v>
       </c>
       <c r="F164">
-        <v>0.73675000000000002</v>
+        <v>0.72672000000000003</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>2.2089999999999943</v>
+        <v>3.781000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4593,23 +4591,23 @@
         <v>9</v>
       </c>
       <c r="B165" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C165">
-        <v>0.77027999999999996</v>
+        <v>0.76029000000000002</v>
       </c>
       <c r="D165">
-        <v>0.77646999999999999</v>
+        <v>0.77149999999999996</v>
       </c>
       <c r="E165">
-        <v>0.75438000000000005</v>
+        <v>0.73368999999999995</v>
       </c>
       <c r="F165">
-        <v>0.76056000000000001</v>
+        <v>0.73675000000000002</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>2.033000000000007</v>
+        <v>2.2089999999999943</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4617,23 +4615,23 @@
         <v>9</v>
       </c>
       <c r="B166" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C166">
-        <v>0.76593</v>
+        <v>0.77027999999999996</v>
       </c>
       <c r="D166">
-        <v>0.78339000000000003</v>
+        <v>0.77646999999999999</v>
       </c>
       <c r="E166">
-        <v>0.76305999999999996</v>
+        <v>0.75438000000000005</v>
       </c>
       <c r="F166">
-        <v>0.77087000000000006</v>
+        <v>0.76056000000000001</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>2.0869999999999944</v>
+        <v>2.033000000000007</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4641,23 +4639,23 @@
         <v>9</v>
       </c>
       <c r="B167" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C167">
-        <v>0.75429999999999997</v>
+        <v>0.76593</v>
       </c>
       <c r="D167">
-        <v>0.77359999999999995</v>
+        <v>0.78339000000000003</v>
       </c>
       <c r="E167">
-        <v>0.75273000000000001</v>
+        <v>0.76305999999999996</v>
       </c>
       <c r="F167">
-        <v>0.77193000000000001</v>
+        <v>0.77087000000000006</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>1.8600000000000061</v>
+        <v>2.0869999999999944</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4665,23 +4663,23 @@
         <v>9</v>
       </c>
       <c r="B168" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C168">
-        <v>0.76720999999999995</v>
+        <v>0.75429999999999997</v>
       </c>
       <c r="D168">
-        <v>0.76768000000000003</v>
+        <v>0.77359999999999995</v>
       </c>
       <c r="E168">
-        <v>0.74907999999999997</v>
+        <v>0.75273000000000001</v>
       </c>
       <c r="F168">
-        <v>0.75495000000000001</v>
+        <v>0.77193000000000001</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>2.2990000000000066</v>
+        <v>1.8600000000000061</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4689,23 +4687,23 @@
         <v>9</v>
       </c>
       <c r="B169" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C169">
-        <v>0.75000999999999995</v>
+        <v>0.76720999999999995</v>
       </c>
       <c r="D169">
-        <v>0.77222000000000002</v>
+        <v>0.76768000000000003</v>
       </c>
       <c r="E169">
-        <v>0.74922999999999995</v>
+        <v>0.74907999999999997</v>
       </c>
       <c r="F169">
-        <v>0.76803999999999994</v>
+        <v>0.75495000000000001</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>1.7140000000000044</v>
+        <v>2.2990000000000066</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4713,23 +4711,23 @@
         <v>9</v>
       </c>
       <c r="B170" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C170">
-        <v>0.75905</v>
+        <v>0.75000999999999995</v>
       </c>
       <c r="D170">
-        <v>0.76480000000000004</v>
+        <v>0.77222000000000002</v>
       </c>
       <c r="E170">
-        <v>0.74765999999999999</v>
+        <v>0.74922999999999995</v>
       </c>
       <c r="F170">
-        <v>0.75031999999999999</v>
+        <v>0.76803999999999994</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>2.6569999999999983</v>
+        <v>1.7140000000000044</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4737,23 +4735,23 @@
         <v>9</v>
       </c>
       <c r="B171" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C171">
-        <v>0.75449999999999995</v>
+        <v>0.75905</v>
       </c>
       <c r="D171">
-        <v>0.76795000000000002</v>
+        <v>0.76480000000000004</v>
       </c>
       <c r="E171">
-        <v>0.74138000000000004</v>
+        <v>0.74765999999999999</v>
       </c>
       <c r="F171">
-        <v>0.76026000000000005</v>
+        <v>0.75031999999999999</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>1.9070000000000031</v>
+        <v>2.6569999999999983</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4761,23 +4759,23 @@
         <v>9</v>
       </c>
       <c r="B172" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C172">
-        <v>0.73987999999999998</v>
+        <v>0.75449999999999995</v>
       </c>
       <c r="D172">
-        <v>0.75824999999999998</v>
+        <v>0.76795000000000002</v>
       </c>
       <c r="E172">
-        <v>0.73917999999999995</v>
+        <v>0.74138000000000004</v>
       </c>
       <c r="F172">
-        <v>0.75539999999999996</v>
+        <v>0.76026000000000005</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>3.3819999999999961</v>
+        <v>1.9070000000000031</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4785,23 +4783,23 @@
         <v>9</v>
       </c>
       <c r="B173" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C173">
-        <v>0.71155999999999997</v>
+        <v>0.73987999999999998</v>
       </c>
       <c r="D173">
-        <v>0.74424000000000001</v>
+        <v>0.75824999999999998</v>
       </c>
       <c r="E173">
-        <v>0.71042000000000005</v>
+        <v>0.73917999999999995</v>
       </c>
       <c r="F173">
-        <v>0.74333000000000005</v>
+        <v>0.75539999999999996</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>1.4089999999999936</v>
+        <v>3.3819999999999961</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4809,23 +4807,23 @@
         <v>9</v>
       </c>
       <c r="B174" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C174">
-        <v>0.71506000000000003</v>
+        <v>0.71155999999999997</v>
       </c>
       <c r="D174">
-        <v>0.72582999999999998</v>
+        <v>0.74424000000000001</v>
       </c>
       <c r="E174">
-        <v>0.71174000000000004</v>
+        <v>0.71042000000000005</v>
       </c>
       <c r="F174">
-        <v>0.71289000000000002</v>
+        <v>0.74333000000000005</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>1.1770000000000058</v>
+        <v>1.4089999999999936</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4833,23 +4831,23 @@
         <v>9</v>
       </c>
       <c r="B175" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C175">
-        <v>0.71013000000000004</v>
+        <v>0.71506000000000003</v>
       </c>
       <c r="D175">
-        <v>0.71860000000000002</v>
+        <v>0.72582999999999998</v>
       </c>
       <c r="E175">
-        <v>0.70682999999999996</v>
+        <v>0.71174000000000004</v>
       </c>
       <c r="F175">
-        <v>0.71484000000000003</v>
+        <v>0.71289000000000002</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>1.7590000000000106</v>
+        <v>1.1770000000000058</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4857,23 +4855,23 @@
         <v>9</v>
       </c>
       <c r="B176" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C176">
-        <v>0.70620000000000005</v>
+        <v>0.71013000000000004</v>
       </c>
       <c r="D176">
-        <v>0.71486000000000005</v>
+        <v>0.71860000000000002</v>
       </c>
       <c r="E176">
-        <v>0.69726999999999995</v>
+        <v>0.70682999999999996</v>
       </c>
       <c r="F176">
-        <v>0.71040999999999999</v>
+        <v>0.71484000000000003</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>2.3969999999999936</v>
+        <v>1.7590000000000106</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4881,23 +4879,23 @@
         <v>9</v>
       </c>
       <c r="B177" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C177">
-        <v>0.70735000000000003</v>
+        <v>0.70620000000000005</v>
       </c>
       <c r="D177">
-        <v>0.72419999999999995</v>
+        <v>0.71486000000000005</v>
       </c>
       <c r="E177">
-        <v>0.70023000000000002</v>
+        <v>0.69726999999999995</v>
       </c>
       <c r="F177">
-        <v>0.70723999999999998</v>
+        <v>0.71040999999999999</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>2.2179999999999978</v>
+        <v>2.3969999999999936</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4905,23 +4903,23 @@
         <v>9</v>
       </c>
       <c r="B178" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C178">
-        <v>0.69959000000000005</v>
+        <v>0.70735000000000003</v>
       </c>
       <c r="D178">
-        <v>0.71399999999999997</v>
+        <v>0.72419999999999995</v>
       </c>
       <c r="E178">
-        <v>0.69181999999999999</v>
+        <v>0.70023000000000002</v>
       </c>
       <c r="F178">
-        <v>0.70796999999999999</v>
+        <v>0.70723999999999998</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>2.1780000000000022</v>
+        <v>2.2179999999999978</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4929,23 +4927,23 @@
         <v>9</v>
       </c>
       <c r="B179" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C179">
-        <v>0.68283000000000005</v>
+        <v>0.69959000000000005</v>
       </c>
       <c r="D179">
-        <v>0.70452000000000004</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="E179">
-        <v>0.68274000000000001</v>
+        <v>0.69181999999999999</v>
       </c>
       <c r="F179">
-        <v>0.70030999999999999</v>
+        <v>0.70796999999999999</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>2.2139999999999938</v>
+        <v>2.1780000000000022</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4953,23 +4951,23 @@
         <v>9</v>
       </c>
       <c r="B180" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C180">
-        <v>0.69662000000000002</v>
+        <v>0.68283000000000005</v>
       </c>
       <c r="D180">
-        <v>0.70477999999999996</v>
+        <v>0.70452000000000004</v>
       </c>
       <c r="E180">
-        <v>0.68264000000000002</v>
+        <v>0.68274000000000001</v>
       </c>
       <c r="F180">
-        <v>0.68705000000000005</v>
+        <v>0.70030999999999999</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>3.3689999999999998</v>
+        <v>2.2139999999999938</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4977,23 +4975,23 @@
         <v>9</v>
       </c>
       <c r="B181" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C181">
-        <v>0.72765999999999997</v>
+        <v>0.69662000000000002</v>
       </c>
       <c r="D181">
-        <v>0.72989999999999999</v>
+        <v>0.70477999999999996</v>
       </c>
       <c r="E181">
-        <v>0.69621</v>
+        <v>0.68264000000000002</v>
       </c>
       <c r="F181">
-        <v>0.69655999999999996</v>
+        <v>0.68705000000000005</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>0.82400000000000251</v>
+        <v>3.3689999999999998</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -5001,23 +4999,23 @@
         <v>9</v>
       </c>
       <c r="B182" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C182">
-        <v>0.7268</v>
+        <v>0.72765999999999997</v>
       </c>
       <c r="D182">
-        <v>0.73267000000000004</v>
+        <v>0.72989999999999999</v>
       </c>
       <c r="E182">
-        <v>0.72443000000000002</v>
+        <v>0.69621</v>
       </c>
       <c r="F182">
-        <v>0.72809000000000001</v>
+        <v>0.69655999999999996</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>1.3170000000000015</v>
+        <v>0.82400000000000251</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5025,23 +5023,23 @@
         <v>9</v>
       </c>
       <c r="B183" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C183">
-        <v>0.71592</v>
+        <v>0.7268</v>
       </c>
       <c r="D183">
-        <v>0.72863</v>
+        <v>0.73267000000000004</v>
       </c>
       <c r="E183">
-        <v>0.71545999999999998</v>
+        <v>0.72443000000000002</v>
       </c>
       <c r="F183">
-        <v>0.72785</v>
+        <v>0.72809000000000001</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>1.8630000000000035</v>
+        <v>1.3170000000000015</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5049,23 +5047,23 @@
         <v>9</v>
       </c>
       <c r="B184" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C184">
-        <v>0.72009999999999996</v>
+        <v>0.71592</v>
       </c>
       <c r="D184">
-        <v>0.72824</v>
+        <v>0.72863</v>
       </c>
       <c r="E184">
-        <v>0.70960999999999996</v>
+        <v>0.71545999999999998</v>
       </c>
       <c r="F184">
-        <v>0.71733999999999998</v>
+        <v>0.72785</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>1.7079999999999984</v>
+        <v>1.8630000000000035</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5073,23 +5071,23 @@
         <v>9</v>
       </c>
       <c r="B185" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C185">
-        <v>0.73360999999999998</v>
+        <v>0.72009999999999996</v>
       </c>
       <c r="D185">
-        <v>0.73421999999999998</v>
+        <v>0.72824</v>
       </c>
       <c r="E185">
-        <v>0.71714</v>
+        <v>0.70960999999999996</v>
       </c>
       <c r="F185">
-        <v>0.71911000000000003</v>
+        <v>0.71733999999999998</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>2.1490000000000009</v>
+        <v>1.7079999999999984</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5097,23 +5095,23 @@
         <v>9</v>
       </c>
       <c r="B186" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C186">
-        <v>0.71879000000000004</v>
+        <v>0.73360999999999998</v>
       </c>
       <c r="D186">
-        <v>0.73845000000000005</v>
+        <v>0.73421999999999998</v>
       </c>
       <c r="E186">
-        <v>0.71696000000000004</v>
+        <v>0.71714</v>
       </c>
       <c r="F186">
-        <v>0.73357000000000006</v>
+        <v>0.71911000000000003</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>1.2369999999999992</v>
+        <v>2.1490000000000009</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5121,23 +5119,23 @@
         <v>9</v>
       </c>
       <c r="B187" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C187">
-        <v>0.72262999999999999</v>
+        <v>0.71879000000000004</v>
       </c>
       <c r="D187">
-        <v>0.72821000000000002</v>
+        <v>0.73845000000000005</v>
       </c>
       <c r="E187">
-        <v>0.71584000000000003</v>
+        <v>0.71696000000000004</v>
       </c>
       <c r="F187">
-        <v>0.71923999999999999</v>
+        <v>0.73357000000000006</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>1.8530000000000046</v>
+        <v>1.2369999999999992</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5145,23 +5143,23 @@
         <v>9</v>
       </c>
       <c r="B188" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C188">
-        <v>0.71120000000000005</v>
+        <v>0.72262999999999999</v>
       </c>
       <c r="D188">
-        <v>0.72496000000000005</v>
+        <v>0.72821000000000002</v>
       </c>
       <c r="E188">
-        <v>0.70643</v>
+        <v>0.71584000000000003</v>
       </c>
       <c r="F188">
-        <v>0.72358</v>
+        <v>0.71923999999999999</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>1.3919999999999932</v>
+        <v>1.8530000000000046</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5169,23 +5167,23 @@
         <v>9</v>
       </c>
       <c r="B189" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C189">
-        <v>0.70221999999999996</v>
+        <v>0.71120000000000005</v>
       </c>
       <c r="D189">
-        <v>0.71543999999999996</v>
+        <v>0.72496000000000005</v>
       </c>
       <c r="E189">
-        <v>0.70152000000000003</v>
+        <v>0.70643</v>
       </c>
       <c r="F189">
-        <v>0.71252000000000004</v>
+        <v>0.72358</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>2.0160000000000067</v>
+        <v>1.3919999999999932</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5193,23 +5191,23 @@
         <v>9</v>
       </c>
       <c r="B190" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C190">
-        <v>0.71113000000000004</v>
+        <v>0.70221999999999996</v>
       </c>
       <c r="D190">
-        <v>0.72233000000000003</v>
+        <v>0.71543999999999996</v>
       </c>
       <c r="E190">
-        <v>0.70216999999999996</v>
+        <v>0.70152000000000003</v>
       </c>
       <c r="F190">
-        <v>0.70433000000000001</v>
+        <v>0.71252000000000004</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>2.0179999999999976</v>
+        <v>2.0160000000000067</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5217,23 +5215,23 @@
         <v>9</v>
       </c>
       <c r="B191" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C191">
-        <v>0.72021000000000002</v>
+        <v>0.71113000000000004</v>
       </c>
       <c r="D191">
-        <v>0.72687999999999997</v>
+        <v>0.72233000000000003</v>
       </c>
       <c r="E191">
-        <v>0.70669999999999999</v>
+        <v>0.70216999999999996</v>
       </c>
       <c r="F191">
-        <v>0.71330000000000005</v>
+        <v>0.70433000000000001</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>1.2579999999999925</v>
+        <v>2.0179999999999976</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5241,23 +5239,23 @@
         <v>9</v>
       </c>
       <c r="B192" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C192">
-        <v>0.72540000000000004</v>
+        <v>0.72021000000000002</v>
       </c>
       <c r="D192">
-        <v>0.73065999999999998</v>
+        <v>0.72687999999999997</v>
       </c>
       <c r="E192">
-        <v>0.71808000000000005</v>
+        <v>0.70669999999999999</v>
       </c>
       <c r="F192">
-        <v>0.72158999999999995</v>
+        <v>0.71330000000000005</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>1.8339999999999912</v>
+        <v>1.2579999999999925</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5265,23 +5263,23 @@
         <v>9</v>
       </c>
       <c r="B193" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C193">
-        <v>0.73182000000000003</v>
+        <v>0.72540000000000004</v>
       </c>
       <c r="D193">
-        <v>0.73812999999999995</v>
+        <v>0.73065999999999998</v>
       </c>
       <c r="E193">
-        <v>0.71979000000000004</v>
+        <v>0.71808000000000005</v>
       </c>
       <c r="F193">
-        <v>0.72726000000000002</v>
+        <v>0.72158999999999995</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>3.0159999999999965</v>
+        <v>1.8339999999999912</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5289,23 +5287,23 @@
         <v>9</v>
       </c>
       <c r="B194" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C194">
-        <v>0.70476000000000005</v>
+        <v>0.73182000000000003</v>
       </c>
       <c r="D194">
-        <v>0.73436000000000001</v>
+        <v>0.73812999999999995</v>
       </c>
       <c r="E194">
-        <v>0.70420000000000005</v>
+        <v>0.71979000000000004</v>
       </c>
       <c r="F194">
-        <v>0.73280999999999996</v>
+        <v>0.72726000000000002</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>1.4790000000000081</v>
+        <v>3.0159999999999965</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5313,23 +5311,23 @@
         <v>9</v>
       </c>
       <c r="B195" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C195">
-        <v>0.70130999999999999</v>
+        <v>0.70476000000000005</v>
       </c>
       <c r="D195">
-        <v>0.70840000000000003</v>
+        <v>0.73436000000000001</v>
       </c>
       <c r="E195">
-        <v>0.69360999999999995</v>
+        <v>0.70420000000000005</v>
       </c>
       <c r="F195">
-        <v>0.70498000000000005</v>
+        <v>0.73280999999999996</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>2.585000000000004</v>
+        <v>1.4790000000000081</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5337,23 +5335,23 @@
         <v>9</v>
       </c>
       <c r="B196" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C196">
-        <v>0.71770999999999996</v>
+        <v>0.70130999999999999</v>
       </c>
       <c r="D196">
-        <v>0.71962999999999999</v>
+        <v>0.70840000000000003</v>
       </c>
       <c r="E196">
-        <v>0.69377999999999995</v>
+        <v>0.69360999999999995</v>
       </c>
       <c r="F196">
-        <v>0.70255999999999996</v>
+        <v>0.70498000000000005</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>2.1639999999999993</v>
+        <v>2.585000000000004</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5361,23 +5359,23 @@
         <v>9</v>
       </c>
       <c r="B197" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C197">
-        <v>0.70813000000000004</v>
+        <v>0.71770999999999996</v>
       </c>
       <c r="D197">
-        <v>0.72792000000000001</v>
+        <v>0.71962999999999999</v>
       </c>
       <c r="E197">
-        <v>0.70628000000000002</v>
+        <v>0.69377999999999995</v>
       </c>
       <c r="F197">
-        <v>0.71960999999999997</v>
+        <v>0.70255999999999996</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>1.9399999999999973</v>
+        <v>2.1639999999999993</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5385,23 +5383,23 @@
         <v>9</v>
       </c>
       <c r="B198" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C198">
-        <v>0.69066000000000005</v>
+        <v>0.70813000000000004</v>
       </c>
       <c r="D198">
-        <v>0.70987999999999996</v>
+        <v>0.72792000000000001</v>
       </c>
       <c r="E198">
-        <v>0.69047999999999998</v>
+        <v>0.70628000000000002</v>
       </c>
       <c r="F198">
-        <v>0.70875999999999995</v>
+        <v>0.71960999999999997</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>2.5000000000000022</v>
+        <v>1.9399999999999973</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5409,23 +5407,23 @@
         <v>9</v>
       </c>
       <c r="B199" s="8">
-        <v>40785</v>
+        <v>40792</v>
       </c>
       <c r="C199">
-        <v>0.71540999999999999</v>
+        <v>0.69066000000000005</v>
       </c>
       <c r="D199">
-        <v>0.71577999999999997</v>
+        <v>0.70987999999999996</v>
       </c>
       <c r="E199">
-        <v>0.69077999999999995</v>
+        <v>0.69047999999999998</v>
       </c>
       <c r="F199">
-        <v>0.69135000000000002</v>
+        <v>0.70875999999999995</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>2.8070000000000039</v>
+        <v>2.5000000000000022</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5433,23 +5431,22 @@
         <v>9</v>
       </c>
       <c r="B200" s="8">
-        <v>40778</v>
+        <v>40785</v>
       </c>
       <c r="C200">
-        <v>0.73007999999999995</v>
+        <v>0.71540999999999999</v>
       </c>
       <c r="D200">
-        <v>0.73094999999999999</v>
+        <v>0.71577999999999997</v>
       </c>
       <c r="E200">
-        <v>0.70287999999999995</v>
+        <v>0.69077999999999995</v>
       </c>
       <c r="F200">
-        <v>0.71613000000000004</v>
+        <v>0.69135000000000002</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>

--- a/volatility/src/xls/09_AUDUSD.xlsx
+++ b/volatility/src/xls/09_AUDUSD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="12660" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,10 +525,10 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="2">
-        <v>107.4</v>
+        <v>108.3</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1">
@@ -554,26 +554,26 @@
     <row r="6" spans="2:11" ht="24" customHeight="1">
       <c r="B6" s="5">
         <f>sub!J1</f>
-        <v>1.1965000000000003</v>
+        <v>1.185500000000006</v>
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>38909</v>
+        <v>46733</v>
       </c>
       <c r="E6" s="5">
-        <v>69.3</v>
+        <v>70.3</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>0.69700000000000006</v>
+        <v>0.70700000000000007</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>0.70900000000000007</v>
+        <v>0.71900000000000008</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>0.68500000000000005</v>
+        <v>0.69500000000000006</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>0.68899999999999995</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>0.67699999999999994</v>
+        <v>0.68699999999999994</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>0.70099999999999996</v>
+        <v>0.71099999999999997</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -667,11 +667,11 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>1.0610000000000008</v>
+        <v>0.96300000000000274</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
-        <v>1.1965000000000003</v>
+        <v>1.185500000000006</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
@@ -679,23 +679,23 @@
         <v>9</v>
       </c>
       <c r="B2" s="8">
-        <v>42171</v>
+        <v>42178</v>
       </c>
       <c r="C2">
-        <v>0.68676000000000004</v>
+        <v>0.69255</v>
       </c>
       <c r="D2">
-        <v>0.69377</v>
+        <v>0.70211000000000001</v>
       </c>
       <c r="E2">
-        <v>0.68315999999999999</v>
+        <v>0.69247999999999998</v>
       </c>
       <c r="F2">
-        <v>0.69255999999999995</v>
+        <v>0.70203000000000004</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>1.3800000000000034</v>
+        <v>1.0610000000000008</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -703,23 +703,23 @@
         <v>9</v>
       </c>
       <c r="B3" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C3">
-        <v>0.69979000000000002</v>
+        <v>0.68676000000000004</v>
       </c>
       <c r="D3">
-        <v>0.69991000000000003</v>
+        <v>0.69377</v>
       </c>
       <c r="E3">
-        <v>0.68611</v>
+        <v>0.68315999999999999</v>
       </c>
       <c r="F3">
-        <v>0.68706</v>
+        <v>0.69255999999999995</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>0.94799999999999329</v>
+        <v>1.3800000000000034</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -727,23 +727,23 @@
         <v>9</v>
       </c>
       <c r="B4" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C4">
-        <v>0.69281000000000004</v>
+        <v>0.69979000000000002</v>
       </c>
       <c r="D4">
-        <v>0.70218999999999998</v>
+        <v>0.69991000000000003</v>
       </c>
       <c r="E4">
-        <v>0.69271000000000005</v>
+        <v>0.68611</v>
       </c>
       <c r="F4">
-        <v>0.69962999999999997</v>
+        <v>0.68706</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.45399999999999885</v>
+        <v>0.94799999999999329</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -751,23 +751,23 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C5">
-        <v>0.69232000000000005</v>
+        <v>0.69281000000000004</v>
       </c>
       <c r="D5">
-        <v>0.69440000000000002</v>
+        <v>0.70218999999999998</v>
       </c>
       <c r="E5">
-        <v>0.68986000000000003</v>
+        <v>0.69271000000000005</v>
       </c>
       <c r="F5">
-        <v>0.69325999999999999</v>
+        <v>0.69962999999999997</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.69799999999999862</v>
+        <v>0.45399999999999885</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -775,23 +775,23 @@
         <v>9</v>
       </c>
       <c r="B6" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C6">
-        <v>0.68964999999999999</v>
+        <v>0.69232000000000005</v>
       </c>
       <c r="D6">
-        <v>0.69345000000000001</v>
+        <v>0.69440000000000002</v>
       </c>
       <c r="E6">
-        <v>0.68647000000000002</v>
+        <v>0.68986000000000003</v>
       </c>
       <c r="F6">
-        <v>0.69269000000000003</v>
+        <v>0.69325999999999999</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1.3430000000000053</v>
+        <v>0.69799999999999862</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -799,23 +799,23 @@
         <v>9</v>
       </c>
       <c r="B7" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C7">
-        <v>0.69913999999999998</v>
+        <v>0.68964999999999999</v>
       </c>
       <c r="D7">
-        <v>0.69974000000000003</v>
+        <v>0.69345000000000001</v>
       </c>
       <c r="E7">
-        <v>0.68630999999999998</v>
+        <v>0.68647000000000002</v>
       </c>
       <c r="F7">
-        <v>0.68650999999999995</v>
+        <v>0.69269000000000003</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.8539999999999992</v>
+        <v>1.3430000000000053</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -823,23 +823,23 @@
         <v>9</v>
       </c>
       <c r="B8" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C8">
-        <v>0.69798000000000004</v>
+        <v>0.69913999999999998</v>
       </c>
       <c r="D8">
-        <v>0.70474000000000003</v>
+        <v>0.69974000000000003</v>
       </c>
       <c r="E8">
-        <v>0.69620000000000004</v>
+        <v>0.68630999999999998</v>
       </c>
       <c r="F8">
-        <v>0.69994000000000001</v>
+        <v>0.68650999999999995</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.84400000000000031</v>
+        <v>0.8539999999999992</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -847,23 +847,23 @@
         <v>9</v>
       </c>
       <c r="B9" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C9">
-        <v>0.70367999999999997</v>
+        <v>0.69798000000000004</v>
       </c>
       <c r="D9">
-        <v>0.70676000000000005</v>
+        <v>0.70474000000000003</v>
       </c>
       <c r="E9">
-        <v>0.69832000000000005</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="F9">
-        <v>0.70223999999999998</v>
+        <v>0.69994000000000001</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1.6300000000000092</v>
+        <v>0.84400000000000031</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -871,23 +871,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C10">
-        <v>0.71440000000000003</v>
+        <v>0.70367999999999997</v>
       </c>
       <c r="D10">
-        <v>0.71503000000000005</v>
+        <v>0.70676000000000005</v>
       </c>
       <c r="E10">
-        <v>0.69872999999999996</v>
+        <v>0.69832000000000005</v>
       </c>
       <c r="F10">
-        <v>0.70418000000000003</v>
+        <v>0.70223999999999998</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.69200000000000372</v>
+        <v>1.6300000000000092</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -895,23 +895,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C11">
-        <v>0.71711999999999998</v>
+        <v>0.71440000000000003</v>
       </c>
       <c r="D11">
-        <v>0.72050000000000003</v>
+        <v>0.71503000000000005</v>
       </c>
       <c r="E11">
-        <v>0.71357999999999999</v>
+        <v>0.69872999999999996</v>
       </c>
       <c r="F11">
-        <v>0.71480999999999995</v>
+        <v>0.70418000000000003</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>1.0479999999999934</v>
+        <v>0.69200000000000372</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -919,23 +919,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C12">
-        <v>0.71016000000000001</v>
+        <v>0.71711999999999998</v>
       </c>
       <c r="D12">
-        <v>0.71914999999999996</v>
+        <v>0.72050000000000003</v>
       </c>
       <c r="E12">
-        <v>0.70867000000000002</v>
+        <v>0.71357999999999999</v>
       </c>
       <c r="F12">
-        <v>0.71701000000000004</v>
+        <v>0.71480999999999995</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.79200000000000381</v>
+        <v>1.0479999999999934</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -943,23 +943,23 @@
         <v>9</v>
       </c>
       <c r="B13" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C13">
-        <v>0.71055000000000001</v>
+        <v>0.71016000000000001</v>
       </c>
       <c r="D13">
-        <v>0.71311000000000002</v>
+        <v>0.71914999999999996</v>
       </c>
       <c r="E13">
-        <v>0.70518999999999998</v>
+        <v>0.70867000000000002</v>
       </c>
       <c r="F13">
-        <v>0.71021000000000001</v>
+        <v>0.71701000000000004</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.83900000000000086</v>
+        <v>0.79200000000000381</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -967,23 +967,23 @@
         <v>9</v>
       </c>
       <c r="B14" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C14">
-        <v>0.70757000000000003</v>
+        <v>0.71055000000000001</v>
       </c>
       <c r="D14">
-        <v>0.71467999999999998</v>
+        <v>0.71311000000000002</v>
       </c>
       <c r="E14">
-        <v>0.70628999999999997</v>
+        <v>0.70518999999999998</v>
       </c>
       <c r="F14">
-        <v>0.70972000000000002</v>
+        <v>0.71021000000000001</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1.1149999999999993</v>
+        <v>0.83900000000000086</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -991,23 +991,23 @@
         <v>9</v>
       </c>
       <c r="B15" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C15">
-        <v>0.70792999999999995</v>
+        <v>0.70757000000000003</v>
       </c>
       <c r="D15">
-        <v>0.71674000000000004</v>
+        <v>0.71467999999999998</v>
       </c>
       <c r="E15">
-        <v>0.70559000000000005</v>
+        <v>0.70628999999999997</v>
       </c>
       <c r="F15">
-        <v>0.70772999999999997</v>
+        <v>0.70972000000000002</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0.71100000000000607</v>
+        <v>1.1149999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1015,23 +1015,23 @@
         <v>9</v>
       </c>
       <c r="B16" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C16">
-        <v>0.70304999999999995</v>
+        <v>0.70792999999999995</v>
       </c>
       <c r="D16">
-        <v>0.70969000000000004</v>
+        <v>0.71674000000000004</v>
       </c>
       <c r="E16">
-        <v>0.70257999999999998</v>
+        <v>0.70559000000000005</v>
       </c>
       <c r="F16">
-        <v>0.70826</v>
+        <v>0.70772999999999997</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>1.0440000000000005</v>
+        <v>0.71100000000000607</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1039,23 +1039,23 @@
         <v>9</v>
       </c>
       <c r="B17" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C17">
-        <v>0.71057000000000003</v>
+        <v>0.70304999999999995</v>
       </c>
       <c r="D17">
-        <v>0.71067000000000002</v>
+        <v>0.70969000000000004</v>
       </c>
       <c r="E17">
-        <v>0.70023000000000002</v>
+        <v>0.70257999999999998</v>
       </c>
       <c r="F17">
-        <v>0.70435999999999999</v>
+        <v>0.70826</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1.2929999999999997</v>
+        <v>1.0440000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1063,23 +1063,23 @@
         <v>9</v>
       </c>
       <c r="B18" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C18">
-        <v>0.71321999999999997</v>
+        <v>0.71057000000000003</v>
       </c>
       <c r="D18">
-        <v>0.71980999999999995</v>
+        <v>0.71067000000000002</v>
       </c>
       <c r="E18">
-        <v>0.70687999999999995</v>
+        <v>0.70023000000000002</v>
       </c>
       <c r="F18">
-        <v>0.70755999999999997</v>
+        <v>0.70435999999999999</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.3679999999999914</v>
+        <v>1.2929999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1087,23 +1087,23 @@
         <v>9</v>
       </c>
       <c r="B19" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C19">
-        <v>0.71292999999999995</v>
+        <v>0.71321999999999997</v>
       </c>
       <c r="D19">
-        <v>0.72058999999999995</v>
+        <v>0.71980999999999995</v>
       </c>
       <c r="E19">
-        <v>0.70691000000000004</v>
+        <v>0.70687999999999995</v>
       </c>
       <c r="F19">
-        <v>0.71287</v>
+        <v>0.70755999999999997</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>0.94299999999999384</v>
+        <v>1.3679999999999914</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1111,23 +1111,23 @@
         <v>9</v>
       </c>
       <c r="B20" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C20">
-        <v>0.70831</v>
+        <v>0.71292999999999995</v>
       </c>
       <c r="D20">
-        <v>0.71475999999999995</v>
+        <v>0.72058999999999995</v>
       </c>
       <c r="E20">
-        <v>0.70533000000000001</v>
+        <v>0.70691000000000004</v>
       </c>
       <c r="F20">
-        <v>0.71382000000000001</v>
+        <v>0.71287</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>2.0410000000000039</v>
+        <v>0.94299999999999384</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1135,23 +1135,23 @@
         <v>9</v>
       </c>
       <c r="B21" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C21">
-        <v>0.72418000000000005</v>
+        <v>0.70831</v>
       </c>
       <c r="D21">
-        <v>0.72638000000000003</v>
+        <v>0.71475999999999995</v>
       </c>
       <c r="E21">
-        <v>0.70596999999999999</v>
+        <v>0.70533000000000001</v>
       </c>
       <c r="F21">
-        <v>0.70865999999999996</v>
+        <v>0.71382000000000001</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1.5719999999999956</v>
+        <v>2.0410000000000039</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1159,23 +1159,23 @@
         <v>9</v>
       </c>
       <c r="B22" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C22">
-        <v>0.71721000000000001</v>
+        <v>0.72418000000000005</v>
       </c>
       <c r="D22">
-        <v>0.72943999999999998</v>
+        <v>0.72638000000000003</v>
       </c>
       <c r="E22">
-        <v>0.71372000000000002</v>
+        <v>0.70596999999999999</v>
       </c>
       <c r="F22">
-        <v>0.72489000000000003</v>
+        <v>0.70865999999999996</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>1.0929999999999995</v>
+        <v>1.5719999999999956</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1183,23 +1183,23 @@
         <v>9</v>
       </c>
       <c r="B23" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C23">
-        <v>0.71614</v>
+        <v>0.71721000000000001</v>
       </c>
       <c r="D23">
-        <v>0.71845000000000003</v>
+        <v>0.72943999999999998</v>
       </c>
       <c r="E23">
-        <v>0.70752000000000004</v>
+        <v>0.71372000000000002</v>
       </c>
       <c r="F23">
-        <v>0.71814999999999996</v>
+        <v>0.72489000000000003</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0.78799999999999981</v>
+        <v>1.0929999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1207,23 +1207,23 @@
         <v>9</v>
       </c>
       <c r="B24" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C24">
-        <v>0.72089000000000003</v>
+        <v>0.71614</v>
       </c>
       <c r="D24">
-        <v>0.72248999999999997</v>
+        <v>0.71845000000000003</v>
       </c>
       <c r="E24">
-        <v>0.71460999999999997</v>
+        <v>0.70752000000000004</v>
       </c>
       <c r="F24">
-        <v>0.71660000000000001</v>
+        <v>0.71814999999999996</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>1.2780000000000014</v>
+        <v>0.78799999999999981</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1231,23 +1231,23 @@
         <v>9</v>
       </c>
       <c r="B25" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C25">
-        <v>0.71108000000000005</v>
+        <v>0.72089000000000003</v>
       </c>
       <c r="D25">
-        <v>0.72345000000000004</v>
+        <v>0.72248999999999997</v>
       </c>
       <c r="E25">
-        <v>0.71067000000000002</v>
+        <v>0.71460999999999997</v>
       </c>
       <c r="F25">
-        <v>0.72116999999999998</v>
+        <v>0.71660000000000001</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>3.734000000000004</v>
+        <v>1.2780000000000014</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1255,23 +1255,23 @@
         <v>9</v>
       </c>
       <c r="B26" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C26">
-        <v>0.70359000000000005</v>
+        <v>0.71108000000000005</v>
       </c>
       <c r="D26">
-        <v>0.71238000000000001</v>
+        <v>0.72345000000000004</v>
       </c>
       <c r="E26">
-        <v>0.67503999999999997</v>
+        <v>0.71067000000000002</v>
       </c>
       <c r="F26">
-        <v>0.71194000000000002</v>
+        <v>0.72116999999999998</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>0.60999999999999943</v>
+        <v>3.734000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1279,23 +1279,23 @@
         <v>9</v>
       </c>
       <c r="B27" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C27">
         <v>0.70359000000000005</v>
       </c>
       <c r="D27">
-        <v>0.7077</v>
+        <v>0.71238000000000001</v>
       </c>
       <c r="E27">
-        <v>0.7016</v>
+        <v>0.67503999999999997</v>
       </c>
       <c r="F27">
-        <v>0.70396000000000003</v>
+        <v>0.71194000000000002</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>1.6859999999999986</v>
+        <v>0.60999999999999943</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1303,23 +1303,23 @@
         <v>9</v>
       </c>
       <c r="B28" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C28">
-        <v>0.71697999999999995</v>
+        <v>0.70359000000000005</v>
       </c>
       <c r="D28">
-        <v>0.72026999999999997</v>
+        <v>0.7077</v>
       </c>
       <c r="E28">
-        <v>0.70340999999999998</v>
+        <v>0.7016</v>
       </c>
       <c r="F28">
-        <v>0.70391999999999999</v>
+        <v>0.70396000000000003</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>0.95399999999999929</v>
+        <v>1.6859999999999986</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1327,23 +1327,23 @@
         <v>9</v>
       </c>
       <c r="B29" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C29">
-        <v>0.71816999999999998</v>
+        <v>0.71697999999999995</v>
       </c>
       <c r="D29">
-        <v>0.72458</v>
+        <v>0.72026999999999997</v>
       </c>
       <c r="E29">
-        <v>0.71504000000000001</v>
+        <v>0.70340999999999998</v>
       </c>
       <c r="F29">
-        <v>0.71777999999999997</v>
+        <v>0.70391999999999999</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>2.018999999999993</v>
+        <v>0.95399999999999929</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1351,23 +1351,23 @@
         <v>9</v>
       </c>
       <c r="B30" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C30">
-        <v>0.73736999999999997</v>
+        <v>0.71816999999999998</v>
       </c>
       <c r="D30">
-        <v>0.73926999999999998</v>
+        <v>0.72458</v>
       </c>
       <c r="E30">
-        <v>0.71908000000000005</v>
+        <v>0.71504000000000001</v>
       </c>
       <c r="F30">
-        <v>0.71986000000000006</v>
+        <v>0.71777999999999997</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>1.4449999999999963</v>
+        <v>2.018999999999993</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1375,23 +1375,23 @@
         <v>9</v>
       </c>
       <c r="B31" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C31">
-        <v>0.72255000000000003</v>
+        <v>0.73736999999999997</v>
       </c>
       <c r="D31">
-        <v>0.73433999999999999</v>
+        <v>0.73926999999999998</v>
       </c>
       <c r="E31">
-        <v>0.71989000000000003</v>
+        <v>0.71908000000000005</v>
       </c>
       <c r="F31">
-        <v>0.73070999999999997</v>
+        <v>0.71986000000000006</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1.2639999999999985</v>
+        <v>1.4449999999999963</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1399,23 +1399,23 @@
         <v>9</v>
       </c>
       <c r="B32" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C32">
-        <v>0.73046</v>
+        <v>0.72255000000000003</v>
       </c>
       <c r="D32">
-        <v>0.73248000000000002</v>
+        <v>0.73433999999999999</v>
       </c>
       <c r="E32">
-        <v>0.71984000000000004</v>
+        <v>0.71989000000000003</v>
       </c>
       <c r="F32">
-        <v>0.72258999999999995</v>
+        <v>0.73070999999999997</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>1.7119999999999913</v>
+        <v>1.2639999999999985</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1423,23 +1423,23 @@
         <v>9</v>
       </c>
       <c r="B33" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C33">
-        <v>0.72155000000000002</v>
+        <v>0.73046</v>
       </c>
       <c r="D33">
-        <v>0.73346999999999996</v>
+        <v>0.73248000000000002</v>
       </c>
       <c r="E33">
-        <v>0.71635000000000004</v>
+        <v>0.71984000000000004</v>
       </c>
       <c r="F33">
-        <v>0.73336000000000001</v>
+        <v>0.72258999999999995</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1.2010000000000076</v>
+        <v>1.7119999999999913</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1447,23 +1447,23 @@
         <v>9</v>
       </c>
       <c r="B34" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C34">
-        <v>0.71879999999999999</v>
+        <v>0.72155000000000002</v>
       </c>
       <c r="D34">
-        <v>0.73018000000000005</v>
+        <v>0.73346999999999996</v>
       </c>
       <c r="E34">
-        <v>0.71816999999999998</v>
+        <v>0.71635000000000004</v>
       </c>
       <c r="F34">
-        <v>0.72272999999999998</v>
+        <v>0.73336000000000001</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>2.0820000000000061</v>
+        <v>1.2010000000000076</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1471,23 +1471,23 @@
         <v>9</v>
       </c>
       <c r="B35" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C35">
-        <v>0.7087</v>
+        <v>0.71879999999999999</v>
       </c>
       <c r="D35">
-        <v>0.72577000000000003</v>
+        <v>0.73018000000000005</v>
       </c>
       <c r="E35">
-        <v>0.70494999999999997</v>
+        <v>0.71816999999999998</v>
       </c>
       <c r="F35">
-        <v>0.71972000000000003</v>
+        <v>0.72272999999999998</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>1.0419999999999985</v>
+        <v>2.0820000000000061</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1495,23 +1495,23 @@
         <v>9</v>
       </c>
       <c r="B36" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C36">
-        <v>0.71181000000000005</v>
+        <v>0.7087</v>
       </c>
       <c r="D36">
-        <v>0.71243999999999996</v>
+        <v>0.72577000000000003</v>
       </c>
       <c r="E36">
-        <v>0.70201999999999998</v>
+        <v>0.70494999999999997</v>
       </c>
       <c r="F36">
-        <v>0.70901999999999998</v>
+        <v>0.71972000000000003</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>0.70500000000000007</v>
+        <v>1.0419999999999985</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1519,23 +1519,23 @@
         <v>9</v>
       </c>
       <c r="B37" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C37">
-        <v>0.71050000000000002</v>
+        <v>0.71181000000000005</v>
       </c>
       <c r="D37">
-        <v>0.71587999999999996</v>
+        <v>0.71243999999999996</v>
       </c>
       <c r="E37">
-        <v>0.70882999999999996</v>
+        <v>0.70201999999999998</v>
       </c>
       <c r="F37">
-        <v>0.71170999999999995</v>
+        <v>0.70901999999999998</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>0.98699999999999344</v>
+        <v>0.70500000000000007</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1543,23 +1543,23 @@
         <v>9</v>
       </c>
       <c r="B38" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C38">
-        <v>0.70494999999999997</v>
+        <v>0.71050000000000002</v>
       </c>
       <c r="D38">
-        <v>0.71389999999999998</v>
+        <v>0.71587999999999996</v>
       </c>
       <c r="E38">
-        <v>0.70403000000000004</v>
+        <v>0.70882999999999996</v>
       </c>
       <c r="F38">
-        <v>0.71130000000000004</v>
+        <v>0.71170999999999995</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>1.9580000000000042</v>
+        <v>0.98699999999999344</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1567,23 +1567,23 @@
         <v>9</v>
       </c>
       <c r="B39" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C39">
-        <v>0.72180999999999995</v>
+        <v>0.70494999999999997</v>
       </c>
       <c r="D39">
-        <v>0.72374000000000005</v>
+        <v>0.71389999999999998</v>
       </c>
       <c r="E39">
-        <v>0.70416000000000001</v>
+        <v>0.70403000000000004</v>
       </c>
       <c r="F39">
-        <v>0.70518000000000003</v>
+        <v>0.71130000000000004</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>1.1440000000000006</v>
+        <v>1.9580000000000042</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1591,23 +1591,23 @@
         <v>9</v>
       </c>
       <c r="B40" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C40">
-        <v>0.72621000000000002</v>
+        <v>0.72180999999999995</v>
       </c>
       <c r="D40">
-        <v>0.73146</v>
+        <v>0.72374000000000005</v>
       </c>
       <c r="E40">
-        <v>0.72001999999999999</v>
+        <v>0.70416000000000001</v>
       </c>
       <c r="F40">
-        <v>0.72192999999999996</v>
+        <v>0.70518000000000003</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>1.6199999999999992</v>
+        <v>1.1440000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1615,23 +1615,23 @@
         <v>9</v>
       </c>
       <c r="B41" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C41">
-        <v>0.71494999999999997</v>
+        <v>0.72621000000000002</v>
       </c>
       <c r="D41">
-        <v>0.73031000000000001</v>
+        <v>0.73146</v>
       </c>
       <c r="E41">
-        <v>0.71411000000000002</v>
+        <v>0.72001999999999999</v>
       </c>
       <c r="F41">
-        <v>0.72850000000000004</v>
+        <v>0.72192999999999996</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>1.4399999999999968</v>
+        <v>1.6199999999999992</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1639,23 +1639,23 @@
         <v>9</v>
       </c>
       <c r="B42" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C42">
-        <v>0.70992999999999995</v>
+        <v>0.71494999999999997</v>
       </c>
       <c r="D42">
-        <v>0.72284999999999999</v>
+        <v>0.73031000000000001</v>
       </c>
       <c r="E42">
-        <v>0.70845000000000002</v>
+        <v>0.71411000000000002</v>
       </c>
       <c r="F42">
-        <v>0.71540999999999999</v>
+        <v>0.72850000000000004</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>1.368999999999998</v>
+        <v>1.4399999999999968</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1663,23 +1663,23 @@
         <v>9</v>
       </c>
       <c r="B43" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C43">
-        <v>0.71862000000000004</v>
+        <v>0.70992999999999995</v>
       </c>
       <c r="D43">
-        <v>0.72348000000000001</v>
+        <v>0.72284999999999999</v>
       </c>
       <c r="E43">
-        <v>0.70979000000000003</v>
+        <v>0.70845000000000002</v>
       </c>
       <c r="F43">
-        <v>0.71075999999999995</v>
+        <v>0.71540999999999999</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>1.8650000000000055</v>
+        <v>1.368999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1687,23 +1687,23 @@
         <v>9</v>
       </c>
       <c r="B44" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C44">
-        <v>0.73275000000000001</v>
+        <v>0.71862000000000004</v>
       </c>
       <c r="D44">
-        <v>0.73616000000000004</v>
+        <v>0.72348000000000001</v>
       </c>
       <c r="E44">
-        <v>0.71750999999999998</v>
+        <v>0.70979000000000003</v>
       </c>
       <c r="F44">
-        <v>0.71931</v>
+        <v>0.71075999999999995</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>1.4390000000000014</v>
+        <v>1.8650000000000055</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1711,23 +1711,23 @@
         <v>9</v>
       </c>
       <c r="B45" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C45">
-        <v>0.73082000000000003</v>
+        <v>0.73275000000000001</v>
       </c>
       <c r="D45">
-        <v>0.73809999999999998</v>
+        <v>0.73616000000000004</v>
       </c>
       <c r="E45">
-        <v>0.72370999999999996</v>
+        <v>0.71750999999999998</v>
       </c>
       <c r="F45">
-        <v>0.73248000000000002</v>
+        <v>0.71931</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>1.1700000000000044</v>
+        <v>1.4390000000000014</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1735,23 +1735,23 @@
         <v>9</v>
       </c>
       <c r="B46" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C46">
-        <v>0.72799999999999998</v>
+        <v>0.73082000000000003</v>
       </c>
       <c r="D46">
-        <v>0.73187000000000002</v>
+        <v>0.73809999999999998</v>
       </c>
       <c r="E46">
-        <v>0.72016999999999998</v>
+        <v>0.72370999999999996</v>
       </c>
       <c r="F46">
-        <v>0.73141</v>
+        <v>0.73248000000000002</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>1.7249999999999988</v>
+        <v>1.1700000000000044</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1759,23 +1759,23 @@
         <v>9</v>
       </c>
       <c r="B47" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C47">
-        <v>0.73936000000000002</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="D47">
-        <v>0.74524000000000001</v>
+        <v>0.73187000000000002</v>
       </c>
       <c r="E47">
-        <v>0.72799000000000003</v>
+        <v>0.72016999999999998</v>
       </c>
       <c r="F47">
-        <v>0.73001000000000005</v>
+        <v>0.73141</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>0.9240000000000026</v>
+        <v>1.7249999999999988</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1783,23 +1783,23 @@
         <v>9</v>
       </c>
       <c r="B48" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C48">
-        <v>0.73978999999999995</v>
+        <v>0.73936000000000002</v>
       </c>
       <c r="D48">
-        <v>0.74399000000000004</v>
+        <v>0.74524000000000001</v>
       </c>
       <c r="E48">
-        <v>0.73475000000000001</v>
+        <v>0.72799000000000003</v>
       </c>
       <c r="F48">
-        <v>0.73962000000000006</v>
+        <v>0.73001000000000005</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>1.0469999999999979</v>
+        <v>0.9240000000000026</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1807,23 +1807,23 @@
         <v>9</v>
       </c>
       <c r="B49" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C49">
-        <v>0.74175999999999997</v>
+        <v>0.73978999999999995</v>
       </c>
       <c r="D49">
-        <v>0.74634999999999996</v>
+        <v>0.74399000000000004</v>
       </c>
       <c r="E49">
-        <v>0.73587999999999998</v>
+        <v>0.73475000000000001</v>
       </c>
       <c r="F49">
-        <v>0.74021999999999999</v>
+        <v>0.73962000000000006</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>1.2449999999999961</v>
+        <v>1.0469999999999979</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1831,23 +1831,23 @@
         <v>9</v>
       </c>
       <c r="B50" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C50">
-        <v>0.74111000000000005</v>
+        <v>0.74175999999999997</v>
       </c>
       <c r="D50">
-        <v>0.74417</v>
+        <v>0.74634999999999996</v>
       </c>
       <c r="E50">
-        <v>0.73172000000000004</v>
+        <v>0.73587999999999998</v>
       </c>
       <c r="F50">
-        <v>0.74197999999999997</v>
+        <v>0.74021999999999999</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.2539999999999996</v>
+        <v>1.2449999999999961</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1855,23 +1855,23 @@
         <v>9</v>
       </c>
       <c r="B51" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C51">
-        <v>0.74280000000000002</v>
+        <v>0.74111000000000005</v>
       </c>
       <c r="D51">
-        <v>0.74831000000000003</v>
+        <v>0.74417</v>
       </c>
       <c r="E51">
-        <v>0.73577000000000004</v>
+        <v>0.73172000000000004</v>
       </c>
       <c r="F51">
         <v>0.74197999999999997</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.3360000000000039</v>
+        <v>1.2539999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1879,23 +1879,23 @@
         <v>9</v>
       </c>
       <c r="B52" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C52">
-        <v>0.73938999999999999</v>
+        <v>0.74280000000000002</v>
       </c>
       <c r="D52">
-        <v>0.74434</v>
+        <v>0.74831000000000003</v>
       </c>
       <c r="E52">
-        <v>0.73097999999999996</v>
+        <v>0.73577000000000004</v>
       </c>
       <c r="F52">
-        <v>0.74307000000000001</v>
+        <v>0.74197999999999997</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>1.1919999999999931</v>
+        <v>1.3360000000000039</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1903,23 +1903,23 @@
         <v>9</v>
       </c>
       <c r="B53" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C53">
-        <v>0.74367000000000005</v>
+        <v>0.73938999999999999</v>
       </c>
       <c r="D53">
-        <v>0.74417999999999995</v>
+        <v>0.74434</v>
       </c>
       <c r="E53">
-        <v>0.73226000000000002</v>
+        <v>0.73097999999999996</v>
       </c>
       <c r="F53">
-        <v>0.74077000000000004</v>
+        <v>0.74307000000000001</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>1.0889999999999955</v>
+        <v>1.1919999999999931</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1927,23 +1927,23 @@
         <v>9</v>
       </c>
       <c r="B54" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C54">
-        <v>0.74378</v>
+        <v>0.74367000000000005</v>
       </c>
       <c r="D54">
-        <v>0.74536999999999998</v>
+        <v>0.74417999999999995</v>
       </c>
       <c r="E54">
-        <v>0.73448000000000002</v>
+        <v>0.73226000000000002</v>
       </c>
       <c r="F54">
-        <v>0.74373</v>
+        <v>0.74077000000000004</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>1.8119999999999914</v>
+        <v>1.0889999999999955</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1951,23 +1951,23 @@
         <v>9</v>
       </c>
       <c r="B55" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C55">
-        <v>0.75914999999999999</v>
+        <v>0.74378</v>
       </c>
       <c r="D55">
-        <v>0.76227999999999996</v>
+        <v>0.74536999999999998</v>
       </c>
       <c r="E55">
-        <v>0.74416000000000004</v>
+        <v>0.73448000000000002</v>
       </c>
       <c r="F55">
-        <v>0.74424000000000001</v>
+        <v>0.74373</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>1.1619999999999964</v>
+        <v>1.8119999999999914</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1975,23 +1975,23 @@
         <v>9</v>
       </c>
       <c r="B56" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C56">
-        <v>0.75661999999999996</v>
+        <v>0.75914999999999999</v>
       </c>
       <c r="D56">
-        <v>0.76758999999999999</v>
+        <v>0.76227999999999996</v>
       </c>
       <c r="E56">
-        <v>0.75597000000000003</v>
+        <v>0.74416000000000004</v>
       </c>
       <c r="F56">
-        <v>0.75985000000000003</v>
+        <v>0.74424000000000001</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>1.1689999999999978</v>
+        <v>1.1619999999999964</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -1999,23 +1999,23 @@
         <v>9</v>
       </c>
       <c r="B57" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C57">
-        <v>0.75566999999999995</v>
+        <v>0.75661999999999996</v>
       </c>
       <c r="D57">
-        <v>0.75922999999999996</v>
+        <v>0.76758999999999999</v>
       </c>
       <c r="E57">
-        <v>0.74753999999999998</v>
+        <v>0.75597000000000003</v>
       </c>
       <c r="F57">
-        <v>0.75712000000000002</v>
+        <v>0.75985000000000003</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>1.0239999999999916</v>
+        <v>1.1689999999999978</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2023,23 +2023,23 @@
         <v>9</v>
       </c>
       <c r="B58" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C58">
-        <v>0.75210999999999995</v>
+        <v>0.75566999999999995</v>
       </c>
       <c r="D58">
-        <v>0.76044999999999996</v>
+        <v>0.75922999999999996</v>
       </c>
       <c r="E58">
-        <v>0.75021000000000004</v>
+        <v>0.74753999999999998</v>
       </c>
       <c r="F58">
-        <v>0.75509999999999999</v>
+        <v>0.75712000000000002</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>1.1800000000000033</v>
+        <v>1.0239999999999916</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2047,23 +2047,23 @@
         <v>9</v>
       </c>
       <c r="B59" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C59">
-        <v>0.75395000000000001</v>
+        <v>0.75210999999999995</v>
       </c>
       <c r="D59">
-        <v>0.75644</v>
+        <v>0.76044999999999996</v>
       </c>
       <c r="E59">
-        <v>0.74463999999999997</v>
+        <v>0.75021000000000004</v>
       </c>
       <c r="F59">
-        <v>0.75117999999999996</v>
+        <v>0.75509999999999999</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>1.5430000000000055</v>
+        <v>1.1800000000000033</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2071,23 +2071,23 @@
         <v>9</v>
       </c>
       <c r="B60" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C60">
-        <v>0.75322</v>
+        <v>0.75395000000000001</v>
       </c>
       <c r="D60">
-        <v>0.75660000000000005</v>
+        <v>0.75644</v>
       </c>
       <c r="E60">
-        <v>0.74117</v>
+        <v>0.74463999999999997</v>
       </c>
       <c r="F60">
-        <v>0.75443000000000005</v>
+        <v>0.75117999999999996</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>1.0970000000000035</v>
+        <v>1.5430000000000055</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2095,23 +2095,23 @@
         <v>9</v>
       </c>
       <c r="B61" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C61">
-        <v>0.75724999999999998</v>
+        <v>0.75322</v>
       </c>
       <c r="D61">
-        <v>0.75814000000000004</v>
+        <v>0.75660000000000005</v>
       </c>
       <c r="E61">
-        <v>0.74717</v>
+        <v>0.74117</v>
       </c>
       <c r="F61">
-        <v>0.75346999999999997</v>
+        <v>0.75443000000000005</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>1.5050000000000008</v>
+        <v>1.0970000000000035</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2119,23 +2119,23 @@
         <v>9</v>
       </c>
       <c r="B62" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C62">
-        <v>0.76668000000000003</v>
+        <v>0.75724999999999998</v>
       </c>
       <c r="D62">
-        <v>0.76817999999999997</v>
+        <v>0.75814000000000004</v>
       </c>
       <c r="E62">
-        <v>0.75312999999999997</v>
+        <v>0.74717</v>
       </c>
       <c r="F62">
-        <v>0.75782000000000005</v>
+        <v>0.75346999999999997</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>1.5759999999999996</v>
+        <v>1.5050000000000008</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2143,23 +2143,23 @@
         <v>9</v>
       </c>
       <c r="B63" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C63">
-        <v>0.77617000000000003</v>
+        <v>0.76668000000000003</v>
       </c>
       <c r="D63">
-        <v>0.78120999999999996</v>
+        <v>0.76817999999999997</v>
       </c>
       <c r="E63">
-        <v>0.76544999999999996</v>
+        <v>0.75312999999999997</v>
       </c>
       <c r="F63">
-        <v>0.76690999999999998</v>
+        <v>0.75782000000000005</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>1.5769999999999951</v>
+        <v>1.5759999999999996</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2167,23 +2167,23 @@
         <v>9</v>
       </c>
       <c r="B64" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C64">
-        <v>0.76658000000000004</v>
+        <v>0.77617000000000003</v>
       </c>
       <c r="D64">
-        <v>0.78090999999999999</v>
+        <v>0.78120999999999996</v>
       </c>
       <c r="E64">
-        <v>0.76514000000000004</v>
+        <v>0.76544999999999996</v>
       </c>
       <c r="F64">
-        <v>0.77644000000000002</v>
+        <v>0.76690999999999998</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>0.76699999999999546</v>
+        <v>1.5769999999999951</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2191,23 +2191,23 @@
         <v>9</v>
       </c>
       <c r="B65" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C65">
-        <v>0.76854</v>
+        <v>0.76658000000000004</v>
       </c>
       <c r="D65">
-        <v>0.77256999999999998</v>
+        <v>0.78090999999999999</v>
       </c>
       <c r="E65">
-        <v>0.76490000000000002</v>
+        <v>0.76514000000000004</v>
       </c>
       <c r="F65">
-        <v>0.76749999999999996</v>
+        <v>0.77644000000000002</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>1.1480000000000046</v>
+        <v>0.76699999999999546</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2215,23 +2215,23 @@
         <v>9</v>
       </c>
       <c r="B66" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C66">
-        <v>0.76971999999999996</v>
+        <v>0.76854</v>
       </c>
       <c r="D66">
-        <v>0.77568000000000004</v>
+        <v>0.77256999999999998</v>
       </c>
       <c r="E66">
-        <v>0.76419999999999999</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="F66">
-        <v>0.76831000000000005</v>
+        <v>0.76749999999999996</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>1.1390000000000011</v>
+        <v>1.1480000000000046</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2239,23 +2239,23 @@
         <v>9</v>
       </c>
       <c r="B67" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C67">
-        <v>0.77088000000000001</v>
+        <v>0.76971999999999996</v>
       </c>
       <c r="D67">
-        <v>0.77854999999999996</v>
+        <v>0.77568000000000004</v>
       </c>
       <c r="E67">
-        <v>0.76715999999999995</v>
+        <v>0.76419999999999999</v>
       </c>
       <c r="F67">
-        <v>0.76983999999999997</v>
+        <v>0.76831000000000005</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>2.0649999999999946</v>
+        <v>1.1390000000000011</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2263,23 +2263,23 @@
         <v>9</v>
       </c>
       <c r="B68" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C68">
-        <v>0.78442000000000001</v>
+        <v>0.77088000000000001</v>
       </c>
       <c r="D68">
-        <v>0.79157</v>
+        <v>0.77854999999999996</v>
       </c>
       <c r="E68">
-        <v>0.77092000000000005</v>
+        <v>0.76715999999999995</v>
       </c>
       <c r="F68">
-        <v>0.77102999999999999</v>
+        <v>0.76983999999999997</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>1.2809999999999988</v>
+        <v>2.0649999999999946</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2287,23 +2287,23 @@
         <v>9</v>
       </c>
       <c r="B69" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C69">
-        <v>0.77600999999999998</v>
+        <v>0.78442000000000001</v>
       </c>
       <c r="D69">
-        <v>0.78530999999999995</v>
+        <v>0.79157</v>
       </c>
       <c r="E69">
-        <v>0.77249999999999996</v>
+        <v>0.77092000000000005</v>
       </c>
       <c r="F69">
-        <v>0.78483999999999998</v>
+        <v>0.77102999999999999</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>1.8080000000000096</v>
+        <v>1.2809999999999988</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2311,23 +2311,23 @@
         <v>9</v>
       </c>
       <c r="B70" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C70">
-        <v>0.78373999999999999</v>
+        <v>0.77600999999999998</v>
       </c>
       <c r="D70">
-        <v>0.78924000000000005</v>
+        <v>0.78530999999999995</v>
       </c>
       <c r="E70">
-        <v>0.77115999999999996</v>
+        <v>0.77249999999999996</v>
       </c>
       <c r="F70">
-        <v>0.77608999999999995</v>
+        <v>0.78483999999999998</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>1.4490000000000003</v>
+        <v>1.8080000000000096</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2335,23 +2335,23 @@
         <v>9</v>
       </c>
       <c r="B71" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C71">
-        <v>0.79037999999999997</v>
+        <v>0.78373999999999999</v>
       </c>
       <c r="D71">
-        <v>0.79346000000000005</v>
+        <v>0.78924000000000005</v>
       </c>
       <c r="E71">
-        <v>0.77897000000000005</v>
+        <v>0.77115999999999996</v>
       </c>
       <c r="F71">
-        <v>0.78359000000000001</v>
+        <v>0.77608999999999995</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>2.1550000000000069</v>
+        <v>1.4490000000000003</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2359,23 +2359,23 @@
         <v>9</v>
       </c>
       <c r="B72" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C72">
-        <v>0.78105999999999998</v>
+        <v>0.79037999999999997</v>
       </c>
       <c r="D72">
-        <v>0.79878000000000005</v>
+        <v>0.79346000000000005</v>
       </c>
       <c r="E72">
-        <v>0.77722999999999998</v>
+        <v>0.77897000000000005</v>
       </c>
       <c r="F72">
-        <v>0.79117000000000004</v>
+        <v>0.78359000000000001</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>1.9510000000000027</v>
+        <v>2.1550000000000069</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2383,23 +2383,23 @@
         <v>9</v>
       </c>
       <c r="B73" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C73">
-        <v>0.79079999999999995</v>
+        <v>0.78105999999999998</v>
       </c>
       <c r="D73">
-        <v>0.79532000000000003</v>
+        <v>0.79878000000000005</v>
       </c>
       <c r="E73">
-        <v>0.77581</v>
+        <v>0.77722999999999998</v>
       </c>
       <c r="F73">
-        <v>0.78142999999999996</v>
+        <v>0.79117000000000004</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>1.9830000000000014</v>
+        <v>1.9510000000000027</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2407,23 +2407,23 @@
         <v>9</v>
       </c>
       <c r="B74" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C74">
-        <v>0.80986000000000002</v>
+        <v>0.79079999999999995</v>
       </c>
       <c r="D74">
-        <v>0.81174000000000002</v>
+        <v>0.79532000000000003</v>
       </c>
       <c r="E74">
-        <v>0.79191</v>
+        <v>0.77581</v>
       </c>
       <c r="F74">
-        <v>0.79237000000000002</v>
+        <v>0.78142999999999996</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>1.794999999999991</v>
+        <v>1.9830000000000014</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2431,23 +2431,23 @@
         <v>9</v>
       </c>
       <c r="B75" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C75">
-        <v>0.79961000000000004</v>
+        <v>0.80986000000000002</v>
       </c>
       <c r="D75">
-        <v>0.81350999999999996</v>
+        <v>0.81174000000000002</v>
       </c>
       <c r="E75">
-        <v>0.79556000000000004</v>
+        <v>0.79191</v>
       </c>
       <c r="F75">
-        <v>0.81098000000000003</v>
+        <v>0.79237000000000002</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>1.3870000000000049</v>
+        <v>1.794999999999991</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2455,23 +2455,23 @@
         <v>9</v>
       </c>
       <c r="B76" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C76">
-        <v>0.78988999999999998</v>
+        <v>0.79961000000000004</v>
       </c>
       <c r="D76">
-        <v>0.80376000000000003</v>
+        <v>0.81350999999999996</v>
       </c>
       <c r="E76">
-        <v>0.78988999999999998</v>
+        <v>0.79556000000000004</v>
       </c>
       <c r="F76">
-        <v>0.79944999999999999</v>
+        <v>0.81098000000000003</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>1.1749999999999927</v>
+        <v>1.3870000000000049</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2479,23 +2479,23 @@
         <v>9</v>
       </c>
       <c r="B77" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C77">
-        <v>0.78576000000000001</v>
+        <v>0.78988999999999998</v>
       </c>
       <c r="D77">
-        <v>0.79240999999999995</v>
+        <v>0.80376000000000003</v>
       </c>
       <c r="E77">
-        <v>0.78066000000000002</v>
+        <v>0.78988999999999998</v>
       </c>
       <c r="F77">
-        <v>0.79151000000000005</v>
+        <v>0.79944999999999999</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>0.80100000000000726</v>
+        <v>1.1749999999999927</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2503,23 +2503,23 @@
         <v>9</v>
       </c>
       <c r="B78" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C78">
-        <v>0.77966999999999997</v>
+        <v>0.78576000000000001</v>
       </c>
       <c r="D78">
-        <v>0.78739000000000003</v>
+        <v>0.79240999999999995</v>
       </c>
       <c r="E78">
-        <v>0.77937999999999996</v>
+        <v>0.78066000000000002</v>
       </c>
       <c r="F78">
-        <v>0.78617999999999999</v>
+        <v>0.79151000000000005</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>1.2270000000000003</v>
+        <v>0.80100000000000726</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2527,23 +2527,23 @@
         <v>9</v>
       </c>
       <c r="B79" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C79">
-        <v>0.77019000000000004</v>
+        <v>0.77966999999999997</v>
       </c>
       <c r="D79">
-        <v>0.78241000000000005</v>
+        <v>0.78739000000000003</v>
       </c>
       <c r="E79">
-        <v>0.77014000000000005</v>
+        <v>0.77937999999999996</v>
       </c>
       <c r="F79">
-        <v>0.78025999999999995</v>
+        <v>0.78617999999999999</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>0.79900000000000526</v>
+        <v>1.2270000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2551,23 +2551,23 @@
         <v>9</v>
       </c>
       <c r="B80" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C80">
-        <v>0.76400999999999997</v>
+        <v>0.77019000000000004</v>
       </c>
       <c r="D80">
-        <v>0.77198</v>
+        <v>0.78241000000000005</v>
       </c>
       <c r="E80">
-        <v>0.76398999999999995</v>
+        <v>0.77014000000000005</v>
       </c>
       <c r="F80">
-        <v>0.77134999999999998</v>
+        <v>0.78025999999999995</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>1.9560000000000022</v>
+        <v>0.79900000000000526</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2575,23 +2575,23 @@
         <v>9</v>
       </c>
       <c r="B81" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C81">
-        <v>0.75051000000000001</v>
+        <v>0.76400999999999997</v>
       </c>
       <c r="D81">
-        <v>0.76939000000000002</v>
+        <v>0.77198</v>
       </c>
       <c r="E81">
-        <v>0.74983</v>
+        <v>0.76398999999999995</v>
       </c>
       <c r="F81">
-        <v>0.76431000000000004</v>
+        <v>0.77134999999999998</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>1.5249999999999986</v>
+        <v>1.9560000000000022</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2599,23 +2599,23 @@
         <v>9</v>
       </c>
       <c r="B82" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C82">
-        <v>0.75904000000000005</v>
+        <v>0.75051000000000001</v>
       </c>
       <c r="D82">
-        <v>0.76529999999999998</v>
+        <v>0.76939000000000002</v>
       </c>
       <c r="E82">
-        <v>0.75004999999999999</v>
+        <v>0.74983</v>
       </c>
       <c r="F82">
-        <v>0.75075999999999998</v>
+        <v>0.76431000000000004</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>0.9319999999999995</v>
+        <v>1.5249999999999986</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2623,23 +2623,23 @@
         <v>9</v>
       </c>
       <c r="B83" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C83">
-        <v>0.76114000000000004</v>
+        <v>0.75904000000000005</v>
       </c>
       <c r="D83">
-        <v>0.76439000000000001</v>
+        <v>0.76529999999999998</v>
       </c>
       <c r="E83">
-        <v>0.75507000000000002</v>
+        <v>0.75004999999999999</v>
       </c>
       <c r="F83">
-        <v>0.76085999999999998</v>
+        <v>0.75075999999999998</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>1.0660000000000003</v>
+        <v>0.9319999999999995</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2647,23 +2647,23 @@
         <v>9</v>
       </c>
       <c r="B84" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C84">
-        <v>0.75614999999999999</v>
+        <v>0.76114000000000004</v>
       </c>
       <c r="D84">
-        <v>0.76378000000000001</v>
+        <v>0.76439000000000001</v>
       </c>
       <c r="E84">
-        <v>0.75312000000000001</v>
+        <v>0.75507000000000002</v>
       </c>
       <c r="F84">
-        <v>0.76176999999999995</v>
+        <v>0.76085999999999998</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>1.2980000000000103</v>
+        <v>1.0660000000000003</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2671,23 +2671,23 @@
         <v>9</v>
       </c>
       <c r="B85" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C85">
-        <v>0.76487000000000005</v>
+        <v>0.75614999999999999</v>
       </c>
       <c r="D85">
-        <v>0.76648000000000005</v>
+        <v>0.76378000000000001</v>
       </c>
       <c r="E85">
-        <v>0.75349999999999995</v>
+        <v>0.75312000000000001</v>
       </c>
       <c r="F85">
-        <v>0.75634000000000001</v>
+        <v>0.76176999999999995</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>0.73299999999999477</v>
+        <v>1.2980000000000103</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2695,23 +2695,23 @@
         <v>9</v>
       </c>
       <c r="B86" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C86">
-        <v>0.76444999999999996</v>
+        <v>0.76487000000000005</v>
       </c>
       <c r="D86">
-        <v>0.76998</v>
+        <v>0.76648000000000005</v>
       </c>
       <c r="E86">
-        <v>0.76265000000000005</v>
+        <v>0.75349999999999995</v>
       </c>
       <c r="F86">
-        <v>0.76597999999999999</v>
+        <v>0.75634000000000001</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>0.90500000000000025</v>
+        <v>0.73299999999999477</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2719,23 +2719,23 @@
         <v>9</v>
       </c>
       <c r="B87" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C87">
-        <v>0.76675000000000004</v>
+        <v>0.76444999999999996</v>
       </c>
       <c r="D87">
-        <v>0.77288999999999997</v>
+        <v>0.76998</v>
       </c>
       <c r="E87">
-        <v>0.76383999999999996</v>
+        <v>0.76265000000000005</v>
       </c>
       <c r="F87">
-        <v>0.76482000000000006</v>
+        <v>0.76597999999999999</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>2.0939999999999959</v>
+        <v>0.90500000000000025</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2743,23 +2743,23 @@
         <v>9</v>
       </c>
       <c r="B88" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C88">
-        <v>0.78090000000000004</v>
+        <v>0.76675000000000004</v>
       </c>
       <c r="D88">
-        <v>0.78337000000000001</v>
+        <v>0.77288999999999997</v>
       </c>
       <c r="E88">
-        <v>0.76243000000000005</v>
+        <v>0.76383999999999996</v>
       </c>
       <c r="F88">
-        <v>0.76749000000000001</v>
+        <v>0.76482000000000006</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>0.81299999999999706</v>
+        <v>2.0939999999999959</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2767,23 +2767,23 @@
         <v>9</v>
       </c>
       <c r="B89" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C89">
-        <v>0.78793000000000002</v>
+        <v>0.78090000000000004</v>
       </c>
       <c r="D89">
-        <v>0.78888000000000003</v>
+        <v>0.78337000000000001</v>
       </c>
       <c r="E89">
-        <v>0.78075000000000006</v>
+        <v>0.76243000000000005</v>
       </c>
       <c r="F89">
-        <v>0.78151999999999999</v>
+        <v>0.76749000000000001</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>1.4969999999999928</v>
+        <v>0.81299999999999706</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2791,23 +2791,23 @@
         <v>9</v>
       </c>
       <c r="B90" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C90">
-        <v>0.77712000000000003</v>
+        <v>0.78793000000000002</v>
       </c>
       <c r="D90">
-        <v>0.78964999999999996</v>
+        <v>0.78888000000000003</v>
       </c>
       <c r="E90">
-        <v>0.77468000000000004</v>
+        <v>0.78075000000000006</v>
       </c>
       <c r="F90">
-        <v>0.78856999999999999</v>
+        <v>0.78151999999999999</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>1.4209999999999945</v>
+        <v>1.4969999999999928</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2815,23 +2815,23 @@
         <v>9</v>
       </c>
       <c r="B91" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C91">
-        <v>0.78303</v>
+        <v>0.77712000000000003</v>
       </c>
       <c r="D91">
-        <v>0.78742999999999996</v>
+        <v>0.78964999999999996</v>
       </c>
       <c r="E91">
-        <v>0.77322000000000002</v>
+        <v>0.77468000000000004</v>
       </c>
       <c r="F91">
-        <v>0.77722999999999998</v>
+        <v>0.78856999999999999</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>1.7419999999999991</v>
+        <v>1.4209999999999945</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2839,23 +2839,23 @@
         <v>9</v>
       </c>
       <c r="B92" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C92">
-        <v>0.79491999999999996</v>
+        <v>0.78303</v>
       </c>
       <c r="D92">
-        <v>0.79727999999999999</v>
+        <v>0.78742999999999996</v>
       </c>
       <c r="E92">
-        <v>0.77986</v>
+        <v>0.77322000000000002</v>
       </c>
       <c r="F92">
-        <v>0.78373999999999999</v>
+        <v>0.77722999999999998</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>1.9460000000000033</v>
+        <v>1.7419999999999991</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2863,23 +2863,23 @@
         <v>9</v>
       </c>
       <c r="B93" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C93">
-        <v>0.79918999999999996</v>
+        <v>0.79491999999999996</v>
       </c>
       <c r="D93">
-        <v>0.81020999999999999</v>
+        <v>0.79727999999999999</v>
       </c>
       <c r="E93">
-        <v>0.79074999999999995</v>
+        <v>0.77986</v>
       </c>
       <c r="F93">
-        <v>0.79579999999999995</v>
+        <v>0.78373999999999999</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>1.0240000000000027</v>
+        <v>1.9460000000000033</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2887,23 +2887,23 @@
         <v>9</v>
       </c>
       <c r="B94" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C94">
-        <v>0.80506</v>
+        <v>0.79918999999999996</v>
       </c>
       <c r="D94">
-        <v>0.80576000000000003</v>
+        <v>0.81020999999999999</v>
       </c>
       <c r="E94">
-        <v>0.79552</v>
+        <v>0.79074999999999995</v>
       </c>
       <c r="F94">
-        <v>0.80006999999999995</v>
+        <v>0.79579999999999995</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>1.8490000000000006</v>
+        <v>1.0240000000000027</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2911,23 +2911,23 @@
         <v>9</v>
       </c>
       <c r="B95" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C95">
-        <v>0.79459999999999997</v>
+        <v>0.80506</v>
       </c>
       <c r="D95">
-        <v>0.81242000000000003</v>
+        <v>0.80576000000000003</v>
       </c>
       <c r="E95">
-        <v>0.79393000000000002</v>
+        <v>0.79552</v>
       </c>
       <c r="F95">
-        <v>0.80552999999999997</v>
+        <v>0.80006999999999995</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>1.2620000000000076</v>
+        <v>1.8490000000000006</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2935,23 +2935,23 @@
         <v>9</v>
       </c>
       <c r="B96" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C96">
-        <v>0.79290000000000005</v>
+        <v>0.79459999999999997</v>
       </c>
       <c r="D96">
-        <v>0.79949000000000003</v>
+        <v>0.81242000000000003</v>
       </c>
       <c r="E96">
-        <v>0.78686999999999996</v>
+        <v>0.79393000000000002</v>
       </c>
       <c r="F96">
-        <v>0.79657999999999995</v>
+        <v>0.80552999999999997</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>0.878000000000001</v>
+        <v>1.2620000000000076</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2959,23 +2959,23 @@
         <v>9</v>
       </c>
       <c r="B97" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C97">
-        <v>0.79227000000000003</v>
+        <v>0.79290000000000005</v>
       </c>
       <c r="D97">
-        <v>0.79535999999999996</v>
+        <v>0.79949000000000003</v>
       </c>
       <c r="E97">
-        <v>0.78657999999999995</v>
+        <v>0.78686999999999996</v>
       </c>
       <c r="F97">
-        <v>0.79344999999999999</v>
+        <v>0.79657999999999995</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>1.5479999999999938</v>
+        <v>0.878000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2983,23 +2983,23 @@
         <v>9</v>
       </c>
       <c r="B98" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C98">
-        <v>0.78866000000000003</v>
+        <v>0.79227000000000003</v>
       </c>
       <c r="D98">
-        <v>0.79618999999999995</v>
+        <v>0.79535999999999996</v>
       </c>
       <c r="E98">
-        <v>0.78071000000000002</v>
+        <v>0.78657999999999995</v>
       </c>
       <c r="F98">
-        <v>0.79315000000000002</v>
+        <v>0.79344999999999999</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>1.0929999999999995</v>
+        <v>1.5479999999999938</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3007,23 +3007,23 @@
         <v>9</v>
       </c>
       <c r="B99" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C99">
-        <v>0.79239000000000004</v>
+        <v>0.78866000000000003</v>
       </c>
       <c r="D99">
-        <v>0.79476999999999998</v>
+        <v>0.79618999999999995</v>
       </c>
       <c r="E99">
-        <v>0.78383999999999998</v>
+        <v>0.78071000000000002</v>
       </c>
       <c r="F99">
-        <v>0.78922000000000003</v>
+        <v>0.79315000000000002</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>1.5159999999999951</v>
+        <v>1.0929999999999995</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3031,23 +3031,23 @@
         <v>9</v>
       </c>
       <c r="B100" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C100">
-        <v>0.79784999999999995</v>
+        <v>0.79239000000000004</v>
       </c>
       <c r="D100">
-        <v>0.80420999999999998</v>
+        <v>0.79476999999999998</v>
       </c>
       <c r="E100">
-        <v>0.78905000000000003</v>
+        <v>0.78383999999999998</v>
       </c>
       <c r="F100">
-        <v>0.79290000000000005</v>
+        <v>0.78922000000000003</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>1.8769999999999953</v>
+        <v>1.5159999999999951</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3055,23 +3055,23 @@
         <v>9</v>
       </c>
       <c r="B101" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C101">
-        <v>0.79066999999999998</v>
+        <v>0.79784999999999995</v>
       </c>
       <c r="D101">
-        <v>0.80647999999999997</v>
+        <v>0.80420999999999998</v>
       </c>
       <c r="E101">
-        <v>0.78771000000000002</v>
+        <v>0.78905000000000003</v>
       </c>
       <c r="F101">
-        <v>0.79871999999999999</v>
+        <v>0.79290000000000005</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>2.0009999999999972</v>
+        <v>1.8769999999999953</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3079,23 +3079,23 @@
         <v>9</v>
       </c>
       <c r="B102" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C102">
-        <v>0.78200000000000003</v>
+        <v>0.79066999999999998</v>
       </c>
       <c r="D102">
-        <v>0.79857</v>
+        <v>0.80647999999999997</v>
       </c>
       <c r="E102">
-        <v>0.77856000000000003</v>
+        <v>0.78771000000000002</v>
       </c>
       <c r="F102">
-        <v>0.79171999999999998</v>
+        <v>0.79871999999999999</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>2.4769999999999959</v>
+        <v>2.0009999999999972</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3103,23 +3103,23 @@
         <v>9</v>
       </c>
       <c r="B103" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C103">
-        <v>0.75924000000000003</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="D103">
-        <v>0.78332999999999997</v>
+        <v>0.79857</v>
       </c>
       <c r="E103">
-        <v>0.75856000000000001</v>
+        <v>0.77856000000000003</v>
       </c>
       <c r="F103">
-        <v>0.78276999999999997</v>
+        <v>0.79171999999999998</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>1.2429999999999941</v>
+        <v>2.4769999999999959</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3127,23 +3127,23 @@
         <v>9</v>
       </c>
       <c r="B104" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C104">
-        <v>0.76751999999999998</v>
+        <v>0.75924000000000003</v>
       </c>
       <c r="D104">
-        <v>0.76946999999999999</v>
+        <v>0.78332999999999997</v>
       </c>
       <c r="E104">
-        <v>0.75704000000000005</v>
+        <v>0.75856000000000001</v>
       </c>
       <c r="F104">
-        <v>0.76002999999999998</v>
+        <v>0.78276999999999997</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>1.5199999999999991</v>
+        <v>1.2429999999999941</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3151,23 +3151,23 @@
         <v>9</v>
       </c>
       <c r="B105" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C105">
-        <v>0.75614000000000003</v>
+        <v>0.76751999999999998</v>
       </c>
       <c r="D105">
-        <v>0.77115999999999996</v>
+        <v>0.76946999999999999</v>
       </c>
       <c r="E105">
-        <v>0.75595999999999997</v>
+        <v>0.75704000000000005</v>
       </c>
       <c r="F105">
-        <v>0.76876999999999995</v>
+        <v>0.76002999999999998</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>0.9380000000000055</v>
+        <v>1.5199999999999991</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3175,23 +3175,23 @@
         <v>9</v>
       </c>
       <c r="B106" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C106">
-        <v>0.76168999999999998</v>
+        <v>0.75614000000000003</v>
       </c>
       <c r="D106">
-        <v>0.76282000000000005</v>
+        <v>0.77115999999999996</v>
       </c>
       <c r="E106">
-        <v>0.75344</v>
+        <v>0.75595999999999997</v>
       </c>
       <c r="F106">
-        <v>0.75687000000000004</v>
+        <v>0.76876999999999995</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>1.1369999999999991</v>
+        <v>0.9380000000000055</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3199,23 +3199,23 @@
         <v>9</v>
       </c>
       <c r="B107" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C107">
-        <v>0.75270999999999999</v>
+        <v>0.76168999999999998</v>
       </c>
       <c r="D107">
-        <v>0.76346999999999998</v>
+        <v>0.76282000000000005</v>
       </c>
       <c r="E107">
-        <v>0.75209999999999999</v>
+        <v>0.75344</v>
       </c>
       <c r="F107">
-        <v>0.76209000000000005</v>
+        <v>0.75687000000000004</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>1.4440000000000008</v>
+        <v>1.1369999999999991</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3223,23 +3223,23 @@
         <v>9</v>
       </c>
       <c r="B108" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C108">
-        <v>0.74268999999999996</v>
+        <v>0.75270999999999999</v>
       </c>
       <c r="D108">
-        <v>0.75658000000000003</v>
+        <v>0.76346999999999998</v>
       </c>
       <c r="E108">
-        <v>0.74214000000000002</v>
+        <v>0.75209999999999999</v>
       </c>
       <c r="F108">
-        <v>0.75295000000000001</v>
+        <v>0.76209000000000005</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>1.0660000000000003</v>
+        <v>1.4440000000000008</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3247,23 +3247,23 @@
         <v>9</v>
       </c>
       <c r="B109" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C109">
-        <v>0.74346000000000001</v>
+        <v>0.74268999999999996</v>
       </c>
       <c r="D109">
-        <v>0.74750000000000005</v>
+        <v>0.75658000000000003</v>
       </c>
       <c r="E109">
-        <v>0.73684000000000005</v>
+        <v>0.74214000000000002</v>
       </c>
       <c r="F109">
-        <v>0.74436999999999998</v>
+        <v>0.75295000000000001</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>0.95100000000000184</v>
+        <v>1.0660000000000003</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3271,23 +3271,23 @@
         <v>9</v>
       </c>
       <c r="B110" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C110">
-        <v>0.74422999999999995</v>
+        <v>0.74346000000000001</v>
       </c>
       <c r="D110">
-        <v>0.75163999999999997</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="E110">
-        <v>0.74212999999999996</v>
+        <v>0.73684000000000005</v>
       </c>
       <c r="F110">
-        <v>0.74441000000000002</v>
+        <v>0.74436999999999998</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>0.85000000000000631</v>
+        <v>0.95100000000000184</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3295,23 +3295,23 @@
         <v>9</v>
       </c>
       <c r="B111" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C111">
-        <v>0.73892999999999998</v>
+        <v>0.74422999999999995</v>
       </c>
       <c r="D111">
-        <v>0.74690000000000001</v>
+        <v>0.75163999999999997</v>
       </c>
       <c r="E111">
-        <v>0.73839999999999995</v>
+        <v>0.74212999999999996</v>
       </c>
       <c r="F111">
-        <v>0.74565000000000003</v>
+        <v>0.74441000000000002</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>0.95499999999999474</v>
+        <v>0.85000000000000631</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3319,23 +3319,23 @@
         <v>9</v>
       </c>
       <c r="B112" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C112">
-        <v>0.74063000000000001</v>
+        <v>0.73892999999999998</v>
       </c>
       <c r="D112">
-        <v>0.74236999999999997</v>
+        <v>0.74690000000000001</v>
       </c>
       <c r="E112">
-        <v>0.73282000000000003</v>
+        <v>0.73839999999999995</v>
       </c>
       <c r="F112">
-        <v>0.73889000000000005</v>
+        <v>0.74565000000000003</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>1.8850000000000033</v>
+        <v>0.95499999999999474</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3343,23 +3343,23 @@
         <v>9</v>
       </c>
       <c r="B113" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C113">
-        <v>0.74783999999999995</v>
+        <v>0.74063000000000001</v>
       </c>
       <c r="D113">
-        <v>0.75553000000000003</v>
+        <v>0.74236999999999997</v>
       </c>
       <c r="E113">
-        <v>0.73668</v>
+        <v>0.73282000000000003</v>
       </c>
       <c r="F113">
-        <v>0.74177000000000004</v>
+        <v>0.73889000000000005</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>1.4440000000000008</v>
+        <v>1.8850000000000033</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3367,23 +3367,23 @@
         <v>9</v>
       </c>
       <c r="B114" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C114">
-        <v>0.75627999999999995</v>
+        <v>0.74783999999999995</v>
       </c>
       <c r="D114">
-        <v>0.75836999999999999</v>
+        <v>0.75553000000000003</v>
       </c>
       <c r="E114">
-        <v>0.74392999999999998</v>
+        <v>0.73668</v>
       </c>
       <c r="F114">
-        <v>0.74875000000000003</v>
+        <v>0.74177000000000004</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>1.1960000000000082</v>
+        <v>1.4440000000000008</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3391,23 +3391,23 @@
         <v>9</v>
       </c>
       <c r="B115" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C115">
-        <v>0.75727</v>
+        <v>0.75627999999999995</v>
       </c>
       <c r="D115">
-        <v>0.76099000000000006</v>
+        <v>0.75836999999999999</v>
       </c>
       <c r="E115">
-        <v>0.74902999999999997</v>
+        <v>0.74392999999999998</v>
       </c>
       <c r="F115">
-        <v>0.75410999999999995</v>
+        <v>0.74875000000000003</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>1.2279999999999958</v>
+        <v>1.1960000000000082</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3415,23 +3415,23 @@
         <v>9</v>
       </c>
       <c r="B116" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C116">
-        <v>0.74934999999999996</v>
+        <v>0.75727</v>
       </c>
       <c r="D116">
-        <v>0.75949</v>
+        <v>0.76099000000000006</v>
       </c>
       <c r="E116">
-        <v>0.74721000000000004</v>
+        <v>0.74902999999999997</v>
       </c>
       <c r="F116">
-        <v>0.75749</v>
+        <v>0.75410999999999995</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>1.4639999999999986</v>
+        <v>1.2279999999999958</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3439,23 +3439,23 @@
         <v>9</v>
       </c>
       <c r="B117" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C117">
-        <v>0.76273000000000002</v>
+        <v>0.74934999999999996</v>
       </c>
       <c r="D117">
-        <v>0.76395999999999997</v>
+        <v>0.75949</v>
       </c>
       <c r="E117">
-        <v>0.74931999999999999</v>
+        <v>0.74721000000000004</v>
       </c>
       <c r="F117">
-        <v>0.75022</v>
+        <v>0.75749</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>0.92100000000000515</v>
+        <v>1.4639999999999986</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3463,23 +3463,23 @@
         <v>9</v>
       </c>
       <c r="B118" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C118">
-        <v>0.76283000000000001</v>
+        <v>0.76273000000000002</v>
       </c>
       <c r="D118">
-        <v>0.76787000000000005</v>
+        <v>0.76395999999999997</v>
       </c>
       <c r="E118">
-        <v>0.75866</v>
+        <v>0.74931999999999999</v>
       </c>
       <c r="F118">
-        <v>0.76324999999999998</v>
+        <v>0.75022</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>1.4569999999999972</v>
+        <v>0.92100000000000515</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3487,23 +3487,23 @@
         <v>9</v>
       </c>
       <c r="B119" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C119">
-        <v>0.76948000000000005</v>
+        <v>0.76283000000000001</v>
       </c>
       <c r="D119">
-        <v>0.77488999999999997</v>
+        <v>0.76787000000000005</v>
       </c>
       <c r="E119">
-        <v>0.76032</v>
+        <v>0.75866</v>
       </c>
       <c r="F119">
-        <v>0.76236999999999999</v>
+        <v>0.76324999999999998</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>1.8540000000000001</v>
+        <v>1.4569999999999972</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3511,23 +3511,23 @@
         <v>9</v>
       </c>
       <c r="B120" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C120">
-        <v>0.75424999999999998</v>
+        <v>0.76948000000000005</v>
       </c>
       <c r="D120">
-        <v>0.77185000000000004</v>
+        <v>0.77488999999999997</v>
       </c>
       <c r="E120">
-        <v>0.75331000000000004</v>
+        <v>0.76032</v>
       </c>
       <c r="F120">
-        <v>0.7702</v>
+        <v>0.76236999999999999</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>1.4140000000000041</v>
+        <v>1.8540000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3535,23 +3535,23 @@
         <v>9</v>
       </c>
       <c r="B121" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C121">
-        <v>0.75839000000000001</v>
+        <v>0.75424999999999998</v>
       </c>
       <c r="D121">
-        <v>0.76319999999999999</v>
+        <v>0.77185000000000004</v>
       </c>
       <c r="E121">
-        <v>0.74905999999999995</v>
+        <v>0.75331000000000004</v>
       </c>
       <c r="F121">
-        <v>0.75453999999999999</v>
+        <v>0.7702</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>1.6470000000000096</v>
+        <v>1.4140000000000041</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3559,23 +3559,23 @@
         <v>9</v>
       </c>
       <c r="B122" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C122">
-        <v>0.76766999999999996</v>
+        <v>0.75839000000000001</v>
       </c>
       <c r="D122">
-        <v>0.77070000000000005</v>
+        <v>0.76319999999999999</v>
       </c>
       <c r="E122">
-        <v>0.75422999999999996</v>
+        <v>0.74905999999999995</v>
       </c>
       <c r="F122">
-        <v>0.75915999999999995</v>
+        <v>0.75453999999999999</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>0.91099999999999515</v>
+        <v>1.6470000000000096</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3583,23 +3583,23 @@
         <v>9</v>
       </c>
       <c r="B123" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C123">
-        <v>0.76688000000000001</v>
+        <v>0.76766999999999996</v>
       </c>
       <c r="D123">
-        <v>0.77398999999999996</v>
+        <v>0.77070000000000005</v>
       </c>
       <c r="E123">
-        <v>0.76488</v>
+        <v>0.75422999999999996</v>
       </c>
       <c r="F123">
-        <v>0.76700000000000002</v>
+        <v>0.75915999999999995</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>1.1419999999999986</v>
+        <v>0.91099999999999515</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3607,23 +3607,23 @@
         <v>9</v>
       </c>
       <c r="B124" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C124">
-        <v>0.76758000000000004</v>
+        <v>0.76688000000000001</v>
       </c>
       <c r="D124">
-        <v>0.77315</v>
+        <v>0.77398999999999996</v>
       </c>
       <c r="E124">
-        <v>0.76173000000000002</v>
+        <v>0.76488</v>
       </c>
       <c r="F124">
-        <v>0.76671</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>0.82800000000000651</v>
+        <v>1.1419999999999986</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3631,23 +3631,23 @@
         <v>9</v>
       </c>
       <c r="B125" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C125">
-        <v>0.76717999999999997</v>
+        <v>0.76758000000000004</v>
       </c>
       <c r="D125">
-        <v>0.76880000000000004</v>
+        <v>0.77315</v>
       </c>
       <c r="E125">
-        <v>0.76051999999999997</v>
+        <v>0.76173000000000002</v>
       </c>
       <c r="F125">
-        <v>0.76724999999999999</v>
+        <v>0.76671</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>1.6839999999999966</v>
+        <v>0.82800000000000651</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3655,23 +3655,23 @@
         <v>9</v>
       </c>
       <c r="B126" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C126">
-        <v>0.75570999999999999</v>
+        <v>0.76717999999999997</v>
       </c>
       <c r="D126">
-        <v>0.76954</v>
+        <v>0.76880000000000004</v>
       </c>
       <c r="E126">
-        <v>0.75270000000000004</v>
+        <v>0.76051999999999997</v>
       </c>
       <c r="F126">
-        <v>0.76766000000000001</v>
+        <v>0.76724999999999999</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>0.97500000000000364</v>
+        <v>1.6839999999999966</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3679,23 +3679,23 @@
         <v>9</v>
       </c>
       <c r="B127" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C127">
-        <v>0.75461</v>
+        <v>0.75570999999999999</v>
       </c>
       <c r="D127">
-        <v>0.76082000000000005</v>
+        <v>0.76954</v>
       </c>
       <c r="E127">
-        <v>0.75107000000000002</v>
+        <v>0.75270000000000004</v>
       </c>
       <c r="F127">
-        <v>0.75451999999999997</v>
+        <v>0.76766000000000001</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>1.3070000000000026</v>
+        <v>0.97500000000000364</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3703,23 +3703,23 @@
         <v>9</v>
       </c>
       <c r="B128" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C128">
-        <v>0.74709999999999999</v>
+        <v>0.75461</v>
       </c>
       <c r="D128">
-        <v>0.75880999999999998</v>
+        <v>0.76082000000000005</v>
       </c>
       <c r="E128">
-        <v>0.74573999999999996</v>
+        <v>0.75107000000000002</v>
       </c>
       <c r="F128">
-        <v>0.75544</v>
+        <v>0.75451999999999997</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>2.3010000000000086</v>
+        <v>1.3070000000000026</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3727,23 +3727,23 @@
         <v>9</v>
       </c>
       <c r="B129" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C129">
-        <v>0.72916999999999998</v>
+        <v>0.74709999999999999</v>
       </c>
       <c r="D129">
-        <v>0.75177000000000005</v>
+        <v>0.75880999999999998</v>
       </c>
       <c r="E129">
-        <v>0.72875999999999996</v>
+        <v>0.74573999999999996</v>
       </c>
       <c r="F129">
-        <v>0.75016000000000005</v>
+        <v>0.75544</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>1.7930000000000001</v>
+        <v>2.3010000000000086</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3751,23 +3751,23 @@
         <v>9</v>
       </c>
       <c r="B130" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C130">
-        <v>0.7177</v>
+        <v>0.72916999999999998</v>
       </c>
       <c r="D130">
-        <v>0.73560999999999999</v>
+        <v>0.75177000000000005</v>
       </c>
       <c r="E130">
-        <v>0.71767999999999998</v>
+        <v>0.72875999999999996</v>
       </c>
       <c r="F130">
-        <v>0.72940000000000005</v>
+        <v>0.75016000000000005</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>0.94800000000000439</v>
+        <v>1.7930000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3775,23 +3775,23 @@
         <v>9</v>
       </c>
       <c r="B131" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C131">
-        <v>0.71531999999999996</v>
+        <v>0.7177</v>
       </c>
       <c r="D131">
-        <v>0.72460000000000002</v>
+        <v>0.73560999999999999</v>
       </c>
       <c r="E131">
-        <v>0.71511999999999998</v>
+        <v>0.71767999999999998</v>
       </c>
       <c r="F131">
-        <v>0.72065000000000001</v>
+        <v>0.72940000000000005</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>1.5290000000000026</v>
+        <v>0.94800000000000439</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3799,23 +3799,23 @@
         <v>9</v>
       </c>
       <c r="B132" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C132">
-        <v>0.72782999999999998</v>
+        <v>0.71531999999999996</v>
       </c>
       <c r="D132">
-        <v>0.73121999999999998</v>
+        <v>0.72460000000000002</v>
       </c>
       <c r="E132">
-        <v>0.71592999999999996</v>
+        <v>0.71511999999999998</v>
       </c>
       <c r="F132">
-        <v>0.71763999999999994</v>
+        <v>0.72065000000000001</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>2.5859999999999994</v>
+        <v>1.5290000000000026</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3823,23 +3823,23 @@
         <v>9</v>
       </c>
       <c r="B133" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C133">
-        <v>0.74422999999999995</v>
+        <v>0.72782999999999998</v>
       </c>
       <c r="D133">
-        <v>0.75239999999999996</v>
+        <v>0.73121999999999998</v>
       </c>
       <c r="E133">
-        <v>0.72653999999999996</v>
+        <v>0.71592999999999996</v>
       </c>
       <c r="F133">
-        <v>0.72962000000000005</v>
+        <v>0.71763999999999994</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>0.97300000000000164</v>
+        <v>2.5859999999999994</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3847,23 +3847,23 @@
         <v>9</v>
       </c>
       <c r="B134" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C134">
-        <v>0.74483999999999995</v>
+        <v>0.74422999999999995</v>
       </c>
       <c r="D134">
-        <v>0.75072000000000005</v>
+        <v>0.75239999999999996</v>
       </c>
       <c r="E134">
-        <v>0.74099000000000004</v>
+        <v>0.72653999999999996</v>
       </c>
       <c r="F134">
-        <v>0.74485999999999997</v>
+        <v>0.72962000000000005</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>1.2739999999999974</v>
+        <v>0.97300000000000164</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3871,23 +3871,23 @@
         <v>9</v>
       </c>
       <c r="B135" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C135">
-        <v>0.74397000000000002</v>
+        <v>0.74483999999999995</v>
       </c>
       <c r="D135">
-        <v>0.74968000000000001</v>
+        <v>0.75072000000000005</v>
       </c>
       <c r="E135">
-        <v>0.73694000000000004</v>
+        <v>0.74099000000000004</v>
       </c>
       <c r="F135">
-        <v>0.74577000000000004</v>
+        <v>0.74485999999999997</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>1.5720000000000067</v>
+        <v>1.2739999999999974</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3895,23 +3895,23 @@
         <v>9</v>
       </c>
       <c r="B136" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C136">
-        <v>0.73265000000000002</v>
+        <v>0.74397000000000002</v>
       </c>
       <c r="D136">
-        <v>0.74675000000000002</v>
+        <v>0.74968000000000001</v>
       </c>
       <c r="E136">
-        <v>0.73102999999999996</v>
+        <v>0.73694000000000004</v>
       </c>
       <c r="F136">
-        <v>0.74339</v>
+        <v>0.74577000000000004</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>2.5100000000000011</v>
+        <v>1.5720000000000067</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3919,23 +3919,23 @@
         <v>9</v>
       </c>
       <c r="B137" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C137">
-        <v>0.75412999999999997</v>
+        <v>0.73265000000000002</v>
       </c>
       <c r="D137">
-        <v>0.75805999999999996</v>
+        <v>0.74675000000000002</v>
       </c>
       <c r="E137">
-        <v>0.73295999999999994</v>
+        <v>0.73102999999999996</v>
       </c>
       <c r="F137">
-        <v>0.73390999999999995</v>
+        <v>0.74339</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>2.5270000000000015</v>
+        <v>2.5100000000000011</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3943,23 +3943,23 @@
         <v>9</v>
       </c>
       <c r="B138" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C138">
-        <v>0.76704000000000006</v>
+        <v>0.75412999999999997</v>
       </c>
       <c r="D138">
-        <v>0.77771999999999997</v>
+        <v>0.75805999999999996</v>
       </c>
       <c r="E138">
-        <v>0.75244999999999995</v>
+        <v>0.73295999999999994</v>
       </c>
       <c r="F138">
-        <v>0.75505999999999995</v>
+        <v>0.73390999999999995</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>1.1319999999999997</v>
+        <v>2.5270000000000015</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3967,23 +3967,23 @@
         <v>9</v>
       </c>
       <c r="B139" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C139">
-        <v>0.75932999999999995</v>
+        <v>0.76704000000000006</v>
       </c>
       <c r="D139">
-        <v>0.76956999999999998</v>
+        <v>0.77771999999999997</v>
       </c>
       <c r="E139">
-        <v>0.75824999999999998</v>
+        <v>0.75244999999999995</v>
       </c>
       <c r="F139">
-        <v>0.76776</v>
+        <v>0.75505999999999995</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>1.5449999999999964</v>
+        <v>1.1319999999999997</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3991,23 +3991,23 @@
         <v>9</v>
       </c>
       <c r="B140" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C140">
-        <v>0.76</v>
+        <v>0.75932999999999995</v>
       </c>
       <c r="D140">
-        <v>0.77081</v>
+        <v>0.76956999999999998</v>
       </c>
       <c r="E140">
-        <v>0.75536000000000003</v>
+        <v>0.75824999999999998</v>
       </c>
       <c r="F140">
-        <v>0.75963000000000003</v>
+        <v>0.76776</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>1.5339999999999909</v>
+        <v>1.5449999999999964</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4015,23 +4015,23 @@
         <v>9</v>
       </c>
       <c r="B141" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C141">
-        <v>0.76132</v>
+        <v>0.76</v>
       </c>
       <c r="D141">
-        <v>0.77337999999999996</v>
+        <v>0.77081</v>
       </c>
       <c r="E141">
-        <v>0.75804000000000005</v>
+        <v>0.75536000000000003</v>
       </c>
       <c r="F141">
-        <v>0.76032999999999995</v>
+        <v>0.75963000000000003</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>1.4100000000000001</v>
+        <v>1.5339999999999909</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4039,23 +4039,23 @@
         <v>9</v>
       </c>
       <c r="B142" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C142">
-        <v>0.75856000000000001</v>
+        <v>0.76132</v>
       </c>
       <c r="D142">
-        <v>0.76468000000000003</v>
+        <v>0.77337999999999996</v>
       </c>
       <c r="E142">
-        <v>0.75058000000000002</v>
+        <v>0.75804000000000005</v>
       </c>
       <c r="F142">
-        <v>0.76115999999999995</v>
+        <v>0.76032999999999995</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>1.3789999999999969</v>
+        <v>1.4100000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4063,23 +4063,23 @@
         <v>9</v>
       </c>
       <c r="B143" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C143">
-        <v>0.76563999999999999</v>
+        <v>0.75856000000000001</v>
       </c>
       <c r="D143">
-        <v>0.76902999999999999</v>
+        <v>0.76468000000000003</v>
       </c>
       <c r="E143">
-        <v>0.75524000000000002</v>
+        <v>0.75058000000000002</v>
       </c>
       <c r="F143">
-        <v>0.75838000000000005</v>
+        <v>0.76115999999999995</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>1.2029999999999985</v>
+        <v>1.3789999999999969</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4087,23 +4087,23 @@
         <v>9</v>
       </c>
       <c r="B144" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C144">
-        <v>0.76110999999999995</v>
+        <v>0.76563999999999999</v>
       </c>
       <c r="D144">
-        <v>0.77093</v>
+        <v>0.76902999999999999</v>
       </c>
       <c r="E144">
-        <v>0.75890000000000002</v>
+        <v>0.75524000000000002</v>
       </c>
       <c r="F144">
-        <v>0.76578999999999997</v>
+        <v>0.75838000000000005</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>1.9509999999999916</v>
+        <v>1.2029999999999985</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4111,23 +4111,23 @@
         <v>9</v>
       </c>
       <c r="B145" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C145">
-        <v>0.74789000000000005</v>
+        <v>0.76110999999999995</v>
       </c>
       <c r="D145">
-        <v>0.76739999999999997</v>
+        <v>0.77093</v>
       </c>
       <c r="E145">
-        <v>0.74789000000000005</v>
+        <v>0.75890000000000002</v>
       </c>
       <c r="F145">
-        <v>0.76232</v>
+        <v>0.76578999999999997</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>1.258999999999999</v>
+        <v>1.9509999999999916</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4135,23 +4135,23 @@
         <v>9</v>
       </c>
       <c r="B146" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C146">
-        <v>0.75371999999999995</v>
+        <v>0.74789000000000005</v>
       </c>
       <c r="D146">
-        <v>0.75670999999999999</v>
+        <v>0.76739999999999997</v>
       </c>
       <c r="E146">
-        <v>0.74412</v>
+        <v>0.74789000000000005</v>
       </c>
       <c r="F146">
-        <v>0.74914000000000003</v>
+        <v>0.76232</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>1.9469999999999987</v>
+        <v>1.258999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4159,23 +4159,23 @@
         <v>9</v>
       </c>
       <c r="B147" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C147">
-        <v>0.75682000000000005</v>
+        <v>0.75371999999999995</v>
       </c>
       <c r="D147">
-        <v>0.77315</v>
+        <v>0.75670999999999999</v>
       </c>
       <c r="E147">
-        <v>0.75368000000000002</v>
+        <v>0.74412</v>
       </c>
       <c r="F147">
-        <v>0.75392000000000003</v>
+        <v>0.74914000000000003</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>1.256999999999997</v>
+        <v>1.9469999999999987</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4183,23 +4183,23 @@
         <v>9</v>
       </c>
       <c r="B148" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C148">
-        <v>0.75485999999999998</v>
+        <v>0.75682000000000005</v>
       </c>
       <c r="D148">
-        <v>0.76149999999999995</v>
+        <v>0.77315</v>
       </c>
       <c r="E148">
-        <v>0.74892999999999998</v>
+        <v>0.75368000000000002</v>
       </c>
       <c r="F148">
-        <v>0.75678999999999996</v>
+        <v>0.75392000000000003</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>1.4009999999999967</v>
+        <v>1.256999999999997</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4207,23 +4207,23 @@
         <v>9</v>
       </c>
       <c r="B149" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C149">
-        <v>0.76068000000000002</v>
+        <v>0.75485999999999998</v>
       </c>
       <c r="D149">
-        <v>0.76905999999999997</v>
+        <v>0.76149999999999995</v>
       </c>
       <c r="E149">
-        <v>0.75505</v>
+        <v>0.74892999999999998</v>
       </c>
       <c r="F149">
-        <v>0.75619000000000003</v>
+        <v>0.75678999999999996</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>1.5029999999999988</v>
+        <v>1.4009999999999967</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4231,23 +4231,23 @@
         <v>9</v>
       </c>
       <c r="B150" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C150">
-        <v>0.76515999999999995</v>
+        <v>0.76068000000000002</v>
       </c>
       <c r="D150">
-        <v>0.77485999999999999</v>
+        <v>0.76905999999999997</v>
       </c>
       <c r="E150">
-        <v>0.75983000000000001</v>
+        <v>0.75505</v>
       </c>
       <c r="F150">
-        <v>0.76234000000000002</v>
+        <v>0.75619000000000003</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>1.5830000000000011</v>
+        <v>1.5029999999999988</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4255,23 +4255,23 @@
         <v>9</v>
       </c>
       <c r="B151" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C151">
-        <v>0.75995000000000001</v>
+        <v>0.76515999999999995</v>
       </c>
       <c r="D151">
-        <v>0.77551000000000003</v>
+        <v>0.77485999999999999</v>
       </c>
       <c r="E151">
-        <v>0.75968000000000002</v>
+        <v>0.75983000000000001</v>
       </c>
       <c r="F151">
-        <v>0.76476999999999995</v>
+        <v>0.76234000000000002</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>1.8299999999999983</v>
+        <v>1.5830000000000011</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4279,23 +4279,23 @@
         <v>9</v>
       </c>
       <c r="B152" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C152">
-        <v>0.75919999999999999</v>
+        <v>0.75995000000000001</v>
       </c>
       <c r="D152">
-        <v>0.76632999999999996</v>
+        <v>0.77551000000000003</v>
       </c>
       <c r="E152">
-        <v>0.74802999999999997</v>
+        <v>0.75968000000000002</v>
       </c>
       <c r="F152">
-        <v>0.76185000000000003</v>
+        <v>0.76476999999999995</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>1.9390000000000018</v>
+        <v>1.8299999999999983</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4303,23 +4303,23 @@
         <v>9</v>
       </c>
       <c r="B153" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C153">
-        <v>0.74589000000000005</v>
+        <v>0.75919999999999999</v>
       </c>
       <c r="D153">
-        <v>0.76095000000000002</v>
+        <v>0.76632999999999996</v>
       </c>
       <c r="E153">
-        <v>0.74156</v>
+        <v>0.74802999999999997</v>
       </c>
       <c r="F153">
-        <v>0.76034000000000002</v>
+        <v>0.76185000000000003</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>1.6380000000000061</v>
+        <v>1.9390000000000018</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4327,23 +4327,23 @@
         <v>9</v>
       </c>
       <c r="B154" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C154">
-        <v>0.75890000000000002</v>
+        <v>0.74589000000000005</v>
       </c>
       <c r="D154">
-        <v>0.76058000000000003</v>
+        <v>0.76095000000000002</v>
       </c>
       <c r="E154">
-        <v>0.74419999999999997</v>
+        <v>0.74156</v>
       </c>
       <c r="F154">
-        <v>0.74678</v>
+        <v>0.76034000000000002</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>1.5429999999999944</v>
+        <v>1.6380000000000061</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4351,23 +4351,23 @@
         <v>9</v>
       </c>
       <c r="B155" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C155">
-        <v>0.75563999999999998</v>
+        <v>0.75890000000000002</v>
       </c>
       <c r="D155">
-        <v>0.76754999999999995</v>
+        <v>0.76058000000000003</v>
       </c>
       <c r="E155">
-        <v>0.75212000000000001</v>
+        <v>0.74419999999999997</v>
       </c>
       <c r="F155">
-        <v>0.7571</v>
+        <v>0.74678</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>1.6240000000000032</v>
+        <v>1.5429999999999944</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4375,23 +4375,23 @@
         <v>9</v>
       </c>
       <c r="B156" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C156">
-        <v>0.74536999999999998</v>
+        <v>0.75563999999999998</v>
       </c>
       <c r="D156">
-        <v>0.75697000000000003</v>
+        <v>0.76754999999999995</v>
       </c>
       <c r="E156">
-        <v>0.74073</v>
+        <v>0.75212000000000001</v>
       </c>
       <c r="F156">
-        <v>0.75683</v>
+        <v>0.7571</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>1.7850000000000033</v>
+        <v>1.6240000000000032</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4399,23 +4399,23 @@
         <v>9</v>
       </c>
       <c r="B157" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C157">
-        <v>0.74158000000000002</v>
+        <v>0.74536999999999998</v>
       </c>
       <c r="D157">
-        <v>0.75021000000000004</v>
+        <v>0.75697000000000003</v>
       </c>
       <c r="E157">
-        <v>0.73236000000000001</v>
+        <v>0.74073</v>
       </c>
       <c r="F157">
-        <v>0.74922999999999995</v>
+        <v>0.75683</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>3.7110000000000087</v>
+        <v>1.7850000000000033</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4423,23 +4423,23 @@
         <v>9</v>
       </c>
       <c r="B158" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C158">
-        <v>0.74233000000000005</v>
+        <v>0.74158000000000002</v>
       </c>
       <c r="D158">
-        <v>0.76409000000000005</v>
+        <v>0.75021000000000004</v>
       </c>
       <c r="E158">
-        <v>0.72697999999999996</v>
+        <v>0.73236000000000001</v>
       </c>
       <c r="F158">
-        <v>0.74687999999999999</v>
+        <v>0.74922999999999995</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>1.6110000000000069</v>
+        <v>3.7110000000000087</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4447,23 +4447,23 @@
         <v>9</v>
       </c>
       <c r="B159" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C159">
-        <v>0.73658999999999997</v>
+        <v>0.74233000000000005</v>
       </c>
       <c r="D159">
-        <v>0.74455000000000005</v>
+        <v>0.76409000000000005</v>
       </c>
       <c r="E159">
-        <v>0.72843999999999998</v>
+        <v>0.72697999999999996</v>
       </c>
       <c r="F159">
-        <v>0.73928000000000005</v>
+        <v>0.74687999999999999</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>1.8920000000000048</v>
+        <v>1.6110000000000069</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4471,23 +4471,23 @@
         <v>9</v>
       </c>
       <c r="B160" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C160">
-        <v>0.73577999999999999</v>
+        <v>0.73658999999999997</v>
       </c>
       <c r="D160">
-        <v>0.75039</v>
+        <v>0.74455000000000005</v>
       </c>
       <c r="E160">
-        <v>0.73146999999999995</v>
+        <v>0.72843999999999998</v>
       </c>
       <c r="F160">
-        <v>0.7379</v>
+        <v>0.73928000000000005</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>2.1880000000000011</v>
+        <v>1.8920000000000048</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4495,23 +4495,23 @@
         <v>9</v>
       </c>
       <c r="B161" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C161">
-        <v>0.71752000000000005</v>
+        <v>0.73577999999999999</v>
       </c>
       <c r="D161">
-        <v>0.73670000000000002</v>
+        <v>0.75039</v>
       </c>
       <c r="E161">
-        <v>0.71482000000000001</v>
+        <v>0.73146999999999995</v>
       </c>
       <c r="F161">
-        <v>0.73660999999999999</v>
+        <v>0.7379</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>1.146999999999998</v>
+        <v>2.1880000000000011</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4519,23 +4519,23 @@
         <v>9</v>
       </c>
       <c r="B162" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C162">
-        <v>0.72241</v>
+        <v>0.71752000000000005</v>
       </c>
       <c r="D162">
-        <v>0.72589000000000004</v>
+        <v>0.73670000000000002</v>
       </c>
       <c r="E162">
-        <v>0.71442000000000005</v>
+        <v>0.71482000000000001</v>
       </c>
       <c r="F162">
-        <v>0.71877000000000002</v>
+        <v>0.73660999999999999</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>1.9020000000000037</v>
+        <v>1.146999999999998</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4543,23 +4543,23 @@
         <v>9</v>
       </c>
       <c r="B163" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C163">
-        <v>0.72543999999999997</v>
+        <v>0.72241</v>
       </c>
       <c r="D163">
-        <v>0.73655999999999999</v>
+        <v>0.72589000000000004</v>
       </c>
       <c r="E163">
-        <v>0.71753999999999996</v>
+        <v>0.71442000000000005</v>
       </c>
       <c r="F163">
-        <v>0.72240000000000004</v>
+        <v>0.71877000000000002</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>1.4800000000000035</v>
+        <v>1.9020000000000037</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4567,23 +4567,23 @@
         <v>9</v>
       </c>
       <c r="B164" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C164">
-        <v>0.73597999999999997</v>
+        <v>0.72543999999999997</v>
       </c>
       <c r="D164">
-        <v>0.74012</v>
+        <v>0.73655999999999999</v>
       </c>
       <c r="E164">
-        <v>0.72531999999999996</v>
+        <v>0.71753999999999996</v>
       </c>
       <c r="F164">
-        <v>0.72672000000000003</v>
+        <v>0.72240000000000004</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>3.781000000000001</v>
+        <v>1.4800000000000035</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4591,23 +4591,23 @@
         <v>9</v>
       </c>
       <c r="B165" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C165">
-        <v>0.76029000000000002</v>
+        <v>0.73597999999999997</v>
       </c>
       <c r="D165">
-        <v>0.77149999999999996</v>
+        <v>0.74012</v>
       </c>
       <c r="E165">
-        <v>0.73368999999999995</v>
+        <v>0.72531999999999996</v>
       </c>
       <c r="F165">
-        <v>0.73675000000000002</v>
+        <v>0.72672000000000003</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>2.2089999999999943</v>
+        <v>3.781000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4615,23 +4615,23 @@
         <v>9</v>
       </c>
       <c r="B166" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C166">
-        <v>0.77027999999999996</v>
+        <v>0.76029000000000002</v>
       </c>
       <c r="D166">
-        <v>0.77646999999999999</v>
+        <v>0.77149999999999996</v>
       </c>
       <c r="E166">
-        <v>0.75438000000000005</v>
+        <v>0.73368999999999995</v>
       </c>
       <c r="F166">
-        <v>0.76056000000000001</v>
+        <v>0.73675000000000002</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>2.033000000000007</v>
+        <v>2.2089999999999943</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4639,23 +4639,23 @@
         <v>9</v>
       </c>
       <c r="B167" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C167">
-        <v>0.76593</v>
+        <v>0.77027999999999996</v>
       </c>
       <c r="D167">
-        <v>0.78339000000000003</v>
+        <v>0.77646999999999999</v>
       </c>
       <c r="E167">
-        <v>0.76305999999999996</v>
+        <v>0.75438000000000005</v>
       </c>
       <c r="F167">
-        <v>0.77087000000000006</v>
+        <v>0.76056000000000001</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>2.0869999999999944</v>
+        <v>2.033000000000007</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4663,23 +4663,23 @@
         <v>9</v>
       </c>
       <c r="B168" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C168">
-        <v>0.75429999999999997</v>
+        <v>0.76593</v>
       </c>
       <c r="D168">
-        <v>0.77359999999999995</v>
+        <v>0.78339000000000003</v>
       </c>
       <c r="E168">
-        <v>0.75273000000000001</v>
+        <v>0.76305999999999996</v>
       </c>
       <c r="F168">
-        <v>0.77193000000000001</v>
+        <v>0.77087000000000006</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>1.8600000000000061</v>
+        <v>2.0869999999999944</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4687,23 +4687,23 @@
         <v>9</v>
       </c>
       <c r="B169" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C169">
-        <v>0.76720999999999995</v>
+        <v>0.75429999999999997</v>
       </c>
       <c r="D169">
-        <v>0.76768000000000003</v>
+        <v>0.77359999999999995</v>
       </c>
       <c r="E169">
-        <v>0.74907999999999997</v>
+        <v>0.75273000000000001</v>
       </c>
       <c r="F169">
-        <v>0.75495000000000001</v>
+        <v>0.77193000000000001</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>2.2990000000000066</v>
+        <v>1.8600000000000061</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4711,23 +4711,23 @@
         <v>9</v>
       </c>
       <c r="B170" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C170">
-        <v>0.75000999999999995</v>
+        <v>0.76720999999999995</v>
       </c>
       <c r="D170">
-        <v>0.77222000000000002</v>
+        <v>0.76768000000000003</v>
       </c>
       <c r="E170">
-        <v>0.74922999999999995</v>
+        <v>0.74907999999999997</v>
       </c>
       <c r="F170">
-        <v>0.76803999999999994</v>
+        <v>0.75495000000000001</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>1.7140000000000044</v>
+        <v>2.2990000000000066</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4735,23 +4735,23 @@
         <v>9</v>
       </c>
       <c r="B171" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C171">
-        <v>0.75905</v>
+        <v>0.75000999999999995</v>
       </c>
       <c r="D171">
-        <v>0.76480000000000004</v>
+        <v>0.77222000000000002</v>
       </c>
       <c r="E171">
-        <v>0.74765999999999999</v>
+        <v>0.74922999999999995</v>
       </c>
       <c r="F171">
-        <v>0.75031999999999999</v>
+        <v>0.76803999999999994</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>2.6569999999999983</v>
+        <v>1.7140000000000044</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4759,23 +4759,23 @@
         <v>9</v>
       </c>
       <c r="B172" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C172">
-        <v>0.75449999999999995</v>
+        <v>0.75905</v>
       </c>
       <c r="D172">
-        <v>0.76795000000000002</v>
+        <v>0.76480000000000004</v>
       </c>
       <c r="E172">
-        <v>0.74138000000000004</v>
+        <v>0.74765999999999999</v>
       </c>
       <c r="F172">
-        <v>0.76026000000000005</v>
+        <v>0.75031999999999999</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>1.9070000000000031</v>
+        <v>2.6569999999999983</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4783,23 +4783,23 @@
         <v>9</v>
       </c>
       <c r="B173" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C173">
-        <v>0.73987999999999998</v>
+        <v>0.75449999999999995</v>
       </c>
       <c r="D173">
-        <v>0.75824999999999998</v>
+        <v>0.76795000000000002</v>
       </c>
       <c r="E173">
-        <v>0.73917999999999995</v>
+        <v>0.74138000000000004</v>
       </c>
       <c r="F173">
-        <v>0.75539999999999996</v>
+        <v>0.76026000000000005</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>3.3819999999999961</v>
+        <v>1.9070000000000031</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4807,23 +4807,23 @@
         <v>9</v>
       </c>
       <c r="B174" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C174">
-        <v>0.71155999999999997</v>
+        <v>0.73987999999999998</v>
       </c>
       <c r="D174">
-        <v>0.74424000000000001</v>
+        <v>0.75824999999999998</v>
       </c>
       <c r="E174">
-        <v>0.71042000000000005</v>
+        <v>0.73917999999999995</v>
       </c>
       <c r="F174">
-        <v>0.74333000000000005</v>
+        <v>0.75539999999999996</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>1.4089999999999936</v>
+        <v>3.3819999999999961</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4831,23 +4831,23 @@
         <v>9</v>
       </c>
       <c r="B175" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C175">
-        <v>0.71506000000000003</v>
+        <v>0.71155999999999997</v>
       </c>
       <c r="D175">
-        <v>0.72582999999999998</v>
+        <v>0.74424000000000001</v>
       </c>
       <c r="E175">
-        <v>0.71174000000000004</v>
+        <v>0.71042000000000005</v>
       </c>
       <c r="F175">
-        <v>0.71289000000000002</v>
+        <v>0.74333000000000005</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>1.1770000000000058</v>
+        <v>1.4089999999999936</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4855,23 +4855,23 @@
         <v>9</v>
       </c>
       <c r="B176" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C176">
-        <v>0.71013000000000004</v>
+        <v>0.71506000000000003</v>
       </c>
       <c r="D176">
-        <v>0.71860000000000002</v>
+        <v>0.72582999999999998</v>
       </c>
       <c r="E176">
-        <v>0.70682999999999996</v>
+        <v>0.71174000000000004</v>
       </c>
       <c r="F176">
-        <v>0.71484000000000003</v>
+        <v>0.71289000000000002</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>1.7590000000000106</v>
+        <v>1.1770000000000058</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4879,23 +4879,23 @@
         <v>9</v>
       </c>
       <c r="B177" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C177">
-        <v>0.70620000000000005</v>
+        <v>0.71013000000000004</v>
       </c>
       <c r="D177">
-        <v>0.71486000000000005</v>
+        <v>0.71860000000000002</v>
       </c>
       <c r="E177">
-        <v>0.69726999999999995</v>
+        <v>0.70682999999999996</v>
       </c>
       <c r="F177">
-        <v>0.71040999999999999</v>
+        <v>0.71484000000000003</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>2.3969999999999936</v>
+        <v>1.7590000000000106</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4903,23 +4903,23 @@
         <v>9</v>
       </c>
       <c r="B178" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C178">
-        <v>0.70735000000000003</v>
+        <v>0.70620000000000005</v>
       </c>
       <c r="D178">
-        <v>0.72419999999999995</v>
+        <v>0.71486000000000005</v>
       </c>
       <c r="E178">
-        <v>0.70023000000000002</v>
+        <v>0.69726999999999995</v>
       </c>
       <c r="F178">
-        <v>0.70723999999999998</v>
+        <v>0.71040999999999999</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>2.2179999999999978</v>
+        <v>2.3969999999999936</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4927,23 +4927,23 @@
         <v>9</v>
       </c>
       <c r="B179" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C179">
-        <v>0.69959000000000005</v>
+        <v>0.70735000000000003</v>
       </c>
       <c r="D179">
-        <v>0.71399999999999997</v>
+        <v>0.72419999999999995</v>
       </c>
       <c r="E179">
-        <v>0.69181999999999999</v>
+        <v>0.70023000000000002</v>
       </c>
       <c r="F179">
-        <v>0.70796999999999999</v>
+        <v>0.70723999999999998</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>2.1780000000000022</v>
+        <v>2.2179999999999978</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4951,23 +4951,23 @@
         <v>9</v>
       </c>
       <c r="B180" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C180">
-        <v>0.68283000000000005</v>
+        <v>0.69959000000000005</v>
       </c>
       <c r="D180">
-        <v>0.70452000000000004</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="E180">
-        <v>0.68274000000000001</v>
+        <v>0.69181999999999999</v>
       </c>
       <c r="F180">
-        <v>0.70030999999999999</v>
+        <v>0.70796999999999999</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>2.2139999999999938</v>
+        <v>2.1780000000000022</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4975,23 +4975,23 @@
         <v>9</v>
       </c>
       <c r="B181" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C181">
-        <v>0.69662000000000002</v>
+        <v>0.68283000000000005</v>
       </c>
       <c r="D181">
-        <v>0.70477999999999996</v>
+        <v>0.70452000000000004</v>
       </c>
       <c r="E181">
-        <v>0.68264000000000002</v>
+        <v>0.68274000000000001</v>
       </c>
       <c r="F181">
-        <v>0.68705000000000005</v>
+        <v>0.70030999999999999</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>3.3689999999999998</v>
+        <v>2.2139999999999938</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -4999,23 +4999,23 @@
         <v>9</v>
       </c>
       <c r="B182" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C182">
-        <v>0.72765999999999997</v>
+        <v>0.69662000000000002</v>
       </c>
       <c r="D182">
-        <v>0.72989999999999999</v>
+        <v>0.70477999999999996</v>
       </c>
       <c r="E182">
-        <v>0.69621</v>
+        <v>0.68264000000000002</v>
       </c>
       <c r="F182">
-        <v>0.69655999999999996</v>
+        <v>0.68705000000000005</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>0.82400000000000251</v>
+        <v>3.3689999999999998</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5023,23 +5023,23 @@
         <v>9</v>
       </c>
       <c r="B183" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C183">
-        <v>0.7268</v>
+        <v>0.72765999999999997</v>
       </c>
       <c r="D183">
-        <v>0.73267000000000004</v>
+        <v>0.72989999999999999</v>
       </c>
       <c r="E183">
-        <v>0.72443000000000002</v>
+        <v>0.69621</v>
       </c>
       <c r="F183">
-        <v>0.72809000000000001</v>
+        <v>0.69655999999999996</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>1.3170000000000015</v>
+        <v>0.82400000000000251</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5047,23 +5047,23 @@
         <v>9</v>
       </c>
       <c r="B184" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C184">
-        <v>0.71592</v>
+        <v>0.7268</v>
       </c>
       <c r="D184">
-        <v>0.72863</v>
+        <v>0.73267000000000004</v>
       </c>
       <c r="E184">
-        <v>0.71545999999999998</v>
+        <v>0.72443000000000002</v>
       </c>
       <c r="F184">
-        <v>0.72785</v>
+        <v>0.72809000000000001</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>1.8630000000000035</v>
+        <v>1.3170000000000015</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5071,23 +5071,23 @@
         <v>9</v>
       </c>
       <c r="B185" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C185">
-        <v>0.72009999999999996</v>
+        <v>0.71592</v>
       </c>
       <c r="D185">
-        <v>0.72824</v>
+        <v>0.72863</v>
       </c>
       <c r="E185">
-        <v>0.70960999999999996</v>
+        <v>0.71545999999999998</v>
       </c>
       <c r="F185">
-        <v>0.71733999999999998</v>
+        <v>0.72785</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>1.7079999999999984</v>
+        <v>1.8630000000000035</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5095,23 +5095,23 @@
         <v>9</v>
       </c>
       <c r="B186" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C186">
-        <v>0.73360999999999998</v>
+        <v>0.72009999999999996</v>
       </c>
       <c r="D186">
-        <v>0.73421999999999998</v>
+        <v>0.72824</v>
       </c>
       <c r="E186">
-        <v>0.71714</v>
+        <v>0.70960999999999996</v>
       </c>
       <c r="F186">
-        <v>0.71911000000000003</v>
+        <v>0.71733999999999998</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>2.1490000000000009</v>
+        <v>1.7079999999999984</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5119,23 +5119,23 @@
         <v>9</v>
       </c>
       <c r="B187" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C187">
-        <v>0.71879000000000004</v>
+        <v>0.73360999999999998</v>
       </c>
       <c r="D187">
-        <v>0.73845000000000005</v>
+        <v>0.73421999999999998</v>
       </c>
       <c r="E187">
-        <v>0.71696000000000004</v>
+        <v>0.71714</v>
       </c>
       <c r="F187">
-        <v>0.73357000000000006</v>
+        <v>0.71911000000000003</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>1.2369999999999992</v>
+        <v>2.1490000000000009</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5143,23 +5143,23 @@
         <v>9</v>
       </c>
       <c r="B188" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C188">
-        <v>0.72262999999999999</v>
+        <v>0.71879000000000004</v>
       </c>
       <c r="D188">
-        <v>0.72821000000000002</v>
+        <v>0.73845000000000005</v>
       </c>
       <c r="E188">
-        <v>0.71584000000000003</v>
+        <v>0.71696000000000004</v>
       </c>
       <c r="F188">
-        <v>0.71923999999999999</v>
+        <v>0.73357000000000006</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>1.8530000000000046</v>
+        <v>1.2369999999999992</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5167,23 +5167,23 @@
         <v>9</v>
       </c>
       <c r="B189" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C189">
-        <v>0.71120000000000005</v>
+        <v>0.72262999999999999</v>
       </c>
       <c r="D189">
-        <v>0.72496000000000005</v>
+        <v>0.72821000000000002</v>
       </c>
       <c r="E189">
-        <v>0.70643</v>
+        <v>0.71584000000000003</v>
       </c>
       <c r="F189">
-        <v>0.72358</v>
+        <v>0.71923999999999999</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>1.3919999999999932</v>
+        <v>1.8530000000000046</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5191,23 +5191,23 @@
         <v>9</v>
       </c>
       <c r="B190" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C190">
-        <v>0.70221999999999996</v>
+        <v>0.71120000000000005</v>
       </c>
       <c r="D190">
-        <v>0.71543999999999996</v>
+        <v>0.72496000000000005</v>
       </c>
       <c r="E190">
-        <v>0.70152000000000003</v>
+        <v>0.70643</v>
       </c>
       <c r="F190">
-        <v>0.71252000000000004</v>
+        <v>0.72358</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>2.0160000000000067</v>
+        <v>1.3919999999999932</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5215,23 +5215,23 @@
         <v>9</v>
       </c>
       <c r="B191" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C191">
-        <v>0.71113000000000004</v>
+        <v>0.70221999999999996</v>
       </c>
       <c r="D191">
-        <v>0.72233000000000003</v>
+        <v>0.71543999999999996</v>
       </c>
       <c r="E191">
-        <v>0.70216999999999996</v>
+        <v>0.70152000000000003</v>
       </c>
       <c r="F191">
-        <v>0.70433000000000001</v>
+        <v>0.71252000000000004</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>2.0179999999999976</v>
+        <v>2.0160000000000067</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5239,23 +5239,23 @@
         <v>9</v>
       </c>
       <c r="B192" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C192">
-        <v>0.72021000000000002</v>
+        <v>0.71113000000000004</v>
       </c>
       <c r="D192">
-        <v>0.72687999999999997</v>
+        <v>0.72233000000000003</v>
       </c>
       <c r="E192">
-        <v>0.70669999999999999</v>
+        <v>0.70216999999999996</v>
       </c>
       <c r="F192">
-        <v>0.71330000000000005</v>
+        <v>0.70433000000000001</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>1.2579999999999925</v>
+        <v>2.0179999999999976</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5263,23 +5263,23 @@
         <v>9</v>
       </c>
       <c r="B193" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C193">
-        <v>0.72540000000000004</v>
+        <v>0.72021000000000002</v>
       </c>
       <c r="D193">
-        <v>0.73065999999999998</v>
+        <v>0.72687999999999997</v>
       </c>
       <c r="E193">
-        <v>0.71808000000000005</v>
+        <v>0.70669999999999999</v>
       </c>
       <c r="F193">
-        <v>0.72158999999999995</v>
+        <v>0.71330000000000005</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>1.8339999999999912</v>
+        <v>1.2579999999999925</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5287,23 +5287,23 @@
         <v>9</v>
       </c>
       <c r="B194" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C194">
-        <v>0.73182000000000003</v>
+        <v>0.72540000000000004</v>
       </c>
       <c r="D194">
-        <v>0.73812999999999995</v>
+        <v>0.73065999999999998</v>
       </c>
       <c r="E194">
-        <v>0.71979000000000004</v>
+        <v>0.71808000000000005</v>
       </c>
       <c r="F194">
-        <v>0.72726000000000002</v>
+        <v>0.72158999999999995</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>3.0159999999999965</v>
+        <v>1.8339999999999912</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5311,23 +5311,23 @@
         <v>9</v>
       </c>
       <c r="B195" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C195">
-        <v>0.70476000000000005</v>
+        <v>0.73182000000000003</v>
       </c>
       <c r="D195">
-        <v>0.73436000000000001</v>
+        <v>0.73812999999999995</v>
       </c>
       <c r="E195">
-        <v>0.70420000000000005</v>
+        <v>0.71979000000000004</v>
       </c>
       <c r="F195">
-        <v>0.73280999999999996</v>
+        <v>0.72726000000000002</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>1.4790000000000081</v>
+        <v>3.0159999999999965</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5335,23 +5335,23 @@
         <v>9</v>
       </c>
       <c r="B196" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C196">
-        <v>0.70130999999999999</v>
+        <v>0.70476000000000005</v>
       </c>
       <c r="D196">
-        <v>0.70840000000000003</v>
+        <v>0.73436000000000001</v>
       </c>
       <c r="E196">
-        <v>0.69360999999999995</v>
+        <v>0.70420000000000005</v>
       </c>
       <c r="F196">
-        <v>0.70498000000000005</v>
+        <v>0.73280999999999996</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>2.585000000000004</v>
+        <v>1.4790000000000081</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5359,23 +5359,23 @@
         <v>9</v>
       </c>
       <c r="B197" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C197">
-        <v>0.71770999999999996</v>
+        <v>0.70130999999999999</v>
       </c>
       <c r="D197">
-        <v>0.71962999999999999</v>
+        <v>0.70840000000000003</v>
       </c>
       <c r="E197">
-        <v>0.69377999999999995</v>
+        <v>0.69360999999999995</v>
       </c>
       <c r="F197">
-        <v>0.70255999999999996</v>
+        <v>0.70498000000000005</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>2.1639999999999993</v>
+        <v>2.585000000000004</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5383,23 +5383,23 @@
         <v>9</v>
       </c>
       <c r="B198" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C198">
-        <v>0.70813000000000004</v>
+        <v>0.71770999999999996</v>
       </c>
       <c r="D198">
-        <v>0.72792000000000001</v>
+        <v>0.71962999999999999</v>
       </c>
       <c r="E198">
-        <v>0.70628000000000002</v>
+        <v>0.69377999999999995</v>
       </c>
       <c r="F198">
-        <v>0.71960999999999997</v>
+        <v>0.70255999999999996</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>1.9399999999999973</v>
+        <v>2.1639999999999993</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5407,23 +5407,23 @@
         <v>9</v>
       </c>
       <c r="B199" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C199">
-        <v>0.69066000000000005</v>
+        <v>0.70813000000000004</v>
       </c>
       <c r="D199">
-        <v>0.70987999999999996</v>
+        <v>0.72792000000000001</v>
       </c>
       <c r="E199">
-        <v>0.69047999999999998</v>
+        <v>0.70628000000000002</v>
       </c>
       <c r="F199">
-        <v>0.70875999999999995</v>
+        <v>0.71960999999999997</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>2.5000000000000022</v>
+        <v>1.9399999999999973</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5431,19 +5431,19 @@
         <v>9</v>
       </c>
       <c r="B200" s="8">
-        <v>40785</v>
+        <v>40792</v>
       </c>
       <c r="C200">
-        <v>0.71540999999999999</v>
+        <v>0.69066000000000005</v>
       </c>
       <c r="D200">
-        <v>0.71577999999999997</v>
+        <v>0.70987999999999996</v>
       </c>
       <c r="E200">
-        <v>0.69077999999999995</v>
+        <v>0.69047999999999998</v>
       </c>
       <c r="F200">
-        <v>0.69135000000000002</v>
+        <v>0.70875999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/volatility/src/xls/09_AUDUSD.xlsx
+++ b/volatility/src/xls/09_AUDUSD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="8520" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,7 +525,7 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>108.3</v>
@@ -554,11 +554,11 @@
     <row r="6" spans="2:11" ht="24" customHeight="1">
       <c r="B6" s="5">
         <f>sub!J1</f>
-        <v>1.185500000000006</v>
+        <v>1.1570000000000025</v>
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>46733</v>
+        <v>79806</v>
       </c>
       <c r="E6" s="5">
         <v>70.3</v>
@@ -667,11 +667,11 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>0.96300000000000274</v>
+        <v>0.91700000000000115</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
-        <v>1.185500000000006</v>
+        <v>1.1570000000000025</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
@@ -679,23 +679,23 @@
         <v>9</v>
       </c>
       <c r="B2" s="8">
-        <v>42178</v>
+        <v>42185</v>
       </c>
       <c r="C2">
-        <v>0.69255</v>
+        <v>0.70262000000000002</v>
       </c>
       <c r="D2">
-        <v>0.70211000000000001</v>
+        <v>0.70476000000000005</v>
       </c>
       <c r="E2">
-        <v>0.69247999999999998</v>
+        <v>0.69559000000000004</v>
       </c>
       <c r="F2">
-        <v>0.70203000000000004</v>
+        <v>0.69786999999999999</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>1.0610000000000008</v>
+        <v>0.96300000000000274</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -703,23 +703,23 @@
         <v>9</v>
       </c>
       <c r="B3" s="8">
-        <v>42171</v>
+        <v>42178</v>
       </c>
       <c r="C3">
-        <v>0.68676000000000004</v>
+        <v>0.69255</v>
       </c>
       <c r="D3">
-        <v>0.69377</v>
+        <v>0.70211000000000001</v>
       </c>
       <c r="E3">
-        <v>0.68315999999999999</v>
+        <v>0.69247999999999998</v>
       </c>
       <c r="F3">
-        <v>0.69255999999999995</v>
+        <v>0.70203000000000004</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>1.3800000000000034</v>
+        <v>1.0610000000000008</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -727,23 +727,23 @@
         <v>9</v>
       </c>
       <c r="B4" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C4">
-        <v>0.69979000000000002</v>
+        <v>0.68676000000000004</v>
       </c>
       <c r="D4">
-        <v>0.69991000000000003</v>
+        <v>0.69377</v>
       </c>
       <c r="E4">
-        <v>0.68611</v>
+        <v>0.68315999999999999</v>
       </c>
       <c r="F4">
-        <v>0.68706</v>
+        <v>0.69255999999999995</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.94799999999999329</v>
+        <v>1.3800000000000034</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -751,23 +751,23 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C5">
-        <v>0.69281000000000004</v>
+        <v>0.69979000000000002</v>
       </c>
       <c r="D5">
-        <v>0.70218999999999998</v>
+        <v>0.69991000000000003</v>
       </c>
       <c r="E5">
-        <v>0.69271000000000005</v>
+        <v>0.68611</v>
       </c>
       <c r="F5">
-        <v>0.69962999999999997</v>
+        <v>0.68706</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.45399999999999885</v>
+        <v>0.94799999999999329</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -775,23 +775,23 @@
         <v>9</v>
       </c>
       <c r="B6" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C6">
-        <v>0.69232000000000005</v>
+        <v>0.69281000000000004</v>
       </c>
       <c r="D6">
-        <v>0.69440000000000002</v>
+        <v>0.70218999999999998</v>
       </c>
       <c r="E6">
-        <v>0.68986000000000003</v>
+        <v>0.69271000000000005</v>
       </c>
       <c r="F6">
-        <v>0.69325999999999999</v>
+        <v>0.69962999999999997</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.69799999999999862</v>
+        <v>0.45399999999999885</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -799,23 +799,23 @@
         <v>9</v>
       </c>
       <c r="B7" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C7">
-        <v>0.68964999999999999</v>
+        <v>0.69232000000000005</v>
       </c>
       <c r="D7">
-        <v>0.69345000000000001</v>
+        <v>0.69440000000000002</v>
       </c>
       <c r="E7">
-        <v>0.68647000000000002</v>
+        <v>0.68986000000000003</v>
       </c>
       <c r="F7">
-        <v>0.69269000000000003</v>
+        <v>0.69325999999999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1.3430000000000053</v>
+        <v>0.69799999999999862</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -823,23 +823,23 @@
         <v>9</v>
       </c>
       <c r="B8" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C8">
-        <v>0.69913999999999998</v>
+        <v>0.68964999999999999</v>
       </c>
       <c r="D8">
-        <v>0.69974000000000003</v>
+        <v>0.69345000000000001</v>
       </c>
       <c r="E8">
-        <v>0.68630999999999998</v>
+        <v>0.68647000000000002</v>
       </c>
       <c r="F8">
-        <v>0.68650999999999995</v>
+        <v>0.69269000000000003</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.8539999999999992</v>
+        <v>1.3430000000000053</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -847,23 +847,23 @@
         <v>9</v>
       </c>
       <c r="B9" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C9">
-        <v>0.69798000000000004</v>
+        <v>0.69913999999999998</v>
       </c>
       <c r="D9">
-        <v>0.70474000000000003</v>
+        <v>0.69974000000000003</v>
       </c>
       <c r="E9">
-        <v>0.69620000000000004</v>
+        <v>0.68630999999999998</v>
       </c>
       <c r="F9">
-        <v>0.69994000000000001</v>
+        <v>0.68650999999999995</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.84400000000000031</v>
+        <v>0.8539999999999992</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -871,23 +871,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C10">
-        <v>0.70367999999999997</v>
+        <v>0.69798000000000004</v>
       </c>
       <c r="D10">
-        <v>0.70676000000000005</v>
+        <v>0.70474000000000003</v>
       </c>
       <c r="E10">
-        <v>0.69832000000000005</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="F10">
-        <v>0.70223999999999998</v>
+        <v>0.69994000000000001</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1.6300000000000092</v>
+        <v>0.84400000000000031</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -895,23 +895,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C11">
-        <v>0.71440000000000003</v>
+        <v>0.70367999999999997</v>
       </c>
       <c r="D11">
-        <v>0.71503000000000005</v>
+        <v>0.70676000000000005</v>
       </c>
       <c r="E11">
-        <v>0.69872999999999996</v>
+        <v>0.69832000000000005</v>
       </c>
       <c r="F11">
-        <v>0.70418000000000003</v>
+        <v>0.70223999999999998</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.69200000000000372</v>
+        <v>1.6300000000000092</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -919,23 +919,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C12">
-        <v>0.71711999999999998</v>
+        <v>0.71440000000000003</v>
       </c>
       <c r="D12">
-        <v>0.72050000000000003</v>
+        <v>0.71503000000000005</v>
       </c>
       <c r="E12">
-        <v>0.71357999999999999</v>
+        <v>0.69872999999999996</v>
       </c>
       <c r="F12">
-        <v>0.71480999999999995</v>
+        <v>0.70418000000000003</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>1.0479999999999934</v>
+        <v>0.69200000000000372</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -943,23 +943,23 @@
         <v>9</v>
       </c>
       <c r="B13" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C13">
-        <v>0.71016000000000001</v>
+        <v>0.71711999999999998</v>
       </c>
       <c r="D13">
-        <v>0.71914999999999996</v>
+        <v>0.72050000000000003</v>
       </c>
       <c r="E13">
-        <v>0.70867000000000002</v>
+        <v>0.71357999999999999</v>
       </c>
       <c r="F13">
-        <v>0.71701000000000004</v>
+        <v>0.71480999999999995</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.79200000000000381</v>
+        <v>1.0479999999999934</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -967,23 +967,23 @@
         <v>9</v>
       </c>
       <c r="B14" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C14">
-        <v>0.71055000000000001</v>
+        <v>0.71016000000000001</v>
       </c>
       <c r="D14">
-        <v>0.71311000000000002</v>
+        <v>0.71914999999999996</v>
       </c>
       <c r="E14">
-        <v>0.70518999999999998</v>
+        <v>0.70867000000000002</v>
       </c>
       <c r="F14">
-        <v>0.71021000000000001</v>
+        <v>0.71701000000000004</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.83900000000000086</v>
+        <v>0.79200000000000381</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -991,23 +991,23 @@
         <v>9</v>
       </c>
       <c r="B15" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C15">
-        <v>0.70757000000000003</v>
+        <v>0.71055000000000001</v>
       </c>
       <c r="D15">
-        <v>0.71467999999999998</v>
+        <v>0.71311000000000002</v>
       </c>
       <c r="E15">
-        <v>0.70628999999999997</v>
+        <v>0.70518999999999998</v>
       </c>
       <c r="F15">
-        <v>0.70972000000000002</v>
+        <v>0.71021000000000001</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1.1149999999999993</v>
+        <v>0.83900000000000086</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1015,23 +1015,23 @@
         <v>9</v>
       </c>
       <c r="B16" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C16">
-        <v>0.70792999999999995</v>
+        <v>0.70757000000000003</v>
       </c>
       <c r="D16">
-        <v>0.71674000000000004</v>
+        <v>0.71467999999999998</v>
       </c>
       <c r="E16">
-        <v>0.70559000000000005</v>
+        <v>0.70628999999999997</v>
       </c>
       <c r="F16">
-        <v>0.70772999999999997</v>
+        <v>0.70972000000000002</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0.71100000000000607</v>
+        <v>1.1149999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1039,23 +1039,23 @@
         <v>9</v>
       </c>
       <c r="B17" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C17">
-        <v>0.70304999999999995</v>
+        <v>0.70792999999999995</v>
       </c>
       <c r="D17">
-        <v>0.70969000000000004</v>
+        <v>0.71674000000000004</v>
       </c>
       <c r="E17">
-        <v>0.70257999999999998</v>
+        <v>0.70559000000000005</v>
       </c>
       <c r="F17">
-        <v>0.70826</v>
+        <v>0.70772999999999997</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1.0440000000000005</v>
+        <v>0.71100000000000607</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1063,23 +1063,23 @@
         <v>9</v>
       </c>
       <c r="B18" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C18">
-        <v>0.71057000000000003</v>
+        <v>0.70304999999999995</v>
       </c>
       <c r="D18">
-        <v>0.71067000000000002</v>
+        <v>0.70969000000000004</v>
       </c>
       <c r="E18">
-        <v>0.70023000000000002</v>
+        <v>0.70257999999999998</v>
       </c>
       <c r="F18">
-        <v>0.70435999999999999</v>
+        <v>0.70826</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.2929999999999997</v>
+        <v>1.0440000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1087,23 +1087,23 @@
         <v>9</v>
       </c>
       <c r="B19" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C19">
-        <v>0.71321999999999997</v>
+        <v>0.71057000000000003</v>
       </c>
       <c r="D19">
-        <v>0.71980999999999995</v>
+        <v>0.71067000000000002</v>
       </c>
       <c r="E19">
-        <v>0.70687999999999995</v>
+        <v>0.70023000000000002</v>
       </c>
       <c r="F19">
-        <v>0.70755999999999997</v>
+        <v>0.70435999999999999</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>1.3679999999999914</v>
+        <v>1.2929999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1111,23 +1111,23 @@
         <v>9</v>
       </c>
       <c r="B20" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C20">
-        <v>0.71292999999999995</v>
+        <v>0.71321999999999997</v>
       </c>
       <c r="D20">
-        <v>0.72058999999999995</v>
+        <v>0.71980999999999995</v>
       </c>
       <c r="E20">
-        <v>0.70691000000000004</v>
+        <v>0.70687999999999995</v>
       </c>
       <c r="F20">
-        <v>0.71287</v>
+        <v>0.70755999999999997</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>0.94299999999999384</v>
+        <v>1.3679999999999914</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1135,23 +1135,23 @@
         <v>9</v>
       </c>
       <c r="B21" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C21">
-        <v>0.70831</v>
+        <v>0.71292999999999995</v>
       </c>
       <c r="D21">
-        <v>0.71475999999999995</v>
+        <v>0.72058999999999995</v>
       </c>
       <c r="E21">
-        <v>0.70533000000000001</v>
+        <v>0.70691000000000004</v>
       </c>
       <c r="F21">
-        <v>0.71382000000000001</v>
+        <v>0.71287</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>2.0410000000000039</v>
+        <v>0.94299999999999384</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1159,23 +1159,23 @@
         <v>9</v>
       </c>
       <c r="B22" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C22">
-        <v>0.72418000000000005</v>
+        <v>0.70831</v>
       </c>
       <c r="D22">
-        <v>0.72638000000000003</v>
+        <v>0.71475999999999995</v>
       </c>
       <c r="E22">
-        <v>0.70596999999999999</v>
+        <v>0.70533000000000001</v>
       </c>
       <c r="F22">
-        <v>0.70865999999999996</v>
+        <v>0.71382000000000001</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>1.5719999999999956</v>
+        <v>2.0410000000000039</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1183,23 +1183,23 @@
         <v>9</v>
       </c>
       <c r="B23" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C23">
-        <v>0.71721000000000001</v>
+        <v>0.72418000000000005</v>
       </c>
       <c r="D23">
-        <v>0.72943999999999998</v>
+        <v>0.72638000000000003</v>
       </c>
       <c r="E23">
-        <v>0.71372000000000002</v>
+        <v>0.70596999999999999</v>
       </c>
       <c r="F23">
-        <v>0.72489000000000003</v>
+        <v>0.70865999999999996</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>1.0929999999999995</v>
+        <v>1.5719999999999956</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1207,23 +1207,23 @@
         <v>9</v>
       </c>
       <c r="B24" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C24">
-        <v>0.71614</v>
+        <v>0.71721000000000001</v>
       </c>
       <c r="D24">
-        <v>0.71845000000000003</v>
+        <v>0.72943999999999998</v>
       </c>
       <c r="E24">
-        <v>0.70752000000000004</v>
+        <v>0.71372000000000002</v>
       </c>
       <c r="F24">
-        <v>0.71814999999999996</v>
+        <v>0.72489000000000003</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>0.78799999999999981</v>
+        <v>1.0929999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1231,23 +1231,23 @@
         <v>9</v>
       </c>
       <c r="B25" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C25">
-        <v>0.72089000000000003</v>
+        <v>0.71614</v>
       </c>
       <c r="D25">
-        <v>0.72248999999999997</v>
+        <v>0.71845000000000003</v>
       </c>
       <c r="E25">
-        <v>0.71460999999999997</v>
+        <v>0.70752000000000004</v>
       </c>
       <c r="F25">
-        <v>0.71660000000000001</v>
+        <v>0.71814999999999996</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>1.2780000000000014</v>
+        <v>0.78799999999999981</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1255,23 +1255,23 @@
         <v>9</v>
       </c>
       <c r="B26" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C26">
-        <v>0.71108000000000005</v>
+        <v>0.72089000000000003</v>
       </c>
       <c r="D26">
-        <v>0.72345000000000004</v>
+        <v>0.72248999999999997</v>
       </c>
       <c r="E26">
-        <v>0.71067000000000002</v>
+        <v>0.71460999999999997</v>
       </c>
       <c r="F26">
-        <v>0.72116999999999998</v>
+        <v>0.71660000000000001</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>3.734000000000004</v>
+        <v>1.2780000000000014</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1279,23 +1279,23 @@
         <v>9</v>
       </c>
       <c r="B27" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C27">
-        <v>0.70359000000000005</v>
+        <v>0.71108000000000005</v>
       </c>
       <c r="D27">
-        <v>0.71238000000000001</v>
+        <v>0.72345000000000004</v>
       </c>
       <c r="E27">
-        <v>0.67503999999999997</v>
+        <v>0.71067000000000002</v>
       </c>
       <c r="F27">
-        <v>0.71194000000000002</v>
+        <v>0.72116999999999998</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>0.60999999999999943</v>
+        <v>3.734000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1303,23 +1303,23 @@
         <v>9</v>
       </c>
       <c r="B28" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C28">
         <v>0.70359000000000005</v>
       </c>
       <c r="D28">
-        <v>0.7077</v>
+        <v>0.71238000000000001</v>
       </c>
       <c r="E28">
-        <v>0.7016</v>
+        <v>0.67503999999999997</v>
       </c>
       <c r="F28">
-        <v>0.70396000000000003</v>
+        <v>0.71194000000000002</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>1.6859999999999986</v>
+        <v>0.60999999999999943</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1327,23 +1327,23 @@
         <v>9</v>
       </c>
       <c r="B29" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C29">
-        <v>0.71697999999999995</v>
+        <v>0.70359000000000005</v>
       </c>
       <c r="D29">
-        <v>0.72026999999999997</v>
+        <v>0.7077</v>
       </c>
       <c r="E29">
-        <v>0.70340999999999998</v>
+        <v>0.7016</v>
       </c>
       <c r="F29">
-        <v>0.70391999999999999</v>
+        <v>0.70396000000000003</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>0.95399999999999929</v>
+        <v>1.6859999999999986</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1351,23 +1351,23 @@
         <v>9</v>
       </c>
       <c r="B30" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C30">
-        <v>0.71816999999999998</v>
+        <v>0.71697999999999995</v>
       </c>
       <c r="D30">
-        <v>0.72458</v>
+        <v>0.72026999999999997</v>
       </c>
       <c r="E30">
-        <v>0.71504000000000001</v>
+        <v>0.70340999999999998</v>
       </c>
       <c r="F30">
-        <v>0.71777999999999997</v>
+        <v>0.70391999999999999</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>2.018999999999993</v>
+        <v>0.95399999999999929</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1375,23 +1375,23 @@
         <v>9</v>
       </c>
       <c r="B31" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C31">
-        <v>0.73736999999999997</v>
+        <v>0.71816999999999998</v>
       </c>
       <c r="D31">
-        <v>0.73926999999999998</v>
+        <v>0.72458</v>
       </c>
       <c r="E31">
-        <v>0.71908000000000005</v>
+        <v>0.71504000000000001</v>
       </c>
       <c r="F31">
-        <v>0.71986000000000006</v>
+        <v>0.71777999999999997</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1.4449999999999963</v>
+        <v>2.018999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1399,23 +1399,23 @@
         <v>9</v>
       </c>
       <c r="B32" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C32">
-        <v>0.72255000000000003</v>
+        <v>0.73736999999999997</v>
       </c>
       <c r="D32">
-        <v>0.73433999999999999</v>
+        <v>0.73926999999999998</v>
       </c>
       <c r="E32">
-        <v>0.71989000000000003</v>
+        <v>0.71908000000000005</v>
       </c>
       <c r="F32">
-        <v>0.73070999999999997</v>
+        <v>0.71986000000000006</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>1.2639999999999985</v>
+        <v>1.4449999999999963</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1423,23 +1423,23 @@
         <v>9</v>
       </c>
       <c r="B33" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C33">
-        <v>0.73046</v>
+        <v>0.72255000000000003</v>
       </c>
       <c r="D33">
-        <v>0.73248000000000002</v>
+        <v>0.73433999999999999</v>
       </c>
       <c r="E33">
-        <v>0.71984000000000004</v>
+        <v>0.71989000000000003</v>
       </c>
       <c r="F33">
-        <v>0.72258999999999995</v>
+        <v>0.73070999999999997</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1.7119999999999913</v>
+        <v>1.2639999999999985</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1447,23 +1447,23 @@
         <v>9</v>
       </c>
       <c r="B34" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C34">
-        <v>0.72155000000000002</v>
+        <v>0.73046</v>
       </c>
       <c r="D34">
-        <v>0.73346999999999996</v>
+        <v>0.73248000000000002</v>
       </c>
       <c r="E34">
-        <v>0.71635000000000004</v>
+        <v>0.71984000000000004</v>
       </c>
       <c r="F34">
-        <v>0.73336000000000001</v>
+        <v>0.72258999999999995</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>1.2010000000000076</v>
+        <v>1.7119999999999913</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1471,23 +1471,23 @@
         <v>9</v>
       </c>
       <c r="B35" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C35">
-        <v>0.71879999999999999</v>
+        <v>0.72155000000000002</v>
       </c>
       <c r="D35">
-        <v>0.73018000000000005</v>
+        <v>0.73346999999999996</v>
       </c>
       <c r="E35">
-        <v>0.71816999999999998</v>
+        <v>0.71635000000000004</v>
       </c>
       <c r="F35">
-        <v>0.72272999999999998</v>
+        <v>0.73336000000000001</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>2.0820000000000061</v>
+        <v>1.2010000000000076</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1495,23 +1495,23 @@
         <v>9</v>
       </c>
       <c r="B36" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C36">
-        <v>0.7087</v>
+        <v>0.71879999999999999</v>
       </c>
       <c r="D36">
-        <v>0.72577000000000003</v>
+        <v>0.73018000000000005</v>
       </c>
       <c r="E36">
-        <v>0.70494999999999997</v>
+        <v>0.71816999999999998</v>
       </c>
       <c r="F36">
-        <v>0.71972000000000003</v>
+        <v>0.72272999999999998</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>1.0419999999999985</v>
+        <v>2.0820000000000061</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1519,23 +1519,23 @@
         <v>9</v>
       </c>
       <c r="B37" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C37">
-        <v>0.71181000000000005</v>
+        <v>0.7087</v>
       </c>
       <c r="D37">
-        <v>0.71243999999999996</v>
+        <v>0.72577000000000003</v>
       </c>
       <c r="E37">
-        <v>0.70201999999999998</v>
+        <v>0.70494999999999997</v>
       </c>
       <c r="F37">
-        <v>0.70901999999999998</v>
+        <v>0.71972000000000003</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>0.70500000000000007</v>
+        <v>1.0419999999999985</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1543,23 +1543,23 @@
         <v>9</v>
       </c>
       <c r="B38" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C38">
-        <v>0.71050000000000002</v>
+        <v>0.71181000000000005</v>
       </c>
       <c r="D38">
-        <v>0.71587999999999996</v>
+        <v>0.71243999999999996</v>
       </c>
       <c r="E38">
-        <v>0.70882999999999996</v>
+        <v>0.70201999999999998</v>
       </c>
       <c r="F38">
-        <v>0.71170999999999995</v>
+        <v>0.70901999999999998</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>0.98699999999999344</v>
+        <v>0.70500000000000007</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1567,23 +1567,23 @@
         <v>9</v>
       </c>
       <c r="B39" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C39">
-        <v>0.70494999999999997</v>
+        <v>0.71050000000000002</v>
       </c>
       <c r="D39">
-        <v>0.71389999999999998</v>
+        <v>0.71587999999999996</v>
       </c>
       <c r="E39">
-        <v>0.70403000000000004</v>
+        <v>0.70882999999999996</v>
       </c>
       <c r="F39">
-        <v>0.71130000000000004</v>
+        <v>0.71170999999999995</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>1.9580000000000042</v>
+        <v>0.98699999999999344</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1591,23 +1591,23 @@
         <v>9</v>
       </c>
       <c r="B40" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C40">
-        <v>0.72180999999999995</v>
+        <v>0.70494999999999997</v>
       </c>
       <c r="D40">
-        <v>0.72374000000000005</v>
+        <v>0.71389999999999998</v>
       </c>
       <c r="E40">
-        <v>0.70416000000000001</v>
+        <v>0.70403000000000004</v>
       </c>
       <c r="F40">
-        <v>0.70518000000000003</v>
+        <v>0.71130000000000004</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>1.1440000000000006</v>
+        <v>1.9580000000000042</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1615,23 +1615,23 @@
         <v>9</v>
       </c>
       <c r="B41" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C41">
-        <v>0.72621000000000002</v>
+        <v>0.72180999999999995</v>
       </c>
       <c r="D41">
-        <v>0.73146</v>
+        <v>0.72374000000000005</v>
       </c>
       <c r="E41">
-        <v>0.72001999999999999</v>
+        <v>0.70416000000000001</v>
       </c>
       <c r="F41">
-        <v>0.72192999999999996</v>
+        <v>0.70518000000000003</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>1.6199999999999992</v>
+        <v>1.1440000000000006</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1639,23 +1639,23 @@
         <v>9</v>
       </c>
       <c r="B42" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C42">
-        <v>0.71494999999999997</v>
+        <v>0.72621000000000002</v>
       </c>
       <c r="D42">
-        <v>0.73031000000000001</v>
+        <v>0.73146</v>
       </c>
       <c r="E42">
-        <v>0.71411000000000002</v>
+        <v>0.72001999999999999</v>
       </c>
       <c r="F42">
-        <v>0.72850000000000004</v>
+        <v>0.72192999999999996</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>1.4399999999999968</v>
+        <v>1.6199999999999992</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1663,23 +1663,23 @@
         <v>9</v>
       </c>
       <c r="B43" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C43">
-        <v>0.70992999999999995</v>
+        <v>0.71494999999999997</v>
       </c>
       <c r="D43">
-        <v>0.72284999999999999</v>
+        <v>0.73031000000000001</v>
       </c>
       <c r="E43">
-        <v>0.70845000000000002</v>
+        <v>0.71411000000000002</v>
       </c>
       <c r="F43">
-        <v>0.71540999999999999</v>
+        <v>0.72850000000000004</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>1.368999999999998</v>
+        <v>1.4399999999999968</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1687,23 +1687,23 @@
         <v>9</v>
       </c>
       <c r="B44" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C44">
-        <v>0.71862000000000004</v>
+        <v>0.70992999999999995</v>
       </c>
       <c r="D44">
-        <v>0.72348000000000001</v>
+        <v>0.72284999999999999</v>
       </c>
       <c r="E44">
-        <v>0.70979000000000003</v>
+        <v>0.70845000000000002</v>
       </c>
       <c r="F44">
-        <v>0.71075999999999995</v>
+        <v>0.71540999999999999</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>1.8650000000000055</v>
+        <v>1.368999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1711,23 +1711,23 @@
         <v>9</v>
       </c>
       <c r="B45" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C45">
-        <v>0.73275000000000001</v>
+        <v>0.71862000000000004</v>
       </c>
       <c r="D45">
-        <v>0.73616000000000004</v>
+        <v>0.72348000000000001</v>
       </c>
       <c r="E45">
-        <v>0.71750999999999998</v>
+        <v>0.70979000000000003</v>
       </c>
       <c r="F45">
-        <v>0.71931</v>
+        <v>0.71075999999999995</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>1.4390000000000014</v>
+        <v>1.8650000000000055</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1735,23 +1735,23 @@
         <v>9</v>
       </c>
       <c r="B46" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C46">
-        <v>0.73082000000000003</v>
+        <v>0.73275000000000001</v>
       </c>
       <c r="D46">
-        <v>0.73809999999999998</v>
+        <v>0.73616000000000004</v>
       </c>
       <c r="E46">
-        <v>0.72370999999999996</v>
+        <v>0.71750999999999998</v>
       </c>
       <c r="F46">
-        <v>0.73248000000000002</v>
+        <v>0.71931</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>1.1700000000000044</v>
+        <v>1.4390000000000014</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1759,23 +1759,23 @@
         <v>9</v>
       </c>
       <c r="B47" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C47">
-        <v>0.72799999999999998</v>
+        <v>0.73082000000000003</v>
       </c>
       <c r="D47">
-        <v>0.73187000000000002</v>
+        <v>0.73809999999999998</v>
       </c>
       <c r="E47">
-        <v>0.72016999999999998</v>
+        <v>0.72370999999999996</v>
       </c>
       <c r="F47">
-        <v>0.73141</v>
+        <v>0.73248000000000002</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>1.7249999999999988</v>
+        <v>1.1700000000000044</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1783,23 +1783,23 @@
         <v>9</v>
       </c>
       <c r="B48" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C48">
-        <v>0.73936000000000002</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="D48">
-        <v>0.74524000000000001</v>
+        <v>0.73187000000000002</v>
       </c>
       <c r="E48">
-        <v>0.72799000000000003</v>
+        <v>0.72016999999999998</v>
       </c>
       <c r="F48">
-        <v>0.73001000000000005</v>
+        <v>0.73141</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>0.9240000000000026</v>
+        <v>1.7249999999999988</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1807,23 +1807,23 @@
         <v>9</v>
       </c>
       <c r="B49" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C49">
-        <v>0.73978999999999995</v>
+        <v>0.73936000000000002</v>
       </c>
       <c r="D49">
-        <v>0.74399000000000004</v>
+        <v>0.74524000000000001</v>
       </c>
       <c r="E49">
-        <v>0.73475000000000001</v>
+        <v>0.72799000000000003</v>
       </c>
       <c r="F49">
-        <v>0.73962000000000006</v>
+        <v>0.73001000000000005</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>1.0469999999999979</v>
+        <v>0.9240000000000026</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1831,23 +1831,23 @@
         <v>9</v>
       </c>
       <c r="B50" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C50">
-        <v>0.74175999999999997</v>
+        <v>0.73978999999999995</v>
       </c>
       <c r="D50">
-        <v>0.74634999999999996</v>
+        <v>0.74399000000000004</v>
       </c>
       <c r="E50">
-        <v>0.73587999999999998</v>
+        <v>0.73475000000000001</v>
       </c>
       <c r="F50">
-        <v>0.74021999999999999</v>
+        <v>0.73962000000000006</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.2449999999999961</v>
+        <v>1.0469999999999979</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1855,23 +1855,23 @@
         <v>9</v>
       </c>
       <c r="B51" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C51">
-        <v>0.74111000000000005</v>
+        <v>0.74175999999999997</v>
       </c>
       <c r="D51">
-        <v>0.74417</v>
+        <v>0.74634999999999996</v>
       </c>
       <c r="E51">
-        <v>0.73172000000000004</v>
+        <v>0.73587999999999998</v>
       </c>
       <c r="F51">
-        <v>0.74197999999999997</v>
+        <v>0.74021999999999999</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.2539999999999996</v>
+        <v>1.2449999999999961</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1879,23 +1879,23 @@
         <v>9</v>
       </c>
       <c r="B52" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C52">
-        <v>0.74280000000000002</v>
+        <v>0.74111000000000005</v>
       </c>
       <c r="D52">
-        <v>0.74831000000000003</v>
+        <v>0.74417</v>
       </c>
       <c r="E52">
-        <v>0.73577000000000004</v>
+        <v>0.73172000000000004</v>
       </c>
       <c r="F52">
         <v>0.74197999999999997</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>1.3360000000000039</v>
+        <v>1.2539999999999996</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1903,23 +1903,23 @@
         <v>9</v>
       </c>
       <c r="B53" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C53">
-        <v>0.73938999999999999</v>
+        <v>0.74280000000000002</v>
       </c>
       <c r="D53">
-        <v>0.74434</v>
+        <v>0.74831000000000003</v>
       </c>
       <c r="E53">
-        <v>0.73097999999999996</v>
+        <v>0.73577000000000004</v>
       </c>
       <c r="F53">
-        <v>0.74307000000000001</v>
+        <v>0.74197999999999997</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>1.1919999999999931</v>
+        <v>1.3360000000000039</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1927,23 +1927,23 @@
         <v>9</v>
       </c>
       <c r="B54" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C54">
-        <v>0.74367000000000005</v>
+        <v>0.73938999999999999</v>
       </c>
       <c r="D54">
-        <v>0.74417999999999995</v>
+        <v>0.74434</v>
       </c>
       <c r="E54">
-        <v>0.73226000000000002</v>
+        <v>0.73097999999999996</v>
       </c>
       <c r="F54">
-        <v>0.74077000000000004</v>
+        <v>0.74307000000000001</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>1.0889999999999955</v>
+        <v>1.1919999999999931</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1951,23 +1951,23 @@
         <v>9</v>
       </c>
       <c r="B55" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C55">
-        <v>0.74378</v>
+        <v>0.74367000000000005</v>
       </c>
       <c r="D55">
-        <v>0.74536999999999998</v>
+        <v>0.74417999999999995</v>
       </c>
       <c r="E55">
-        <v>0.73448000000000002</v>
+        <v>0.73226000000000002</v>
       </c>
       <c r="F55">
-        <v>0.74373</v>
+        <v>0.74077000000000004</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>1.8119999999999914</v>
+        <v>1.0889999999999955</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1975,23 +1975,23 @@
         <v>9</v>
       </c>
       <c r="B56" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C56">
-        <v>0.75914999999999999</v>
+        <v>0.74378</v>
       </c>
       <c r="D56">
-        <v>0.76227999999999996</v>
+        <v>0.74536999999999998</v>
       </c>
       <c r="E56">
-        <v>0.74416000000000004</v>
+        <v>0.73448000000000002</v>
       </c>
       <c r="F56">
-        <v>0.74424000000000001</v>
+        <v>0.74373</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>1.1619999999999964</v>
+        <v>1.8119999999999914</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -1999,23 +1999,23 @@
         <v>9</v>
       </c>
       <c r="B57" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C57">
-        <v>0.75661999999999996</v>
+        <v>0.75914999999999999</v>
       </c>
       <c r="D57">
-        <v>0.76758999999999999</v>
+        <v>0.76227999999999996</v>
       </c>
       <c r="E57">
-        <v>0.75597000000000003</v>
+        <v>0.74416000000000004</v>
       </c>
       <c r="F57">
-        <v>0.75985000000000003</v>
+        <v>0.74424000000000001</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>1.1689999999999978</v>
+        <v>1.1619999999999964</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2023,23 +2023,23 @@
         <v>9</v>
       </c>
       <c r="B58" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C58">
-        <v>0.75566999999999995</v>
+        <v>0.75661999999999996</v>
       </c>
       <c r="D58">
-        <v>0.75922999999999996</v>
+        <v>0.76758999999999999</v>
       </c>
       <c r="E58">
-        <v>0.74753999999999998</v>
+        <v>0.75597000000000003</v>
       </c>
       <c r="F58">
-        <v>0.75712000000000002</v>
+        <v>0.75985000000000003</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>1.0239999999999916</v>
+        <v>1.1689999999999978</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2047,23 +2047,23 @@
         <v>9</v>
       </c>
       <c r="B59" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C59">
-        <v>0.75210999999999995</v>
+        <v>0.75566999999999995</v>
       </c>
       <c r="D59">
-        <v>0.76044999999999996</v>
+        <v>0.75922999999999996</v>
       </c>
       <c r="E59">
-        <v>0.75021000000000004</v>
+        <v>0.74753999999999998</v>
       </c>
       <c r="F59">
-        <v>0.75509999999999999</v>
+        <v>0.75712000000000002</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>1.1800000000000033</v>
+        <v>1.0239999999999916</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2071,23 +2071,23 @@
         <v>9</v>
       </c>
       <c r="B60" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C60">
-        <v>0.75395000000000001</v>
+        <v>0.75210999999999995</v>
       </c>
       <c r="D60">
-        <v>0.75644</v>
+        <v>0.76044999999999996</v>
       </c>
       <c r="E60">
-        <v>0.74463999999999997</v>
+        <v>0.75021000000000004</v>
       </c>
       <c r="F60">
-        <v>0.75117999999999996</v>
+        <v>0.75509999999999999</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>1.5430000000000055</v>
+        <v>1.1800000000000033</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2095,23 +2095,23 @@
         <v>9</v>
       </c>
       <c r="B61" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C61">
-        <v>0.75322</v>
+        <v>0.75395000000000001</v>
       </c>
       <c r="D61">
-        <v>0.75660000000000005</v>
+        <v>0.75644</v>
       </c>
       <c r="E61">
-        <v>0.74117</v>
+        <v>0.74463999999999997</v>
       </c>
       <c r="F61">
-        <v>0.75443000000000005</v>
+        <v>0.75117999999999996</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>1.0970000000000035</v>
+        <v>1.5430000000000055</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2119,23 +2119,23 @@
         <v>9</v>
       </c>
       <c r="B62" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C62">
-        <v>0.75724999999999998</v>
+        <v>0.75322</v>
       </c>
       <c r="D62">
-        <v>0.75814000000000004</v>
+        <v>0.75660000000000005</v>
       </c>
       <c r="E62">
-        <v>0.74717</v>
+        <v>0.74117</v>
       </c>
       <c r="F62">
-        <v>0.75346999999999997</v>
+        <v>0.75443000000000005</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>1.5050000000000008</v>
+        <v>1.0970000000000035</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2143,23 +2143,23 @@
         <v>9</v>
       </c>
       <c r="B63" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C63">
-        <v>0.76668000000000003</v>
+        <v>0.75724999999999998</v>
       </c>
       <c r="D63">
-        <v>0.76817999999999997</v>
+        <v>0.75814000000000004</v>
       </c>
       <c r="E63">
-        <v>0.75312999999999997</v>
+        <v>0.74717</v>
       </c>
       <c r="F63">
-        <v>0.75782000000000005</v>
+        <v>0.75346999999999997</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>1.5759999999999996</v>
+        <v>1.5050000000000008</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2167,23 +2167,23 @@
         <v>9</v>
       </c>
       <c r="B64" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C64">
-        <v>0.77617000000000003</v>
+        <v>0.76668000000000003</v>
       </c>
       <c r="D64">
-        <v>0.78120999999999996</v>
+        <v>0.76817999999999997</v>
       </c>
       <c r="E64">
-        <v>0.76544999999999996</v>
+        <v>0.75312999999999997</v>
       </c>
       <c r="F64">
-        <v>0.76690999999999998</v>
+        <v>0.75782000000000005</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>1.5769999999999951</v>
+        <v>1.5759999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2191,23 +2191,23 @@
         <v>9</v>
       </c>
       <c r="B65" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C65">
-        <v>0.76658000000000004</v>
+        <v>0.77617000000000003</v>
       </c>
       <c r="D65">
-        <v>0.78090999999999999</v>
+        <v>0.78120999999999996</v>
       </c>
       <c r="E65">
-        <v>0.76514000000000004</v>
+        <v>0.76544999999999996</v>
       </c>
       <c r="F65">
-        <v>0.77644000000000002</v>
+        <v>0.76690999999999998</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>0.76699999999999546</v>
+        <v>1.5769999999999951</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2215,23 +2215,23 @@
         <v>9</v>
       </c>
       <c r="B66" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C66">
-        <v>0.76854</v>
+        <v>0.76658000000000004</v>
       </c>
       <c r="D66">
-        <v>0.77256999999999998</v>
+        <v>0.78090999999999999</v>
       </c>
       <c r="E66">
-        <v>0.76490000000000002</v>
+        <v>0.76514000000000004</v>
       </c>
       <c r="F66">
-        <v>0.76749999999999996</v>
+        <v>0.77644000000000002</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>1.1480000000000046</v>
+        <v>0.76699999999999546</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2239,23 +2239,23 @@
         <v>9</v>
       </c>
       <c r="B67" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C67">
-        <v>0.76971999999999996</v>
+        <v>0.76854</v>
       </c>
       <c r="D67">
-        <v>0.77568000000000004</v>
+        <v>0.77256999999999998</v>
       </c>
       <c r="E67">
-        <v>0.76419999999999999</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="F67">
-        <v>0.76831000000000005</v>
+        <v>0.76749999999999996</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>1.1390000000000011</v>
+        <v>1.1480000000000046</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2263,23 +2263,23 @@
         <v>9</v>
       </c>
       <c r="B68" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C68">
-        <v>0.77088000000000001</v>
+        <v>0.76971999999999996</v>
       </c>
       <c r="D68">
-        <v>0.77854999999999996</v>
+        <v>0.77568000000000004</v>
       </c>
       <c r="E68">
-        <v>0.76715999999999995</v>
+        <v>0.76419999999999999</v>
       </c>
       <c r="F68">
-        <v>0.76983999999999997</v>
+        <v>0.76831000000000005</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>2.0649999999999946</v>
+        <v>1.1390000000000011</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2287,23 +2287,23 @@
         <v>9</v>
       </c>
       <c r="B69" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C69">
-        <v>0.78442000000000001</v>
+        <v>0.77088000000000001</v>
       </c>
       <c r="D69">
-        <v>0.79157</v>
+        <v>0.77854999999999996</v>
       </c>
       <c r="E69">
-        <v>0.77092000000000005</v>
+        <v>0.76715999999999995</v>
       </c>
       <c r="F69">
-        <v>0.77102999999999999</v>
+        <v>0.76983999999999997</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>1.2809999999999988</v>
+        <v>2.0649999999999946</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2311,23 +2311,23 @@
         <v>9</v>
       </c>
       <c r="B70" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C70">
-        <v>0.77600999999999998</v>
+        <v>0.78442000000000001</v>
       </c>
       <c r="D70">
-        <v>0.78530999999999995</v>
+        <v>0.79157</v>
       </c>
       <c r="E70">
-        <v>0.77249999999999996</v>
+        <v>0.77092000000000005</v>
       </c>
       <c r="F70">
-        <v>0.78483999999999998</v>
+        <v>0.77102999999999999</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>1.8080000000000096</v>
+        <v>1.2809999999999988</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2335,23 +2335,23 @@
         <v>9</v>
       </c>
       <c r="B71" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C71">
-        <v>0.78373999999999999</v>
+        <v>0.77600999999999998</v>
       </c>
       <c r="D71">
-        <v>0.78924000000000005</v>
+        <v>0.78530999999999995</v>
       </c>
       <c r="E71">
-        <v>0.77115999999999996</v>
+        <v>0.77249999999999996</v>
       </c>
       <c r="F71">
-        <v>0.77608999999999995</v>
+        <v>0.78483999999999998</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>1.4490000000000003</v>
+        <v>1.8080000000000096</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2359,23 +2359,23 @@
         <v>9</v>
       </c>
       <c r="B72" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C72">
-        <v>0.79037999999999997</v>
+        <v>0.78373999999999999</v>
       </c>
       <c r="D72">
-        <v>0.79346000000000005</v>
+        <v>0.78924000000000005</v>
       </c>
       <c r="E72">
-        <v>0.77897000000000005</v>
+        <v>0.77115999999999996</v>
       </c>
       <c r="F72">
-        <v>0.78359000000000001</v>
+        <v>0.77608999999999995</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>2.1550000000000069</v>
+        <v>1.4490000000000003</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2383,23 +2383,23 @@
         <v>9</v>
       </c>
       <c r="B73" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C73">
-        <v>0.78105999999999998</v>
+        <v>0.79037999999999997</v>
       </c>
       <c r="D73">
-        <v>0.79878000000000005</v>
+        <v>0.79346000000000005</v>
       </c>
       <c r="E73">
-        <v>0.77722999999999998</v>
+        <v>0.77897000000000005</v>
       </c>
       <c r="F73">
-        <v>0.79117000000000004</v>
+        <v>0.78359000000000001</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>1.9510000000000027</v>
+        <v>2.1550000000000069</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2407,23 +2407,23 @@
         <v>9</v>
       </c>
       <c r="B74" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C74">
-        <v>0.79079999999999995</v>
+        <v>0.78105999999999998</v>
       </c>
       <c r="D74">
-        <v>0.79532000000000003</v>
+        <v>0.79878000000000005</v>
       </c>
       <c r="E74">
-        <v>0.77581</v>
+        <v>0.77722999999999998</v>
       </c>
       <c r="F74">
-        <v>0.78142999999999996</v>
+        <v>0.79117000000000004</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>1.9830000000000014</v>
+        <v>1.9510000000000027</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2431,23 +2431,23 @@
         <v>9</v>
       </c>
       <c r="B75" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C75">
-        <v>0.80986000000000002</v>
+        <v>0.79079999999999995</v>
       </c>
       <c r="D75">
-        <v>0.81174000000000002</v>
+        <v>0.79532000000000003</v>
       </c>
       <c r="E75">
-        <v>0.79191</v>
+        <v>0.77581</v>
       </c>
       <c r="F75">
-        <v>0.79237000000000002</v>
+        <v>0.78142999999999996</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>1.794999999999991</v>
+        <v>1.9830000000000014</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2455,23 +2455,23 @@
         <v>9</v>
       </c>
       <c r="B76" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C76">
-        <v>0.79961000000000004</v>
+        <v>0.80986000000000002</v>
       </c>
       <c r="D76">
-        <v>0.81350999999999996</v>
+        <v>0.81174000000000002</v>
       </c>
       <c r="E76">
-        <v>0.79556000000000004</v>
+        <v>0.79191</v>
       </c>
       <c r="F76">
-        <v>0.81098000000000003</v>
+        <v>0.79237000000000002</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>1.3870000000000049</v>
+        <v>1.794999999999991</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2479,23 +2479,23 @@
         <v>9</v>
       </c>
       <c r="B77" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C77">
-        <v>0.78988999999999998</v>
+        <v>0.79961000000000004</v>
       </c>
       <c r="D77">
-        <v>0.80376000000000003</v>
+        <v>0.81350999999999996</v>
       </c>
       <c r="E77">
-        <v>0.78988999999999998</v>
+        <v>0.79556000000000004</v>
       </c>
       <c r="F77">
-        <v>0.79944999999999999</v>
+        <v>0.81098000000000003</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>1.1749999999999927</v>
+        <v>1.3870000000000049</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2503,23 +2503,23 @@
         <v>9</v>
       </c>
       <c r="B78" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C78">
-        <v>0.78576000000000001</v>
+        <v>0.78988999999999998</v>
       </c>
       <c r="D78">
-        <v>0.79240999999999995</v>
+        <v>0.80376000000000003</v>
       </c>
       <c r="E78">
-        <v>0.78066000000000002</v>
+        <v>0.78988999999999998</v>
       </c>
       <c r="F78">
-        <v>0.79151000000000005</v>
+        <v>0.79944999999999999</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>0.80100000000000726</v>
+        <v>1.1749999999999927</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2527,23 +2527,23 @@
         <v>9</v>
       </c>
       <c r="B79" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C79">
-        <v>0.77966999999999997</v>
+        <v>0.78576000000000001</v>
       </c>
       <c r="D79">
-        <v>0.78739000000000003</v>
+        <v>0.79240999999999995</v>
       </c>
       <c r="E79">
-        <v>0.77937999999999996</v>
+        <v>0.78066000000000002</v>
       </c>
       <c r="F79">
-        <v>0.78617999999999999</v>
+        <v>0.79151000000000005</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>1.2270000000000003</v>
+        <v>0.80100000000000726</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2551,23 +2551,23 @@
         <v>9</v>
       </c>
       <c r="B80" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C80">
-        <v>0.77019000000000004</v>
+        <v>0.77966999999999997</v>
       </c>
       <c r="D80">
-        <v>0.78241000000000005</v>
+        <v>0.78739000000000003</v>
       </c>
       <c r="E80">
-        <v>0.77014000000000005</v>
+        <v>0.77937999999999996</v>
       </c>
       <c r="F80">
-        <v>0.78025999999999995</v>
+        <v>0.78617999999999999</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>0.79900000000000526</v>
+        <v>1.2270000000000003</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2575,23 +2575,23 @@
         <v>9</v>
       </c>
       <c r="B81" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C81">
-        <v>0.76400999999999997</v>
+        <v>0.77019000000000004</v>
       </c>
       <c r="D81">
-        <v>0.77198</v>
+        <v>0.78241000000000005</v>
       </c>
       <c r="E81">
-        <v>0.76398999999999995</v>
+        <v>0.77014000000000005</v>
       </c>
       <c r="F81">
-        <v>0.77134999999999998</v>
+        <v>0.78025999999999995</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>1.9560000000000022</v>
+        <v>0.79900000000000526</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2599,23 +2599,23 @@
         <v>9</v>
       </c>
       <c r="B82" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C82">
-        <v>0.75051000000000001</v>
+        <v>0.76400999999999997</v>
       </c>
       <c r="D82">
-        <v>0.76939000000000002</v>
+        <v>0.77198</v>
       </c>
       <c r="E82">
-        <v>0.74983</v>
+        <v>0.76398999999999995</v>
       </c>
       <c r="F82">
-        <v>0.76431000000000004</v>
+        <v>0.77134999999999998</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>1.5249999999999986</v>
+        <v>1.9560000000000022</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2623,23 +2623,23 @@
         <v>9</v>
       </c>
       <c r="B83" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C83">
-        <v>0.75904000000000005</v>
+        <v>0.75051000000000001</v>
       </c>
       <c r="D83">
-        <v>0.76529999999999998</v>
+        <v>0.76939000000000002</v>
       </c>
       <c r="E83">
-        <v>0.75004999999999999</v>
+        <v>0.74983</v>
       </c>
       <c r="F83">
-        <v>0.75075999999999998</v>
+        <v>0.76431000000000004</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>0.9319999999999995</v>
+        <v>1.5249999999999986</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2647,23 +2647,23 @@
         <v>9</v>
       </c>
       <c r="B84" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C84">
-        <v>0.76114000000000004</v>
+        <v>0.75904000000000005</v>
       </c>
       <c r="D84">
-        <v>0.76439000000000001</v>
+        <v>0.76529999999999998</v>
       </c>
       <c r="E84">
-        <v>0.75507000000000002</v>
+        <v>0.75004999999999999</v>
       </c>
       <c r="F84">
-        <v>0.76085999999999998</v>
+        <v>0.75075999999999998</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>1.0660000000000003</v>
+        <v>0.9319999999999995</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2671,23 +2671,23 @@
         <v>9</v>
       </c>
       <c r="B85" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C85">
-        <v>0.75614999999999999</v>
+        <v>0.76114000000000004</v>
       </c>
       <c r="D85">
-        <v>0.76378000000000001</v>
+        <v>0.76439000000000001</v>
       </c>
       <c r="E85">
-        <v>0.75312000000000001</v>
+        <v>0.75507000000000002</v>
       </c>
       <c r="F85">
-        <v>0.76176999999999995</v>
+        <v>0.76085999999999998</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>1.2980000000000103</v>
+        <v>1.0660000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2695,23 +2695,23 @@
         <v>9</v>
       </c>
       <c r="B86" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C86">
-        <v>0.76487000000000005</v>
+        <v>0.75614999999999999</v>
       </c>
       <c r="D86">
-        <v>0.76648000000000005</v>
+        <v>0.76378000000000001</v>
       </c>
       <c r="E86">
-        <v>0.75349999999999995</v>
+        <v>0.75312000000000001</v>
       </c>
       <c r="F86">
-        <v>0.75634000000000001</v>
+        <v>0.76176999999999995</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>0.73299999999999477</v>
+        <v>1.2980000000000103</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2719,23 +2719,23 @@
         <v>9</v>
       </c>
       <c r="B87" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C87">
-        <v>0.76444999999999996</v>
+        <v>0.76487000000000005</v>
       </c>
       <c r="D87">
-        <v>0.76998</v>
+        <v>0.76648000000000005</v>
       </c>
       <c r="E87">
-        <v>0.76265000000000005</v>
+        <v>0.75349999999999995</v>
       </c>
       <c r="F87">
-        <v>0.76597999999999999</v>
+        <v>0.75634000000000001</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>0.90500000000000025</v>
+        <v>0.73299999999999477</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2743,23 +2743,23 @@
         <v>9</v>
       </c>
       <c r="B88" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C88">
-        <v>0.76675000000000004</v>
+        <v>0.76444999999999996</v>
       </c>
       <c r="D88">
-        <v>0.77288999999999997</v>
+        <v>0.76998</v>
       </c>
       <c r="E88">
-        <v>0.76383999999999996</v>
+        <v>0.76265000000000005</v>
       </c>
       <c r="F88">
-        <v>0.76482000000000006</v>
+        <v>0.76597999999999999</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>2.0939999999999959</v>
+        <v>0.90500000000000025</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2767,23 +2767,23 @@
         <v>9</v>
       </c>
       <c r="B89" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C89">
-        <v>0.78090000000000004</v>
+        <v>0.76675000000000004</v>
       </c>
       <c r="D89">
-        <v>0.78337000000000001</v>
+        <v>0.77288999999999997</v>
       </c>
       <c r="E89">
-        <v>0.76243000000000005</v>
+        <v>0.76383999999999996</v>
       </c>
       <c r="F89">
-        <v>0.76749000000000001</v>
+        <v>0.76482000000000006</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>0.81299999999999706</v>
+        <v>2.0939999999999959</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2791,23 +2791,23 @@
         <v>9</v>
       </c>
       <c r="B90" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C90">
-        <v>0.78793000000000002</v>
+        <v>0.78090000000000004</v>
       </c>
       <c r="D90">
-        <v>0.78888000000000003</v>
+        <v>0.78337000000000001</v>
       </c>
       <c r="E90">
-        <v>0.78075000000000006</v>
+        <v>0.76243000000000005</v>
       </c>
       <c r="F90">
-        <v>0.78151999999999999</v>
+        <v>0.76749000000000001</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>1.4969999999999928</v>
+        <v>0.81299999999999706</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2815,23 +2815,23 @@
         <v>9</v>
       </c>
       <c r="B91" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C91">
-        <v>0.77712000000000003</v>
+        <v>0.78793000000000002</v>
       </c>
       <c r="D91">
-        <v>0.78964999999999996</v>
+        <v>0.78888000000000003</v>
       </c>
       <c r="E91">
-        <v>0.77468000000000004</v>
+        <v>0.78075000000000006</v>
       </c>
       <c r="F91">
-        <v>0.78856999999999999</v>
+        <v>0.78151999999999999</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>1.4209999999999945</v>
+        <v>1.4969999999999928</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2839,23 +2839,23 @@
         <v>9</v>
       </c>
       <c r="B92" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C92">
-        <v>0.78303</v>
+        <v>0.77712000000000003</v>
       </c>
       <c r="D92">
-        <v>0.78742999999999996</v>
+        <v>0.78964999999999996</v>
       </c>
       <c r="E92">
-        <v>0.77322000000000002</v>
+        <v>0.77468000000000004</v>
       </c>
       <c r="F92">
-        <v>0.77722999999999998</v>
+        <v>0.78856999999999999</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>1.7419999999999991</v>
+        <v>1.4209999999999945</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2863,23 +2863,23 @@
         <v>9</v>
       </c>
       <c r="B93" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C93">
-        <v>0.79491999999999996</v>
+        <v>0.78303</v>
       </c>
       <c r="D93">
-        <v>0.79727999999999999</v>
+        <v>0.78742999999999996</v>
       </c>
       <c r="E93">
-        <v>0.77986</v>
+        <v>0.77322000000000002</v>
       </c>
       <c r="F93">
-        <v>0.78373999999999999</v>
+        <v>0.77722999999999998</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>1.9460000000000033</v>
+        <v>1.7419999999999991</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2887,23 +2887,23 @@
         <v>9</v>
       </c>
       <c r="B94" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C94">
-        <v>0.79918999999999996</v>
+        <v>0.79491999999999996</v>
       </c>
       <c r="D94">
-        <v>0.81020999999999999</v>
+        <v>0.79727999999999999</v>
       </c>
       <c r="E94">
-        <v>0.79074999999999995</v>
+        <v>0.77986</v>
       </c>
       <c r="F94">
-        <v>0.79579999999999995</v>
+        <v>0.78373999999999999</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>1.0240000000000027</v>
+        <v>1.9460000000000033</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2911,23 +2911,23 @@
         <v>9</v>
       </c>
       <c r="B95" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C95">
-        <v>0.80506</v>
+        <v>0.79918999999999996</v>
       </c>
       <c r="D95">
-        <v>0.80576000000000003</v>
+        <v>0.81020999999999999</v>
       </c>
       <c r="E95">
-        <v>0.79552</v>
+        <v>0.79074999999999995</v>
       </c>
       <c r="F95">
-        <v>0.80006999999999995</v>
+        <v>0.79579999999999995</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>1.8490000000000006</v>
+        <v>1.0240000000000027</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2935,23 +2935,23 @@
         <v>9</v>
       </c>
       <c r="B96" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C96">
-        <v>0.79459999999999997</v>
+        <v>0.80506</v>
       </c>
       <c r="D96">
-        <v>0.81242000000000003</v>
+        <v>0.80576000000000003</v>
       </c>
       <c r="E96">
-        <v>0.79393000000000002</v>
+        <v>0.79552</v>
       </c>
       <c r="F96">
-        <v>0.80552999999999997</v>
+        <v>0.80006999999999995</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>1.2620000000000076</v>
+        <v>1.8490000000000006</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2959,23 +2959,23 @@
         <v>9</v>
       </c>
       <c r="B97" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C97">
-        <v>0.79290000000000005</v>
+        <v>0.79459999999999997</v>
       </c>
       <c r="D97">
-        <v>0.79949000000000003</v>
+        <v>0.81242000000000003</v>
       </c>
       <c r="E97">
-        <v>0.78686999999999996</v>
+        <v>0.79393000000000002</v>
       </c>
       <c r="F97">
-        <v>0.79657999999999995</v>
+        <v>0.80552999999999997</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>0.878000000000001</v>
+        <v>1.2620000000000076</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2983,23 +2983,23 @@
         <v>9</v>
       </c>
       <c r="B98" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C98">
-        <v>0.79227000000000003</v>
+        <v>0.79290000000000005</v>
       </c>
       <c r="D98">
-        <v>0.79535999999999996</v>
+        <v>0.79949000000000003</v>
       </c>
       <c r="E98">
-        <v>0.78657999999999995</v>
+        <v>0.78686999999999996</v>
       </c>
       <c r="F98">
-        <v>0.79344999999999999</v>
+        <v>0.79657999999999995</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>1.5479999999999938</v>
+        <v>0.878000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3007,23 +3007,23 @@
         <v>9</v>
       </c>
       <c r="B99" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C99">
-        <v>0.78866000000000003</v>
+        <v>0.79227000000000003</v>
       </c>
       <c r="D99">
-        <v>0.79618999999999995</v>
+        <v>0.79535999999999996</v>
       </c>
       <c r="E99">
-        <v>0.78071000000000002</v>
+        <v>0.78657999999999995</v>
       </c>
       <c r="F99">
-        <v>0.79315000000000002</v>
+        <v>0.79344999999999999</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>1.0929999999999995</v>
+        <v>1.5479999999999938</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3031,23 +3031,23 @@
         <v>9</v>
       </c>
       <c r="B100" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C100">
-        <v>0.79239000000000004</v>
+        <v>0.78866000000000003</v>
       </c>
       <c r="D100">
-        <v>0.79476999999999998</v>
+        <v>0.79618999999999995</v>
       </c>
       <c r="E100">
-        <v>0.78383999999999998</v>
+        <v>0.78071000000000002</v>
       </c>
       <c r="F100">
-        <v>0.78922000000000003</v>
+        <v>0.79315000000000002</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>1.5159999999999951</v>
+        <v>1.0929999999999995</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3055,23 +3055,23 @@
         <v>9</v>
       </c>
       <c r="B101" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C101">
-        <v>0.79784999999999995</v>
+        <v>0.79239000000000004</v>
       </c>
       <c r="D101">
-        <v>0.80420999999999998</v>
+        <v>0.79476999999999998</v>
       </c>
       <c r="E101">
-        <v>0.78905000000000003</v>
+        <v>0.78383999999999998</v>
       </c>
       <c r="F101">
-        <v>0.79290000000000005</v>
+        <v>0.78922000000000003</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>1.8769999999999953</v>
+        <v>1.5159999999999951</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3079,23 +3079,23 @@
         <v>9</v>
       </c>
       <c r="B102" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C102">
-        <v>0.79066999999999998</v>
+        <v>0.79784999999999995</v>
       </c>
       <c r="D102">
-        <v>0.80647999999999997</v>
+        <v>0.80420999999999998</v>
       </c>
       <c r="E102">
-        <v>0.78771000000000002</v>
+        <v>0.78905000000000003</v>
       </c>
       <c r="F102">
-        <v>0.79871999999999999</v>
+        <v>0.79290000000000005</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>2.0009999999999972</v>
+        <v>1.8769999999999953</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3103,23 +3103,23 @@
         <v>9</v>
       </c>
       <c r="B103" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C103">
-        <v>0.78200000000000003</v>
+        <v>0.79066999999999998</v>
       </c>
       <c r="D103">
-        <v>0.79857</v>
+        <v>0.80647999999999997</v>
       </c>
       <c r="E103">
-        <v>0.77856000000000003</v>
+        <v>0.78771000000000002</v>
       </c>
       <c r="F103">
-        <v>0.79171999999999998</v>
+        <v>0.79871999999999999</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>2.4769999999999959</v>
+        <v>2.0009999999999972</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3127,23 +3127,23 @@
         <v>9</v>
       </c>
       <c r="B104" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C104">
-        <v>0.75924000000000003</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="D104">
-        <v>0.78332999999999997</v>
+        <v>0.79857</v>
       </c>
       <c r="E104">
-        <v>0.75856000000000001</v>
+        <v>0.77856000000000003</v>
       </c>
       <c r="F104">
-        <v>0.78276999999999997</v>
+        <v>0.79171999999999998</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>1.2429999999999941</v>
+        <v>2.4769999999999959</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3151,23 +3151,23 @@
         <v>9</v>
       </c>
       <c r="B105" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C105">
-        <v>0.76751999999999998</v>
+        <v>0.75924000000000003</v>
       </c>
       <c r="D105">
-        <v>0.76946999999999999</v>
+        <v>0.78332999999999997</v>
       </c>
       <c r="E105">
-        <v>0.75704000000000005</v>
+        <v>0.75856000000000001</v>
       </c>
       <c r="F105">
-        <v>0.76002999999999998</v>
+        <v>0.78276999999999997</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>1.5199999999999991</v>
+        <v>1.2429999999999941</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3175,23 +3175,23 @@
         <v>9</v>
       </c>
       <c r="B106" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C106">
-        <v>0.75614000000000003</v>
+        <v>0.76751999999999998</v>
       </c>
       <c r="D106">
-        <v>0.77115999999999996</v>
+        <v>0.76946999999999999</v>
       </c>
       <c r="E106">
-        <v>0.75595999999999997</v>
+        <v>0.75704000000000005</v>
       </c>
       <c r="F106">
-        <v>0.76876999999999995</v>
+        <v>0.76002999999999998</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>0.9380000000000055</v>
+        <v>1.5199999999999991</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3199,23 +3199,23 @@
         <v>9</v>
       </c>
       <c r="B107" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C107">
-        <v>0.76168999999999998</v>
+        <v>0.75614000000000003</v>
       </c>
       <c r="D107">
-        <v>0.76282000000000005</v>
+        <v>0.77115999999999996</v>
       </c>
       <c r="E107">
-        <v>0.75344</v>
+        <v>0.75595999999999997</v>
       </c>
       <c r="F107">
-        <v>0.75687000000000004</v>
+        <v>0.76876999999999995</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>1.1369999999999991</v>
+        <v>0.9380000000000055</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3223,23 +3223,23 @@
         <v>9</v>
       </c>
       <c r="B108" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C108">
-        <v>0.75270999999999999</v>
+        <v>0.76168999999999998</v>
       </c>
       <c r="D108">
-        <v>0.76346999999999998</v>
+        <v>0.76282000000000005</v>
       </c>
       <c r="E108">
-        <v>0.75209999999999999</v>
+        <v>0.75344</v>
       </c>
       <c r="F108">
-        <v>0.76209000000000005</v>
+        <v>0.75687000000000004</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>1.4440000000000008</v>
+        <v>1.1369999999999991</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3247,23 +3247,23 @@
         <v>9</v>
       </c>
       <c r="B109" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C109">
-        <v>0.74268999999999996</v>
+        <v>0.75270999999999999</v>
       </c>
       <c r="D109">
-        <v>0.75658000000000003</v>
+        <v>0.76346999999999998</v>
       </c>
       <c r="E109">
-        <v>0.74214000000000002</v>
+        <v>0.75209999999999999</v>
       </c>
       <c r="F109">
-        <v>0.75295000000000001</v>
+        <v>0.76209000000000005</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>1.0660000000000003</v>
+        <v>1.4440000000000008</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3271,23 +3271,23 @@
         <v>9</v>
       </c>
       <c r="B110" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C110">
-        <v>0.74346000000000001</v>
+        <v>0.74268999999999996</v>
       </c>
       <c r="D110">
-        <v>0.74750000000000005</v>
+        <v>0.75658000000000003</v>
       </c>
       <c r="E110">
-        <v>0.73684000000000005</v>
+        <v>0.74214000000000002</v>
       </c>
       <c r="F110">
-        <v>0.74436999999999998</v>
+        <v>0.75295000000000001</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>0.95100000000000184</v>
+        <v>1.0660000000000003</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3295,23 +3295,23 @@
         <v>9</v>
       </c>
       <c r="B111" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C111">
-        <v>0.74422999999999995</v>
+        <v>0.74346000000000001</v>
       </c>
       <c r="D111">
-        <v>0.75163999999999997</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="E111">
-        <v>0.74212999999999996</v>
+        <v>0.73684000000000005</v>
       </c>
       <c r="F111">
-        <v>0.74441000000000002</v>
+        <v>0.74436999999999998</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>0.85000000000000631</v>
+        <v>0.95100000000000184</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3319,23 +3319,23 @@
         <v>9</v>
       </c>
       <c r="B112" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C112">
-        <v>0.73892999999999998</v>
+        <v>0.74422999999999995</v>
       </c>
       <c r="D112">
-        <v>0.74690000000000001</v>
+        <v>0.75163999999999997</v>
       </c>
       <c r="E112">
-        <v>0.73839999999999995</v>
+        <v>0.74212999999999996</v>
       </c>
       <c r="F112">
-        <v>0.74565000000000003</v>
+        <v>0.74441000000000002</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>0.95499999999999474</v>
+        <v>0.85000000000000631</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3343,23 +3343,23 @@
         <v>9</v>
       </c>
       <c r="B113" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C113">
-        <v>0.74063000000000001</v>
+        <v>0.73892999999999998</v>
       </c>
       <c r="D113">
-        <v>0.74236999999999997</v>
+        <v>0.74690000000000001</v>
       </c>
       <c r="E113">
-        <v>0.73282000000000003</v>
+        <v>0.73839999999999995</v>
       </c>
       <c r="F113">
-        <v>0.73889000000000005</v>
+        <v>0.74565000000000003</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>1.8850000000000033</v>
+        <v>0.95499999999999474</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3367,23 +3367,23 @@
         <v>9</v>
       </c>
       <c r="B114" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C114">
-        <v>0.74783999999999995</v>
+        <v>0.74063000000000001</v>
       </c>
       <c r="D114">
-        <v>0.75553000000000003</v>
+        <v>0.74236999999999997</v>
       </c>
       <c r="E114">
-        <v>0.73668</v>
+        <v>0.73282000000000003</v>
       </c>
       <c r="F114">
-        <v>0.74177000000000004</v>
+        <v>0.73889000000000005</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>1.4440000000000008</v>
+        <v>1.8850000000000033</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3391,23 +3391,23 @@
         <v>9</v>
       </c>
       <c r="B115" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C115">
-        <v>0.75627999999999995</v>
+        <v>0.74783999999999995</v>
       </c>
       <c r="D115">
-        <v>0.75836999999999999</v>
+        <v>0.75553000000000003</v>
       </c>
       <c r="E115">
-        <v>0.74392999999999998</v>
+        <v>0.73668</v>
       </c>
       <c r="F115">
-        <v>0.74875000000000003</v>
+        <v>0.74177000000000004</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>1.1960000000000082</v>
+        <v>1.4440000000000008</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3415,23 +3415,23 @@
         <v>9</v>
       </c>
       <c r="B116" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C116">
-        <v>0.75727</v>
+        <v>0.75627999999999995</v>
       </c>
       <c r="D116">
-        <v>0.76099000000000006</v>
+        <v>0.75836999999999999</v>
       </c>
       <c r="E116">
-        <v>0.74902999999999997</v>
+        <v>0.74392999999999998</v>
       </c>
       <c r="F116">
-        <v>0.75410999999999995</v>
+        <v>0.74875000000000003</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>1.2279999999999958</v>
+        <v>1.1960000000000082</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3439,23 +3439,23 @@
         <v>9</v>
       </c>
       <c r="B117" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C117">
-        <v>0.74934999999999996</v>
+        <v>0.75727</v>
       </c>
       <c r="D117">
-        <v>0.75949</v>
+        <v>0.76099000000000006</v>
       </c>
       <c r="E117">
-        <v>0.74721000000000004</v>
+        <v>0.74902999999999997</v>
       </c>
       <c r="F117">
-        <v>0.75749</v>
+        <v>0.75410999999999995</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>1.4639999999999986</v>
+        <v>1.2279999999999958</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3463,23 +3463,23 @@
         <v>9</v>
       </c>
       <c r="B118" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C118">
-        <v>0.76273000000000002</v>
+        <v>0.74934999999999996</v>
       </c>
       <c r="D118">
-        <v>0.76395999999999997</v>
+        <v>0.75949</v>
       </c>
       <c r="E118">
-        <v>0.74931999999999999</v>
+        <v>0.74721000000000004</v>
       </c>
       <c r="F118">
-        <v>0.75022</v>
+        <v>0.75749</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>0.92100000000000515</v>
+        <v>1.4639999999999986</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3487,23 +3487,23 @@
         <v>9</v>
       </c>
       <c r="B119" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C119">
-        <v>0.76283000000000001</v>
+        <v>0.76273000000000002</v>
       </c>
       <c r="D119">
-        <v>0.76787000000000005</v>
+        <v>0.76395999999999997</v>
       </c>
       <c r="E119">
-        <v>0.75866</v>
+        <v>0.74931999999999999</v>
       </c>
       <c r="F119">
-        <v>0.76324999999999998</v>
+        <v>0.75022</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>1.4569999999999972</v>
+        <v>0.92100000000000515</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3511,23 +3511,23 @@
         <v>9</v>
       </c>
       <c r="B120" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C120">
-        <v>0.76948000000000005</v>
+        <v>0.76283000000000001</v>
       </c>
       <c r="D120">
-        <v>0.77488999999999997</v>
+        <v>0.76787000000000005</v>
       </c>
       <c r="E120">
-        <v>0.76032</v>
+        <v>0.75866</v>
       </c>
       <c r="F120">
-        <v>0.76236999999999999</v>
+        <v>0.76324999999999998</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>1.8540000000000001</v>
+        <v>1.4569999999999972</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3535,23 +3535,23 @@
         <v>9</v>
       </c>
       <c r="B121" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C121">
-        <v>0.75424999999999998</v>
+        <v>0.76948000000000005</v>
       </c>
       <c r="D121">
-        <v>0.77185000000000004</v>
+        <v>0.77488999999999997</v>
       </c>
       <c r="E121">
-        <v>0.75331000000000004</v>
+        <v>0.76032</v>
       </c>
       <c r="F121">
-        <v>0.7702</v>
+        <v>0.76236999999999999</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>1.4140000000000041</v>
+        <v>1.8540000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3559,23 +3559,23 @@
         <v>9</v>
       </c>
       <c r="B122" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C122">
-        <v>0.75839000000000001</v>
+        <v>0.75424999999999998</v>
       </c>
       <c r="D122">
-        <v>0.76319999999999999</v>
+        <v>0.77185000000000004</v>
       </c>
       <c r="E122">
-        <v>0.74905999999999995</v>
+        <v>0.75331000000000004</v>
       </c>
       <c r="F122">
-        <v>0.75453999999999999</v>
+        <v>0.7702</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>1.6470000000000096</v>
+        <v>1.4140000000000041</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3583,23 +3583,23 @@
         <v>9</v>
       </c>
       <c r="B123" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C123">
-        <v>0.76766999999999996</v>
+        <v>0.75839000000000001</v>
       </c>
       <c r="D123">
-        <v>0.77070000000000005</v>
+        <v>0.76319999999999999</v>
       </c>
       <c r="E123">
-        <v>0.75422999999999996</v>
+        <v>0.74905999999999995</v>
       </c>
       <c r="F123">
-        <v>0.75915999999999995</v>
+        <v>0.75453999999999999</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>0.91099999999999515</v>
+        <v>1.6470000000000096</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3607,23 +3607,23 @@
         <v>9</v>
       </c>
       <c r="B124" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C124">
-        <v>0.76688000000000001</v>
+        <v>0.76766999999999996</v>
       </c>
       <c r="D124">
-        <v>0.77398999999999996</v>
+        <v>0.77070000000000005</v>
       </c>
       <c r="E124">
-        <v>0.76488</v>
+        <v>0.75422999999999996</v>
       </c>
       <c r="F124">
-        <v>0.76700000000000002</v>
+        <v>0.75915999999999995</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>1.1419999999999986</v>
+        <v>0.91099999999999515</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3631,23 +3631,23 @@
         <v>9</v>
       </c>
       <c r="B125" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C125">
-        <v>0.76758000000000004</v>
+        <v>0.76688000000000001</v>
       </c>
       <c r="D125">
-        <v>0.77315</v>
+        <v>0.77398999999999996</v>
       </c>
       <c r="E125">
-        <v>0.76173000000000002</v>
+        <v>0.76488</v>
       </c>
       <c r="F125">
-        <v>0.76671</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>0.82800000000000651</v>
+        <v>1.1419999999999986</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3655,23 +3655,23 @@
         <v>9</v>
       </c>
       <c r="B126" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C126">
-        <v>0.76717999999999997</v>
+        <v>0.76758000000000004</v>
       </c>
       <c r="D126">
-        <v>0.76880000000000004</v>
+        <v>0.77315</v>
       </c>
       <c r="E126">
-        <v>0.76051999999999997</v>
+        <v>0.76173000000000002</v>
       </c>
       <c r="F126">
-        <v>0.76724999999999999</v>
+        <v>0.76671</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>1.6839999999999966</v>
+        <v>0.82800000000000651</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3679,23 +3679,23 @@
         <v>9</v>
       </c>
       <c r="B127" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C127">
-        <v>0.75570999999999999</v>
+        <v>0.76717999999999997</v>
       </c>
       <c r="D127">
-        <v>0.76954</v>
+        <v>0.76880000000000004</v>
       </c>
       <c r="E127">
-        <v>0.75270000000000004</v>
+        <v>0.76051999999999997</v>
       </c>
       <c r="F127">
-        <v>0.76766000000000001</v>
+        <v>0.76724999999999999</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>0.97500000000000364</v>
+        <v>1.6839999999999966</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3703,23 +3703,23 @@
         <v>9</v>
       </c>
       <c r="B128" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C128">
-        <v>0.75461</v>
+        <v>0.75570999999999999</v>
       </c>
       <c r="D128">
-        <v>0.76082000000000005</v>
+        <v>0.76954</v>
       </c>
       <c r="E128">
-        <v>0.75107000000000002</v>
+        <v>0.75270000000000004</v>
       </c>
       <c r="F128">
-        <v>0.75451999999999997</v>
+        <v>0.76766000000000001</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>1.3070000000000026</v>
+        <v>0.97500000000000364</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3727,23 +3727,23 @@
         <v>9</v>
       </c>
       <c r="B129" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C129">
-        <v>0.74709999999999999</v>
+        <v>0.75461</v>
       </c>
       <c r="D129">
-        <v>0.75880999999999998</v>
+        <v>0.76082000000000005</v>
       </c>
       <c r="E129">
-        <v>0.74573999999999996</v>
+        <v>0.75107000000000002</v>
       </c>
       <c r="F129">
-        <v>0.75544</v>
+        <v>0.75451999999999997</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>2.3010000000000086</v>
+        <v>1.3070000000000026</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3751,23 +3751,23 @@
         <v>9</v>
       </c>
       <c r="B130" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C130">
-        <v>0.72916999999999998</v>
+        <v>0.74709999999999999</v>
       </c>
       <c r="D130">
-        <v>0.75177000000000005</v>
+        <v>0.75880999999999998</v>
       </c>
       <c r="E130">
-        <v>0.72875999999999996</v>
+        <v>0.74573999999999996</v>
       </c>
       <c r="F130">
-        <v>0.75016000000000005</v>
+        <v>0.75544</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>1.7930000000000001</v>
+        <v>2.3010000000000086</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3775,23 +3775,23 @@
         <v>9</v>
       </c>
       <c r="B131" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C131">
-        <v>0.7177</v>
+        <v>0.72916999999999998</v>
       </c>
       <c r="D131">
-        <v>0.73560999999999999</v>
+        <v>0.75177000000000005</v>
       </c>
       <c r="E131">
-        <v>0.71767999999999998</v>
+        <v>0.72875999999999996</v>
       </c>
       <c r="F131">
-        <v>0.72940000000000005</v>
+        <v>0.75016000000000005</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>0.94800000000000439</v>
+        <v>1.7930000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3799,23 +3799,23 @@
         <v>9</v>
       </c>
       <c r="B132" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C132">
-        <v>0.71531999999999996</v>
+        <v>0.7177</v>
       </c>
       <c r="D132">
-        <v>0.72460000000000002</v>
+        <v>0.73560999999999999</v>
       </c>
       <c r="E132">
-        <v>0.71511999999999998</v>
+        <v>0.71767999999999998</v>
       </c>
       <c r="F132">
-        <v>0.72065000000000001</v>
+        <v>0.72940000000000005</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>1.5290000000000026</v>
+        <v>0.94800000000000439</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3823,23 +3823,23 @@
         <v>9</v>
       </c>
       <c r="B133" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C133">
-        <v>0.72782999999999998</v>
+        <v>0.71531999999999996</v>
       </c>
       <c r="D133">
-        <v>0.73121999999999998</v>
+        <v>0.72460000000000002</v>
       </c>
       <c r="E133">
-        <v>0.71592999999999996</v>
+        <v>0.71511999999999998</v>
       </c>
       <c r="F133">
-        <v>0.71763999999999994</v>
+        <v>0.72065000000000001</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>2.5859999999999994</v>
+        <v>1.5290000000000026</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3847,23 +3847,23 @@
         <v>9</v>
       </c>
       <c r="B134" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C134">
-        <v>0.74422999999999995</v>
+        <v>0.72782999999999998</v>
       </c>
       <c r="D134">
-        <v>0.75239999999999996</v>
+        <v>0.73121999999999998</v>
       </c>
       <c r="E134">
-        <v>0.72653999999999996</v>
+        <v>0.71592999999999996</v>
       </c>
       <c r="F134">
-        <v>0.72962000000000005</v>
+        <v>0.71763999999999994</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>0.97300000000000164</v>
+        <v>2.5859999999999994</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3871,23 +3871,23 @@
         <v>9</v>
       </c>
       <c r="B135" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C135">
-        <v>0.74483999999999995</v>
+        <v>0.74422999999999995</v>
       </c>
       <c r="D135">
-        <v>0.75072000000000005</v>
+        <v>0.75239999999999996</v>
       </c>
       <c r="E135">
-        <v>0.74099000000000004</v>
+        <v>0.72653999999999996</v>
       </c>
       <c r="F135">
-        <v>0.74485999999999997</v>
+        <v>0.72962000000000005</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>1.2739999999999974</v>
+        <v>0.97300000000000164</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3895,23 +3895,23 @@
         <v>9</v>
       </c>
       <c r="B136" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C136">
-        <v>0.74397000000000002</v>
+        <v>0.74483999999999995</v>
       </c>
       <c r="D136">
-        <v>0.74968000000000001</v>
+        <v>0.75072000000000005</v>
       </c>
       <c r="E136">
-        <v>0.73694000000000004</v>
+        <v>0.74099000000000004</v>
       </c>
       <c r="F136">
-        <v>0.74577000000000004</v>
+        <v>0.74485999999999997</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>1.5720000000000067</v>
+        <v>1.2739999999999974</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3919,23 +3919,23 @@
         <v>9</v>
       </c>
       <c r="B137" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C137">
-        <v>0.73265000000000002</v>
+        <v>0.74397000000000002</v>
       </c>
       <c r="D137">
-        <v>0.74675000000000002</v>
+        <v>0.74968000000000001</v>
       </c>
       <c r="E137">
-        <v>0.73102999999999996</v>
+        <v>0.73694000000000004</v>
       </c>
       <c r="F137">
-        <v>0.74339</v>
+        <v>0.74577000000000004</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>2.5100000000000011</v>
+        <v>1.5720000000000067</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3943,23 +3943,23 @@
         <v>9</v>
       </c>
       <c r="B138" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C138">
-        <v>0.75412999999999997</v>
+        <v>0.73265000000000002</v>
       </c>
       <c r="D138">
-        <v>0.75805999999999996</v>
+        <v>0.74675000000000002</v>
       </c>
       <c r="E138">
-        <v>0.73295999999999994</v>
+        <v>0.73102999999999996</v>
       </c>
       <c r="F138">
-        <v>0.73390999999999995</v>
+        <v>0.74339</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>2.5270000000000015</v>
+        <v>2.5100000000000011</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3967,23 +3967,23 @@
         <v>9</v>
       </c>
       <c r="B139" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C139">
-        <v>0.76704000000000006</v>
+        <v>0.75412999999999997</v>
       </c>
       <c r="D139">
-        <v>0.77771999999999997</v>
+        <v>0.75805999999999996</v>
       </c>
       <c r="E139">
-        <v>0.75244999999999995</v>
+        <v>0.73295999999999994</v>
       </c>
       <c r="F139">
-        <v>0.75505999999999995</v>
+        <v>0.73390999999999995</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>1.1319999999999997</v>
+        <v>2.5270000000000015</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3991,23 +3991,23 @@
         <v>9</v>
       </c>
       <c r="B140" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C140">
-        <v>0.75932999999999995</v>
+        <v>0.76704000000000006</v>
       </c>
       <c r="D140">
-        <v>0.76956999999999998</v>
+        <v>0.77771999999999997</v>
       </c>
       <c r="E140">
-        <v>0.75824999999999998</v>
+        <v>0.75244999999999995</v>
       </c>
       <c r="F140">
-        <v>0.76776</v>
+        <v>0.75505999999999995</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>1.5449999999999964</v>
+        <v>1.1319999999999997</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4015,23 +4015,23 @@
         <v>9</v>
       </c>
       <c r="B141" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C141">
-        <v>0.76</v>
+        <v>0.75932999999999995</v>
       </c>
       <c r="D141">
-        <v>0.77081</v>
+        <v>0.76956999999999998</v>
       </c>
       <c r="E141">
-        <v>0.75536000000000003</v>
+        <v>0.75824999999999998</v>
       </c>
       <c r="F141">
-        <v>0.75963000000000003</v>
+        <v>0.76776</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>1.5339999999999909</v>
+        <v>1.5449999999999964</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4039,23 +4039,23 @@
         <v>9</v>
       </c>
       <c r="B142" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C142">
-        <v>0.76132</v>
+        <v>0.76</v>
       </c>
       <c r="D142">
-        <v>0.77337999999999996</v>
+        <v>0.77081</v>
       </c>
       <c r="E142">
-        <v>0.75804000000000005</v>
+        <v>0.75536000000000003</v>
       </c>
       <c r="F142">
-        <v>0.76032999999999995</v>
+        <v>0.75963000000000003</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>1.4100000000000001</v>
+        <v>1.5339999999999909</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4063,23 +4063,23 @@
         <v>9</v>
       </c>
       <c r="B143" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C143">
-        <v>0.75856000000000001</v>
+        <v>0.76132</v>
       </c>
       <c r="D143">
-        <v>0.76468000000000003</v>
+        <v>0.77337999999999996</v>
       </c>
       <c r="E143">
-        <v>0.75058000000000002</v>
+        <v>0.75804000000000005</v>
       </c>
       <c r="F143">
-        <v>0.76115999999999995</v>
+        <v>0.76032999999999995</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>1.3789999999999969</v>
+        <v>1.4100000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4087,23 +4087,23 @@
         <v>9</v>
       </c>
       <c r="B144" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C144">
-        <v>0.76563999999999999</v>
+        <v>0.75856000000000001</v>
       </c>
       <c r="D144">
-        <v>0.76902999999999999</v>
+        <v>0.76468000000000003</v>
       </c>
       <c r="E144">
-        <v>0.75524000000000002</v>
+        <v>0.75058000000000002</v>
       </c>
       <c r="F144">
-        <v>0.75838000000000005</v>
+        <v>0.76115999999999995</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>1.2029999999999985</v>
+        <v>1.3789999999999969</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4111,23 +4111,23 @@
         <v>9</v>
       </c>
       <c r="B145" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C145">
-        <v>0.76110999999999995</v>
+        <v>0.76563999999999999</v>
       </c>
       <c r="D145">
-        <v>0.77093</v>
+        <v>0.76902999999999999</v>
       </c>
       <c r="E145">
-        <v>0.75890000000000002</v>
+        <v>0.75524000000000002</v>
       </c>
       <c r="F145">
-        <v>0.76578999999999997</v>
+        <v>0.75838000000000005</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>1.9509999999999916</v>
+        <v>1.2029999999999985</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4135,23 +4135,23 @@
         <v>9</v>
       </c>
       <c r="B146" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C146">
-        <v>0.74789000000000005</v>
+        <v>0.76110999999999995</v>
       </c>
       <c r="D146">
-        <v>0.76739999999999997</v>
+        <v>0.77093</v>
       </c>
       <c r="E146">
-        <v>0.74789000000000005</v>
+        <v>0.75890000000000002</v>
       </c>
       <c r="F146">
-        <v>0.76232</v>
+        <v>0.76578999999999997</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>1.258999999999999</v>
+        <v>1.9509999999999916</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4159,23 +4159,23 @@
         <v>9</v>
       </c>
       <c r="B147" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C147">
-        <v>0.75371999999999995</v>
+        <v>0.74789000000000005</v>
       </c>
       <c r="D147">
-        <v>0.75670999999999999</v>
+        <v>0.76739999999999997</v>
       </c>
       <c r="E147">
-        <v>0.74412</v>
+        <v>0.74789000000000005</v>
       </c>
       <c r="F147">
-        <v>0.74914000000000003</v>
+        <v>0.76232</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>1.9469999999999987</v>
+        <v>1.258999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4183,23 +4183,23 @@
         <v>9</v>
       </c>
       <c r="B148" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C148">
-        <v>0.75682000000000005</v>
+        <v>0.75371999999999995</v>
       </c>
       <c r="D148">
-        <v>0.77315</v>
+        <v>0.75670999999999999</v>
       </c>
       <c r="E148">
-        <v>0.75368000000000002</v>
+        <v>0.74412</v>
       </c>
       <c r="F148">
-        <v>0.75392000000000003</v>
+        <v>0.74914000000000003</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>1.256999999999997</v>
+        <v>1.9469999999999987</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4207,23 +4207,23 @@
         <v>9</v>
       </c>
       <c r="B149" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C149">
-        <v>0.75485999999999998</v>
+        <v>0.75682000000000005</v>
       </c>
       <c r="D149">
-        <v>0.76149999999999995</v>
+        <v>0.77315</v>
       </c>
       <c r="E149">
-        <v>0.74892999999999998</v>
+        <v>0.75368000000000002</v>
       </c>
       <c r="F149">
-        <v>0.75678999999999996</v>
+        <v>0.75392000000000003</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>1.4009999999999967</v>
+        <v>1.256999999999997</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4231,23 +4231,23 @@
         <v>9</v>
       </c>
       <c r="B150" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C150">
-        <v>0.76068000000000002</v>
+        <v>0.75485999999999998</v>
       </c>
       <c r="D150">
-        <v>0.76905999999999997</v>
+        <v>0.76149999999999995</v>
       </c>
       <c r="E150">
-        <v>0.75505</v>
+        <v>0.74892999999999998</v>
       </c>
       <c r="F150">
-        <v>0.75619000000000003</v>
+        <v>0.75678999999999996</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>1.5029999999999988</v>
+        <v>1.4009999999999967</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4255,23 +4255,23 @@
         <v>9</v>
       </c>
       <c r="B151" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C151">
-        <v>0.76515999999999995</v>
+        <v>0.76068000000000002</v>
       </c>
       <c r="D151">
-        <v>0.77485999999999999</v>
+        <v>0.76905999999999997</v>
       </c>
       <c r="E151">
-        <v>0.75983000000000001</v>
+        <v>0.75505</v>
       </c>
       <c r="F151">
-        <v>0.76234000000000002</v>
+        <v>0.75619000000000003</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>1.5830000000000011</v>
+        <v>1.5029999999999988</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4279,23 +4279,23 @@
         <v>9</v>
       </c>
       <c r="B152" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C152">
-        <v>0.75995000000000001</v>
+        <v>0.76515999999999995</v>
       </c>
       <c r="D152">
-        <v>0.77551000000000003</v>
+        <v>0.77485999999999999</v>
       </c>
       <c r="E152">
-        <v>0.75968000000000002</v>
+        <v>0.75983000000000001</v>
       </c>
       <c r="F152">
-        <v>0.76476999999999995</v>
+        <v>0.76234000000000002</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>1.8299999999999983</v>
+        <v>1.5830000000000011</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4303,23 +4303,23 @@
         <v>9</v>
       </c>
       <c r="B153" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C153">
-        <v>0.75919999999999999</v>
+        <v>0.75995000000000001</v>
       </c>
       <c r="D153">
-        <v>0.76632999999999996</v>
+        <v>0.77551000000000003</v>
       </c>
       <c r="E153">
-        <v>0.74802999999999997</v>
+        <v>0.75968000000000002</v>
       </c>
       <c r="F153">
-        <v>0.76185000000000003</v>
+        <v>0.76476999999999995</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>1.9390000000000018</v>
+        <v>1.8299999999999983</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4327,23 +4327,23 @@
         <v>9</v>
       </c>
       <c r="B154" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C154">
-        <v>0.74589000000000005</v>
+        <v>0.75919999999999999</v>
       </c>
       <c r="D154">
-        <v>0.76095000000000002</v>
+        <v>0.76632999999999996</v>
       </c>
       <c r="E154">
-        <v>0.74156</v>
+        <v>0.74802999999999997</v>
       </c>
       <c r="F154">
-        <v>0.76034000000000002</v>
+        <v>0.76185000000000003</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>1.6380000000000061</v>
+        <v>1.9390000000000018</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4351,23 +4351,23 @@
         <v>9</v>
       </c>
       <c r="B155" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C155">
-        <v>0.75890000000000002</v>
+        <v>0.74589000000000005</v>
       </c>
       <c r="D155">
-        <v>0.76058000000000003</v>
+        <v>0.76095000000000002</v>
       </c>
       <c r="E155">
-        <v>0.74419999999999997</v>
+        <v>0.74156</v>
       </c>
       <c r="F155">
-        <v>0.74678</v>
+        <v>0.76034000000000002</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>1.5429999999999944</v>
+        <v>1.6380000000000061</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4375,23 +4375,23 @@
         <v>9</v>
       </c>
       <c r="B156" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C156">
-        <v>0.75563999999999998</v>
+        <v>0.75890000000000002</v>
       </c>
       <c r="D156">
-        <v>0.76754999999999995</v>
+        <v>0.76058000000000003</v>
       </c>
       <c r="E156">
-        <v>0.75212000000000001</v>
+        <v>0.74419999999999997</v>
       </c>
       <c r="F156">
-        <v>0.7571</v>
+        <v>0.74678</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>1.6240000000000032</v>
+        <v>1.5429999999999944</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4399,23 +4399,23 @@
         <v>9</v>
       </c>
       <c r="B157" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C157">
-        <v>0.74536999999999998</v>
+        <v>0.75563999999999998</v>
       </c>
       <c r="D157">
-        <v>0.75697000000000003</v>
+        <v>0.76754999999999995</v>
       </c>
       <c r="E157">
-        <v>0.74073</v>
+        <v>0.75212000000000001</v>
       </c>
       <c r="F157">
-        <v>0.75683</v>
+        <v>0.7571</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>1.7850000000000033</v>
+        <v>1.6240000000000032</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4423,23 +4423,23 @@
         <v>9</v>
       </c>
       <c r="B158" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C158">
-        <v>0.74158000000000002</v>
+        <v>0.74536999999999998</v>
       </c>
       <c r="D158">
-        <v>0.75021000000000004</v>
+        <v>0.75697000000000003</v>
       </c>
       <c r="E158">
-        <v>0.73236000000000001</v>
+        <v>0.74073</v>
       </c>
       <c r="F158">
-        <v>0.74922999999999995</v>
+        <v>0.75683</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>3.7110000000000087</v>
+        <v>1.7850000000000033</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4447,23 +4447,23 @@
         <v>9</v>
       </c>
       <c r="B159" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C159">
-        <v>0.74233000000000005</v>
+        <v>0.74158000000000002</v>
       </c>
       <c r="D159">
-        <v>0.76409000000000005</v>
+        <v>0.75021000000000004</v>
       </c>
       <c r="E159">
-        <v>0.72697999999999996</v>
+        <v>0.73236000000000001</v>
       </c>
       <c r="F159">
-        <v>0.74687999999999999</v>
+        <v>0.74922999999999995</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>1.6110000000000069</v>
+        <v>3.7110000000000087</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4471,23 +4471,23 @@
         <v>9</v>
       </c>
       <c r="B160" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C160">
-        <v>0.73658999999999997</v>
+        <v>0.74233000000000005</v>
       </c>
       <c r="D160">
-        <v>0.74455000000000005</v>
+        <v>0.76409000000000005</v>
       </c>
       <c r="E160">
-        <v>0.72843999999999998</v>
+        <v>0.72697999999999996</v>
       </c>
       <c r="F160">
-        <v>0.73928000000000005</v>
+        <v>0.74687999999999999</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>1.8920000000000048</v>
+        <v>1.6110000000000069</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4495,23 +4495,23 @@
         <v>9</v>
       </c>
       <c r="B161" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C161">
-        <v>0.73577999999999999</v>
+        <v>0.73658999999999997</v>
       </c>
       <c r="D161">
-        <v>0.75039</v>
+        <v>0.74455000000000005</v>
       </c>
       <c r="E161">
-        <v>0.73146999999999995</v>
+        <v>0.72843999999999998</v>
       </c>
       <c r="F161">
-        <v>0.7379</v>
+        <v>0.73928000000000005</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>2.1880000000000011</v>
+        <v>1.8920000000000048</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4519,23 +4519,23 @@
         <v>9</v>
       </c>
       <c r="B162" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C162">
-        <v>0.71752000000000005</v>
+        <v>0.73577999999999999</v>
       </c>
       <c r="D162">
-        <v>0.73670000000000002</v>
+        <v>0.75039</v>
       </c>
       <c r="E162">
-        <v>0.71482000000000001</v>
+        <v>0.73146999999999995</v>
       </c>
       <c r="F162">
-        <v>0.73660999999999999</v>
+        <v>0.7379</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>1.146999999999998</v>
+        <v>2.1880000000000011</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4543,23 +4543,23 @@
         <v>9</v>
       </c>
       <c r="B163" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C163">
-        <v>0.72241</v>
+        <v>0.71752000000000005</v>
       </c>
       <c r="D163">
-        <v>0.72589000000000004</v>
+        <v>0.73670000000000002</v>
       </c>
       <c r="E163">
-        <v>0.71442000000000005</v>
+        <v>0.71482000000000001</v>
       </c>
       <c r="F163">
-        <v>0.71877000000000002</v>
+        <v>0.73660999999999999</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>1.9020000000000037</v>
+        <v>1.146999999999998</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4567,23 +4567,23 @@
         <v>9</v>
       </c>
       <c r="B164" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C164">
-        <v>0.72543999999999997</v>
+        <v>0.72241</v>
       </c>
       <c r="D164">
-        <v>0.73655999999999999</v>
+        <v>0.72589000000000004</v>
       </c>
       <c r="E164">
-        <v>0.71753999999999996</v>
+        <v>0.71442000000000005</v>
       </c>
       <c r="F164">
-        <v>0.72240000000000004</v>
+        <v>0.71877000000000002</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>1.4800000000000035</v>
+        <v>1.9020000000000037</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4591,23 +4591,23 @@
         <v>9</v>
       </c>
       <c r="B165" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C165">
-        <v>0.73597999999999997</v>
+        <v>0.72543999999999997</v>
       </c>
       <c r="D165">
-        <v>0.74012</v>
+        <v>0.73655999999999999</v>
       </c>
       <c r="E165">
-        <v>0.72531999999999996</v>
+        <v>0.71753999999999996</v>
       </c>
       <c r="F165">
-        <v>0.72672000000000003</v>
+        <v>0.72240000000000004</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>3.781000000000001</v>
+        <v>1.4800000000000035</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4615,23 +4615,23 @@
         <v>9</v>
       </c>
       <c r="B166" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C166">
-        <v>0.76029000000000002</v>
+        <v>0.73597999999999997</v>
       </c>
       <c r="D166">
-        <v>0.77149999999999996</v>
+        <v>0.74012</v>
       </c>
       <c r="E166">
-        <v>0.73368999999999995</v>
+        <v>0.72531999999999996</v>
       </c>
       <c r="F166">
-        <v>0.73675000000000002</v>
+        <v>0.72672000000000003</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>2.2089999999999943</v>
+        <v>3.781000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4639,23 +4639,23 @@
         <v>9</v>
       </c>
       <c r="B167" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C167">
-        <v>0.77027999999999996</v>
+        <v>0.76029000000000002</v>
       </c>
       <c r="D167">
-        <v>0.77646999999999999</v>
+        <v>0.77149999999999996</v>
       </c>
       <c r="E167">
-        <v>0.75438000000000005</v>
+        <v>0.73368999999999995</v>
       </c>
       <c r="F167">
-        <v>0.76056000000000001</v>
+        <v>0.73675000000000002</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>2.033000000000007</v>
+        <v>2.2089999999999943</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4663,23 +4663,23 @@
         <v>9</v>
       </c>
       <c r="B168" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C168">
-        <v>0.76593</v>
+        <v>0.77027999999999996</v>
       </c>
       <c r="D168">
-        <v>0.78339000000000003</v>
+        <v>0.77646999999999999</v>
       </c>
       <c r="E168">
-        <v>0.76305999999999996</v>
+        <v>0.75438000000000005</v>
       </c>
       <c r="F168">
-        <v>0.77087000000000006</v>
+        <v>0.76056000000000001</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>2.0869999999999944</v>
+        <v>2.033000000000007</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4687,23 +4687,23 @@
         <v>9</v>
       </c>
       <c r="B169" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C169">
-        <v>0.75429999999999997</v>
+        <v>0.76593</v>
       </c>
       <c r="D169">
-        <v>0.77359999999999995</v>
+        <v>0.78339000000000003</v>
       </c>
       <c r="E169">
-        <v>0.75273000000000001</v>
+        <v>0.76305999999999996</v>
       </c>
       <c r="F169">
-        <v>0.77193000000000001</v>
+        <v>0.77087000000000006</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>1.8600000000000061</v>
+        <v>2.0869999999999944</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4711,23 +4711,23 @@
         <v>9</v>
       </c>
       <c r="B170" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C170">
-        <v>0.76720999999999995</v>
+        <v>0.75429999999999997</v>
       </c>
       <c r="D170">
-        <v>0.76768000000000003</v>
+        <v>0.77359999999999995</v>
       </c>
       <c r="E170">
-        <v>0.74907999999999997</v>
+        <v>0.75273000000000001</v>
       </c>
       <c r="F170">
-        <v>0.75495000000000001</v>
+        <v>0.77193000000000001</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>2.2990000000000066</v>
+        <v>1.8600000000000061</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4735,23 +4735,23 @@
         <v>9</v>
       </c>
       <c r="B171" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C171">
-        <v>0.75000999999999995</v>
+        <v>0.76720999999999995</v>
       </c>
       <c r="D171">
-        <v>0.77222000000000002</v>
+        <v>0.76768000000000003</v>
       </c>
       <c r="E171">
-        <v>0.74922999999999995</v>
+        <v>0.74907999999999997</v>
       </c>
       <c r="F171">
-        <v>0.76803999999999994</v>
+        <v>0.75495000000000001</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>1.7140000000000044</v>
+        <v>2.2990000000000066</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4759,23 +4759,23 @@
         <v>9</v>
       </c>
       <c r="B172" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C172">
-        <v>0.75905</v>
+        <v>0.75000999999999995</v>
       </c>
       <c r="D172">
-        <v>0.76480000000000004</v>
+        <v>0.77222000000000002</v>
       </c>
       <c r="E172">
-        <v>0.74765999999999999</v>
+        <v>0.74922999999999995</v>
       </c>
       <c r="F172">
-        <v>0.75031999999999999</v>
+        <v>0.76803999999999994</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>2.6569999999999983</v>
+        <v>1.7140000000000044</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4783,23 +4783,23 @@
         <v>9</v>
       </c>
       <c r="B173" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C173">
-        <v>0.75449999999999995</v>
+        <v>0.75905</v>
       </c>
       <c r="D173">
-        <v>0.76795000000000002</v>
+        <v>0.76480000000000004</v>
       </c>
       <c r="E173">
-        <v>0.74138000000000004</v>
+        <v>0.74765999999999999</v>
       </c>
       <c r="F173">
-        <v>0.76026000000000005</v>
+        <v>0.75031999999999999</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>1.9070000000000031</v>
+        <v>2.6569999999999983</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4807,23 +4807,23 @@
         <v>9</v>
       </c>
       <c r="B174" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C174">
-        <v>0.73987999999999998</v>
+        <v>0.75449999999999995</v>
       </c>
       <c r="D174">
-        <v>0.75824999999999998</v>
+        <v>0.76795000000000002</v>
       </c>
       <c r="E174">
-        <v>0.73917999999999995</v>
+        <v>0.74138000000000004</v>
       </c>
       <c r="F174">
-        <v>0.75539999999999996</v>
+        <v>0.76026000000000005</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>3.3819999999999961</v>
+        <v>1.9070000000000031</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4831,23 +4831,23 @@
         <v>9</v>
       </c>
       <c r="B175" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C175">
-        <v>0.71155999999999997</v>
+        <v>0.73987999999999998</v>
       </c>
       <c r="D175">
-        <v>0.74424000000000001</v>
+        <v>0.75824999999999998</v>
       </c>
       <c r="E175">
-        <v>0.71042000000000005</v>
+        <v>0.73917999999999995</v>
       </c>
       <c r="F175">
-        <v>0.74333000000000005</v>
+        <v>0.75539999999999996</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>1.4089999999999936</v>
+        <v>3.3819999999999961</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4855,23 +4855,23 @@
         <v>9</v>
       </c>
       <c r="B176" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C176">
-        <v>0.71506000000000003</v>
+        <v>0.71155999999999997</v>
       </c>
       <c r="D176">
-        <v>0.72582999999999998</v>
+        <v>0.74424000000000001</v>
       </c>
       <c r="E176">
-        <v>0.71174000000000004</v>
+        <v>0.71042000000000005</v>
       </c>
       <c r="F176">
-        <v>0.71289000000000002</v>
+        <v>0.74333000000000005</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>1.1770000000000058</v>
+        <v>1.4089999999999936</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4879,23 +4879,23 @@
         <v>9</v>
       </c>
       <c r="B177" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C177">
-        <v>0.71013000000000004</v>
+        <v>0.71506000000000003</v>
       </c>
       <c r="D177">
-        <v>0.71860000000000002</v>
+        <v>0.72582999999999998</v>
       </c>
       <c r="E177">
-        <v>0.70682999999999996</v>
+        <v>0.71174000000000004</v>
       </c>
       <c r="F177">
-        <v>0.71484000000000003</v>
+        <v>0.71289000000000002</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>1.7590000000000106</v>
+        <v>1.1770000000000058</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4903,23 +4903,23 @@
         <v>9</v>
       </c>
       <c r="B178" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C178">
-        <v>0.70620000000000005</v>
+        <v>0.71013000000000004</v>
       </c>
       <c r="D178">
-        <v>0.71486000000000005</v>
+        <v>0.71860000000000002</v>
       </c>
       <c r="E178">
-        <v>0.69726999999999995</v>
+        <v>0.70682999999999996</v>
       </c>
       <c r="F178">
-        <v>0.71040999999999999</v>
+        <v>0.71484000000000003</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>2.3969999999999936</v>
+        <v>1.7590000000000106</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4927,23 +4927,23 @@
         <v>9</v>
       </c>
       <c r="B179" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C179">
-        <v>0.70735000000000003</v>
+        <v>0.70620000000000005</v>
       </c>
       <c r="D179">
-        <v>0.72419999999999995</v>
+        <v>0.71486000000000005</v>
       </c>
       <c r="E179">
-        <v>0.70023000000000002</v>
+        <v>0.69726999999999995</v>
       </c>
       <c r="F179">
-        <v>0.70723999999999998</v>
+        <v>0.71040999999999999</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>2.2179999999999978</v>
+        <v>2.3969999999999936</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4951,23 +4951,23 @@
         <v>9</v>
       </c>
       <c r="B180" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C180">
-        <v>0.69959000000000005</v>
+        <v>0.70735000000000003</v>
       </c>
       <c r="D180">
-        <v>0.71399999999999997</v>
+        <v>0.72419999999999995</v>
       </c>
       <c r="E180">
-        <v>0.69181999999999999</v>
+        <v>0.70023000000000002</v>
       </c>
       <c r="F180">
-        <v>0.70796999999999999</v>
+        <v>0.70723999999999998</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>2.1780000000000022</v>
+        <v>2.2179999999999978</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4975,23 +4975,23 @@
         <v>9</v>
       </c>
       <c r="B181" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C181">
-        <v>0.68283000000000005</v>
+        <v>0.69959000000000005</v>
       </c>
       <c r="D181">
-        <v>0.70452000000000004</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="E181">
-        <v>0.68274000000000001</v>
+        <v>0.69181999999999999</v>
       </c>
       <c r="F181">
-        <v>0.70030999999999999</v>
+        <v>0.70796999999999999</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>2.2139999999999938</v>
+        <v>2.1780000000000022</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -4999,23 +4999,23 @@
         <v>9</v>
       </c>
       <c r="B182" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C182">
-        <v>0.69662000000000002</v>
+        <v>0.68283000000000005</v>
       </c>
       <c r="D182">
-        <v>0.70477999999999996</v>
+        <v>0.70452000000000004</v>
       </c>
       <c r="E182">
-        <v>0.68264000000000002</v>
+        <v>0.68274000000000001</v>
       </c>
       <c r="F182">
-        <v>0.68705000000000005</v>
+        <v>0.70030999999999999</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>3.3689999999999998</v>
+        <v>2.2139999999999938</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5023,23 +5023,23 @@
         <v>9</v>
       </c>
       <c r="B183" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C183">
-        <v>0.72765999999999997</v>
+        <v>0.69662000000000002</v>
       </c>
       <c r="D183">
-        <v>0.72989999999999999</v>
+        <v>0.70477999999999996</v>
       </c>
       <c r="E183">
-        <v>0.69621</v>
+        <v>0.68264000000000002</v>
       </c>
       <c r="F183">
-        <v>0.69655999999999996</v>
+        <v>0.68705000000000005</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>0.82400000000000251</v>
+        <v>3.3689999999999998</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5047,23 +5047,23 @@
         <v>9</v>
       </c>
       <c r="B184" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C184">
-        <v>0.7268</v>
+        <v>0.72765999999999997</v>
       </c>
       <c r="D184">
-        <v>0.73267000000000004</v>
+        <v>0.72989999999999999</v>
       </c>
       <c r="E184">
-        <v>0.72443000000000002</v>
+        <v>0.69621</v>
       </c>
       <c r="F184">
-        <v>0.72809000000000001</v>
+        <v>0.69655999999999996</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>1.3170000000000015</v>
+        <v>0.82400000000000251</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5071,23 +5071,23 @@
         <v>9</v>
       </c>
       <c r="B185" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C185">
-        <v>0.71592</v>
+        <v>0.7268</v>
       </c>
       <c r="D185">
-        <v>0.72863</v>
+        <v>0.73267000000000004</v>
       </c>
       <c r="E185">
-        <v>0.71545999999999998</v>
+        <v>0.72443000000000002</v>
       </c>
       <c r="F185">
-        <v>0.72785</v>
+        <v>0.72809000000000001</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>1.8630000000000035</v>
+        <v>1.3170000000000015</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5095,23 +5095,23 @@
         <v>9</v>
       </c>
       <c r="B186" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C186">
-        <v>0.72009999999999996</v>
+        <v>0.71592</v>
       </c>
       <c r="D186">
-        <v>0.72824</v>
+        <v>0.72863</v>
       </c>
       <c r="E186">
-        <v>0.70960999999999996</v>
+        <v>0.71545999999999998</v>
       </c>
       <c r="F186">
-        <v>0.71733999999999998</v>
+        <v>0.72785</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>1.7079999999999984</v>
+        <v>1.8630000000000035</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5119,23 +5119,23 @@
         <v>9</v>
       </c>
       <c r="B187" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C187">
-        <v>0.73360999999999998</v>
+        <v>0.72009999999999996</v>
       </c>
       <c r="D187">
-        <v>0.73421999999999998</v>
+        <v>0.72824</v>
       </c>
       <c r="E187">
-        <v>0.71714</v>
+        <v>0.70960999999999996</v>
       </c>
       <c r="F187">
-        <v>0.71911000000000003</v>
+        <v>0.71733999999999998</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>2.1490000000000009</v>
+        <v>1.7079999999999984</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5143,23 +5143,23 @@
         <v>9</v>
       </c>
       <c r="B188" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C188">
-        <v>0.71879000000000004</v>
+        <v>0.73360999999999998</v>
       </c>
       <c r="D188">
-        <v>0.73845000000000005</v>
+        <v>0.73421999999999998</v>
       </c>
       <c r="E188">
-        <v>0.71696000000000004</v>
+        <v>0.71714</v>
       </c>
       <c r="F188">
-        <v>0.73357000000000006</v>
+        <v>0.71911000000000003</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>1.2369999999999992</v>
+        <v>2.1490000000000009</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5167,23 +5167,23 @@
         <v>9</v>
       </c>
       <c r="B189" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C189">
-        <v>0.72262999999999999</v>
+        <v>0.71879000000000004</v>
       </c>
       <c r="D189">
-        <v>0.72821000000000002</v>
+        <v>0.73845000000000005</v>
       </c>
       <c r="E189">
-        <v>0.71584000000000003</v>
+        <v>0.71696000000000004</v>
       </c>
       <c r="F189">
-        <v>0.71923999999999999</v>
+        <v>0.73357000000000006</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>1.8530000000000046</v>
+        <v>1.2369999999999992</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5191,23 +5191,23 @@
         <v>9</v>
       </c>
       <c r="B190" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C190">
-        <v>0.71120000000000005</v>
+        <v>0.72262999999999999</v>
       </c>
       <c r="D190">
-        <v>0.72496000000000005</v>
+        <v>0.72821000000000002</v>
       </c>
       <c r="E190">
-        <v>0.70643</v>
+        <v>0.71584000000000003</v>
       </c>
       <c r="F190">
-        <v>0.72358</v>
+        <v>0.71923999999999999</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>1.3919999999999932</v>
+        <v>1.8530000000000046</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5215,23 +5215,23 @@
         <v>9</v>
       </c>
       <c r="B191" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C191">
-        <v>0.70221999999999996</v>
+        <v>0.71120000000000005</v>
       </c>
       <c r="D191">
-        <v>0.71543999999999996</v>
+        <v>0.72496000000000005</v>
       </c>
       <c r="E191">
-        <v>0.70152000000000003</v>
+        <v>0.70643</v>
       </c>
       <c r="F191">
-        <v>0.71252000000000004</v>
+        <v>0.72358</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>2.0160000000000067</v>
+        <v>1.3919999999999932</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5239,23 +5239,23 @@
         <v>9</v>
       </c>
       <c r="B192" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C192">
-        <v>0.71113000000000004</v>
+        <v>0.70221999999999996</v>
       </c>
       <c r="D192">
-        <v>0.72233000000000003</v>
+        <v>0.71543999999999996</v>
       </c>
       <c r="E192">
-        <v>0.70216999999999996</v>
+        <v>0.70152000000000003</v>
       </c>
       <c r="F192">
-        <v>0.70433000000000001</v>
+        <v>0.71252000000000004</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>2.0179999999999976</v>
+        <v>2.0160000000000067</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5263,23 +5263,23 @@
         <v>9</v>
       </c>
       <c r="B193" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C193">
-        <v>0.72021000000000002</v>
+        <v>0.71113000000000004</v>
       </c>
       <c r="D193">
-        <v>0.72687999999999997</v>
+        <v>0.72233000000000003</v>
       </c>
       <c r="E193">
-        <v>0.70669999999999999</v>
+        <v>0.70216999999999996</v>
       </c>
       <c r="F193">
-        <v>0.71330000000000005</v>
+        <v>0.70433000000000001</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>1.2579999999999925</v>
+        <v>2.0179999999999976</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5287,23 +5287,23 @@
         <v>9</v>
       </c>
       <c r="B194" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C194">
-        <v>0.72540000000000004</v>
+        <v>0.72021000000000002</v>
       </c>
       <c r="D194">
-        <v>0.73065999999999998</v>
+        <v>0.72687999999999997</v>
       </c>
       <c r="E194">
-        <v>0.71808000000000005</v>
+        <v>0.70669999999999999</v>
       </c>
       <c r="F194">
-        <v>0.72158999999999995</v>
+        <v>0.71330000000000005</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>1.8339999999999912</v>
+        <v>1.2579999999999925</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5311,23 +5311,23 @@
         <v>9</v>
       </c>
       <c r="B195" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C195">
-        <v>0.73182000000000003</v>
+        <v>0.72540000000000004</v>
       </c>
       <c r="D195">
-        <v>0.73812999999999995</v>
+        <v>0.73065999999999998</v>
       </c>
       <c r="E195">
-        <v>0.71979000000000004</v>
+        <v>0.71808000000000005</v>
       </c>
       <c r="F195">
-        <v>0.72726000000000002</v>
+        <v>0.72158999999999995</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>3.0159999999999965</v>
+        <v>1.8339999999999912</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5335,23 +5335,23 @@
         <v>9</v>
       </c>
       <c r="B196" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C196">
-        <v>0.70476000000000005</v>
+        <v>0.73182000000000003</v>
       </c>
       <c r="D196">
-        <v>0.73436000000000001</v>
+        <v>0.73812999999999995</v>
       </c>
       <c r="E196">
-        <v>0.70420000000000005</v>
+        <v>0.71979000000000004</v>
       </c>
       <c r="F196">
-        <v>0.73280999999999996</v>
+        <v>0.72726000000000002</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>1.4790000000000081</v>
+        <v>3.0159999999999965</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5359,23 +5359,23 @@
         <v>9</v>
       </c>
       <c r="B197" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C197">
-        <v>0.70130999999999999</v>
+        <v>0.70476000000000005</v>
       </c>
       <c r="D197">
-        <v>0.70840000000000003</v>
+        <v>0.73436000000000001</v>
       </c>
       <c r="E197">
-        <v>0.69360999999999995</v>
+        <v>0.70420000000000005</v>
       </c>
       <c r="F197">
-        <v>0.70498000000000005</v>
+        <v>0.73280999999999996</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>2.585000000000004</v>
+        <v>1.4790000000000081</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5383,23 +5383,23 @@
         <v>9</v>
       </c>
       <c r="B198" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C198">
-        <v>0.71770999999999996</v>
+        <v>0.70130999999999999</v>
       </c>
       <c r="D198">
-        <v>0.71962999999999999</v>
+        <v>0.70840000000000003</v>
       </c>
       <c r="E198">
-        <v>0.69377999999999995</v>
+        <v>0.69360999999999995</v>
       </c>
       <c r="F198">
-        <v>0.70255999999999996</v>
+        <v>0.70498000000000005</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>2.1639999999999993</v>
+        <v>2.585000000000004</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5407,23 +5407,23 @@
         <v>9</v>
       </c>
       <c r="B199" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C199">
-        <v>0.70813000000000004</v>
+        <v>0.71770999999999996</v>
       </c>
       <c r="D199">
-        <v>0.72792000000000001</v>
+        <v>0.71962999999999999</v>
       </c>
       <c r="E199">
-        <v>0.70628000000000002</v>
+        <v>0.69377999999999995</v>
       </c>
       <c r="F199">
-        <v>0.71960999999999997</v>
+        <v>0.70255999999999996</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>1.9399999999999973</v>
+        <v>2.1639999999999993</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5431,22 +5431,23 @@
         <v>9</v>
       </c>
       <c r="B200" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C200">
-        <v>0.69066000000000005</v>
+        <v>0.70813000000000004</v>
       </c>
       <c r="D200">
-        <v>0.70987999999999996</v>
+        <v>0.72792000000000001</v>
       </c>
       <c r="E200">
-        <v>0.69047999999999998</v>
+        <v>0.70628000000000002</v>
       </c>
       <c r="F200">
-        <v>0.70875999999999995</v>
+        <v>0.71960999999999997</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>
